--- a/UK template.xlsx
+++ b/UK template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nhs.sharepoint.com/sites/ElectiveRecoveryAnalysis/Shared Documents/09 Outpatients Transformation/09_Model_Health_System/12_Routine processing/SA Templates for data bricks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{752AFE92-8F10-46C1-ADD2-FF649F8D3B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{752AFE92-8F10-46C1-ADD2-FF649F8D3B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA658042-4266-464F-B764-78B351F9D52D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="876" activeTab="1" xr2:uid="{FF7DBD49-CC0C-437A-836D-915DF7AECF87}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
   <si>
     <t>Source Data &amp; Defintions</t>
   </si>
@@ -289,6 +289,9 @@
   <si>
     <t>April 2022 to February 2025</t>
   </si>
+  <si>
+    <t>Dummy header</t>
+  </si>
 </sst>
 </file>
 
@@ -301,7 +304,7 @@
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.000000_-;\-* #,##0.000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,6 +448,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -522,7 +531,7 @@
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -614,6 +623,27 @@
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -623,28 +653,7 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -655,6 +664,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -996,10 +1006,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
+      <c r="B1" s="54"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
       <c r="F1" s="38"/>
       <c r="G1" s="38"/>
       <c r="H1" s="38"/>
@@ -1007,12 +1017,12 @@
       <c r="J1" s="38"/>
     </row>
     <row r="2" spans="2:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="48" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
+      <c r="B2" s="55" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
       <c r="F2" s="38"/>
       <c r="G2" s="38"/>
       <c r="H2" s="38"/>
@@ -1020,12 +1030,12 @@
       <c r="J2" s="38"/>
     </row>
     <row r="3" spans="2:10" ht="388.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="49" t="s">
+      <c r="B3" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
       <c r="F3" s="38"/>
       <c r="G3" s="38"/>
       <c r="H3" s="38"/>
@@ -1033,10 +1043,10 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="2:10" ht="6.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
       <c r="F4" s="38"/>
       <c r="G4" s="38"/>
       <c r="H4" s="38"/>
@@ -1057,12 +1067,12 @@
       <c r="J5" s="38"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
       <c r="F6" s="38"/>
       <c r="G6" s="38"/>
       <c r="H6" s="38"/>
@@ -1070,12 +1080,12 @@
       <c r="J6" s="38"/>
     </row>
     <row r="7" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="46"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
       <c r="F7" s="38"/>
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
@@ -1083,12 +1093,12 @@
       <c r="J7" s="38"/>
     </row>
     <row r="8" spans="2:10" s="3" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="52" t="s">
+      <c r="B8" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="52"/>
-      <c r="E8" s="52"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
       <c r="H8" s="40"/>
@@ -1096,12 +1106,12 @@
       <c r="J8" s="40"/>
     </row>
     <row r="9" spans="2:10" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="52" t="s">
+      <c r="B9" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="52"/>
-      <c r="D9" s="52"/>
-      <c r="E9" s="52"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
       <c r="H9" s="40"/>
@@ -1109,12 +1119,12 @@
       <c r="J9" s="40"/>
     </row>
     <row r="10" spans="2:10" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
       <c r="H10" s="40"/>
@@ -1122,12 +1132,12 @@
       <c r="J10" s="40"/>
     </row>
     <row r="11" spans="2:10" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="53" t="s">
+      <c r="B11" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="53"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="53"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
       <c r="H11" s="40"/>
@@ -1146,12 +1156,12 @@
       <c r="J12" s="38"/>
     </row>
     <row r="13" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="46"/>
-      <c r="D13" s="46"/>
-      <c r="E13" s="46"/>
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
       <c r="H13" s="38"/>
@@ -1159,12 +1169,12 @@
       <c r="J13" s="38"/>
     </row>
     <row r="14" spans="2:10" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="52" t="s">
+      <c r="B14" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
+      <c r="C14" s="47"/>
+      <c r="D14" s="47"/>
+      <c r="E14" s="47"/>
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
       <c r="H14" s="40"/>
@@ -1172,12 +1182,12 @@
       <c r="J14" s="40"/>
     </row>
     <row r="15" spans="2:10" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="52" t="s">
+      <c r="B15" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="52"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="52"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="47"/>
       <c r="F15" s="40"/>
       <c r="G15" s="40"/>
       <c r="H15" s="40"/>
@@ -1185,12 +1195,12 @@
       <c r="J15" s="40"/>
     </row>
     <row r="16" spans="2:10" s="3" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="52" t="s">
+      <c r="B16" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
+      <c r="E16" s="47"/>
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
       <c r="H16" s="40"/>
@@ -1198,28 +1208,28 @@
       <c r="J16" s="40"/>
     </row>
     <row r="17" spans="2:5" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="53" t="s">
+      <c r="B17" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53"/>
-      <c r="E17" s="53"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
     </row>
     <row r="18" spans="2:5" s="4" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="55" t="s">
+      <c r="B18" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
     </row>
     <row r="19" spans="2:5" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="47" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="43"/>
@@ -1236,20 +1246,20 @@
       <c r="E21" s="50"/>
     </row>
     <row r="22" spans="2:5" s="3" customFormat="1" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="49"/>
-      <c r="D22" s="49"/>
-      <c r="E22" s="49"/>
+      <c r="C22" s="51"/>
+      <c r="D22" s="51"/>
+      <c r="E22" s="51"/>
     </row>
     <row r="23" spans="2:5" s="3" customFormat="1" ht="81.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="56"/>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="43"/>
@@ -1266,12 +1276,12 @@
       <c r="E25" s="50"/>
     </row>
     <row r="26" spans="2:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="49" t="s">
+      <c r="B26" s="51" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="49"/>
-      <c r="D26" s="49"/>
-      <c r="E26" s="49"/>
+      <c r="C26" s="51"/>
+      <c r="D26" s="51"/>
+      <c r="E26" s="51"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="44"/>
@@ -1286,13 +1296,25 @@
       <c r="E28" s="38"/>
     </row>
     <row r="29" spans="2:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B5:E5"/>
+    <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B7:E7"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
     <mergeCell ref="B29:E29"/>
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B15:E15"/>
@@ -1305,18 +1327,6 @@
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1331,7 +1341,7 @@
   <dimension ref="A2:AF122"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A32" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51:XFD51"/>
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2563,6 +2573,9 @@
       <c r="Y50" s="12"/>
     </row>
     <row r="51" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="B51" s="60" t="s">
+        <v>50</v>
+      </c>
       <c r="C51" s="30"/>
       <c r="D51" s="30"/>
       <c r="E51" s="30"/>
@@ -5402,12 +5415,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="cb757152-6290-4f10-9526-458cf73e4534" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="cb757152-6290-4f10-9526-458cf73e4534" xsi:nil="true"/>
+    <TaxCatchAll xmlns="cb757152-6290-4f10-9526-458cf73e4534" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="30dd1bc9-520c-4869-8c8c-9a8c02d447dc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5624,22 +5641,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="cb757152-6290-4f10-9526-458cf73e4534" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="cb757152-6290-4f10-9526-458cf73e4534" xsi:nil="true"/>
-    <TaxCatchAll xmlns="cb757152-6290-4f10-9526-458cf73e4534" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="30dd1bc9-520c-4869-8c8c-9a8c02d447dc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8D6317F-551E-46C1-9E04-F304F9154834}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8CF2099-042E-4FB8-8771-E34D4B54F195}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="30dd1bc9-520c-4869-8c8c-9a8c02d447dc"/>
+    <ds:schemaRef ds:uri="cb757152-6290-4f10-9526-458cf73e4534"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5664,18 +5686,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8CF2099-042E-4FB8-8771-E34D4B54F195}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8D6317F-551E-46C1-9E04-F304F9154834}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="30dd1bc9-520c-4869-8c8c-9a8c02d447dc"/>
-    <ds:schemaRef ds:uri="cb757152-6290-4f10-9526-458cf73e4534"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/UK template.xlsx
+++ b/UK template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nhs.sharepoint.com/sites/ElectiveRecoveryAnalysis/Shared Documents/09 Outpatients Transformation/09_Model_Health_System/12_Routine processing/SA Templates for data bricks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{752AFE92-8F10-46C1-ADD2-FF649F8D3B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FA658042-4266-464F-B764-78B351F9D52D}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{752AFE92-8F10-46C1-ADD2-FF649F8D3B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DFB23793-0512-46E7-88D1-F0536A359350}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="876" activeTab="1" xr2:uid="{FF7DBD49-CC0C-437A-836D-915DF7AECF87}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
   <si>
     <t>Source Data &amp; Defintions</t>
   </si>
@@ -288,9 +288,6 @@
   </si>
   <si>
     <t>April 2022 to February 2025</t>
-  </si>
-  <si>
-    <t>Dummy header</t>
   </si>
 </sst>
 </file>
@@ -622,27 +619,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
@@ -653,7 +630,28 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -664,7 +662,6 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1006,10 +1003,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
       <c r="F1" s="38"/>
       <c r="G1" s="38"/>
       <c r="H1" s="38"/>
@@ -1017,12 +1014,12 @@
       <c r="J1" s="38"/>
     </row>
     <row r="2" spans="2:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="55" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
+      <c r="B2" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
       <c r="F2" s="38"/>
       <c r="G2" s="38"/>
       <c r="H2" s="38"/>
@@ -1030,12 +1027,12 @@
       <c r="J2" s="38"/>
     </row>
     <row r="3" spans="2:10" ht="388.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
       <c r="F3" s="38"/>
       <c r="G3" s="38"/>
       <c r="H3" s="38"/>
@@ -1043,10 +1040,10 @@
       <c r="J3" s="5"/>
     </row>
     <row r="4" spans="2:10" ht="6.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
       <c r="F4" s="38"/>
       <c r="G4" s="38"/>
       <c r="H4" s="38"/>
@@ -1054,12 +1051,12 @@
       <c r="J4" s="38"/>
     </row>
     <row r="5" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
       <c r="F5" s="38"/>
       <c r="G5" s="38"/>
       <c r="H5" s="38"/>
@@ -1067,12 +1064,12 @@
       <c r="J5" s="38"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
       <c r="F6" s="38"/>
       <c r="G6" s="38"/>
       <c r="H6" s="38"/>
@@ -1080,12 +1077,12 @@
       <c r="J6" s="38"/>
     </row>
     <row r="7" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="53" t="s">
+      <c r="B7" s="47" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
       <c r="F7" s="38"/>
       <c r="G7" s="38"/>
       <c r="H7" s="38"/>
@@ -1093,12 +1090,12 @@
       <c r="J7" s="38"/>
     </row>
     <row r="8" spans="2:10" s="3" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="47"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
+      <c r="C8" s="53"/>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
       <c r="F8" s="40"/>
       <c r="G8" s="40"/>
       <c r="H8" s="40"/>
@@ -1106,12 +1103,12 @@
       <c r="J8" s="40"/>
     </row>
     <row r="9" spans="2:10" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="47"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
       <c r="F9" s="40"/>
       <c r="G9" s="40"/>
       <c r="H9" s="40"/>
@@ -1119,12 +1116,12 @@
       <c r="J9" s="40"/>
     </row>
     <row r="10" spans="2:10" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="47" t="s">
+      <c r="B10" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="47"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
+      <c r="C10" s="53"/>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
       <c r="F10" s="40"/>
       <c r="G10" s="40"/>
       <c r="H10" s="40"/>
@@ -1132,12 +1129,12 @@
       <c r="J10" s="40"/>
     </row>
     <row r="11" spans="2:10" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
       <c r="F11" s="40"/>
       <c r="G11" s="40"/>
       <c r="H11" s="40"/>
@@ -1156,12 +1153,12 @@
       <c r="J12" s="38"/>
     </row>
     <row r="13" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
       <c r="H13" s="38"/>
@@ -1169,12 +1166,12 @@
       <c r="J13" s="38"/>
     </row>
     <row r="14" spans="2:10" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="47" t="s">
+      <c r="B14" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
       <c r="F14" s="40"/>
       <c r="G14" s="40"/>
       <c r="H14" s="40"/>
@@ -1182,12 +1179,12 @@
       <c r="J14" s="40"/>
     </row>
     <row r="15" spans="2:10" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="47"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
       <c r="F15" s="40"/>
       <c r="G15" s="40"/>
       <c r="H15" s="40"/>
@@ -1195,12 +1192,12 @@
       <c r="J15" s="40"/>
     </row>
     <row r="16" spans="2:10" s="3" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="47"/>
-      <c r="D16" s="47"/>
-      <c r="E16" s="47"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
       <c r="F16" s="40"/>
       <c r="G16" s="40"/>
       <c r="H16" s="40"/>
@@ -1208,28 +1205,28 @@
       <c r="J16" s="40"/>
     </row>
     <row r="17" spans="2:5" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
+      <c r="C17" s="54"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="54"/>
     </row>
     <row r="18" spans="2:5" s="4" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
     </row>
     <row r="19" spans="2:5" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="47" t="s">
+      <c r="B19" s="53" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B20" s="43"/>
@@ -1238,28 +1235,28 @@
       <c r="E20" s="39"/>
     </row>
     <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="51" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="50"/>
-      <c r="D21" s="50"/>
-      <c r="E21" s="50"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
     </row>
     <row r="22" spans="2:5" s="3" customFormat="1" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="50" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="51"/>
-      <c r="D22" s="51"/>
-      <c r="E22" s="51"/>
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
     </row>
     <row r="23" spans="2:5" s="3" customFormat="1" ht="81.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="52" t="s">
+      <c r="B23" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
+      <c r="C23" s="57"/>
+      <c r="D23" s="57"/>
+      <c r="E23" s="57"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B24" s="43"/>
@@ -1268,20 +1265,20 @@
       <c r="E24" s="43"/>
     </row>
     <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B25" s="50" t="s">
+      <c r="B25" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="50"/>
-      <c r="D25" s="50"/>
-      <c r="E25" s="50"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
     </row>
     <row r="26" spans="2:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B27" s="44"/>
@@ -1296,13 +1293,25 @@
       <c r="E28" s="38"/>
     </row>
     <row r="29" spans="2:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B29" s="46"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="46"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
@@ -1315,18 +1324,6 @@
     <mergeCell ref="B9:E9"/>
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1512,45 +1509,45 @@
       <c r="B10" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="60"/>
+      <c r="I10" s="60"/>
+      <c r="J10" s="60"/>
+      <c r="K10" s="60"/>
+      <c r="L10" s="60"/>
+      <c r="M10" s="60"/>
+      <c r="N10" s="60"/>
+      <c r="O10" s="60"/>
+      <c r="P10" s="60"/>
+      <c r="Q10" s="60"/>
     </row>
     <row r="11" spans="1:25" ht="75.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="60"/>
+      <c r="F11" s="60"/>
+      <c r="G11" s="60"/>
+      <c r="H11" s="60"/>
+      <c r="I11" s="60"/>
+      <c r="J11" s="60"/>
+      <c r="K11" s="60"/>
+      <c r="L11" s="60"/>
+      <c r="M11" s="60"/>
+      <c r="N11" s="60"/>
+      <c r="O11" s="60"/>
+      <c r="P11" s="60"/>
+      <c r="Q11" s="60"/>
     </row>
     <row r="12" spans="1:25" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="29" t="s">
@@ -1559,29 +1556,29 @@
     </row>
     <row r="14" spans="1:25" s="6" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
-      <c r="C14" s="57" t="s">
+      <c r="C14" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
       <c r="F14" s="21"/>
-      <c r="G14" s="58" t="s">
+      <c r="G14" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="58"/>
-      <c r="I14" s="58"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
       <c r="J14" s="21"/>
-      <c r="K14" s="58" t="s">
+      <c r="K14" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="L14" s="58"/>
-      <c r="M14" s="58"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
       <c r="N14" s="21"/>
-      <c r="O14" s="58" t="s">
+      <c r="O14" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="P14" s="58"/>
-      <c r="Q14" s="58"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
     </row>
     <row r="15" spans="1:25" s="8" customFormat="1" ht="60.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
@@ -2573,8 +2570,9 @@
       <c r="Y50" s="12"/>
     </row>
     <row r="51" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B51" s="60" t="s">
-        <v>50</v>
+      <c r="B51" s="46" t="str">
+        <f>B52</f>
+        <v>Specialist Advice Activity by measure, per working day</v>
       </c>
       <c r="C51" s="30"/>
       <c r="D51" s="30"/>
@@ -2613,29 +2611,29 @@
       <c r="Y53" s="12"/>
     </row>
     <row r="54" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C54" s="57" t="s">
+      <c r="C54" s="58" t="s">
         <v>35</v>
       </c>
-      <c r="D54" s="57"/>
-      <c r="E54" s="57"/>
+      <c r="D54" s="58"/>
+      <c r="E54" s="58"/>
       <c r="F54" s="21"/>
-      <c r="G54" s="58" t="s">
+      <c r="G54" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="H54" s="58"/>
-      <c r="I54" s="58"/>
+      <c r="H54" s="59"/>
+      <c r="I54" s="59"/>
       <c r="J54" s="21"/>
-      <c r="K54" s="58" t="s">
+      <c r="K54" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="L54" s="58"/>
-      <c r="M54" s="58"/>
+      <c r="L54" s="59"/>
+      <c r="M54" s="59"/>
       <c r="N54" s="21"/>
-      <c r="O54" s="58" t="s">
+      <c r="O54" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="P54" s="58"/>
-      <c r="Q54" s="58"/>
+      <c r="P54" s="59"/>
+      <c r="Q54" s="59"/>
       <c r="W54" s="25"/>
       <c r="X54" s="26"/>
       <c r="Y54" s="12"/>
@@ -5415,16 +5413,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="cb757152-6290-4f10-9526-458cf73e4534" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="cb757152-6290-4f10-9526-458cf73e4534" xsi:nil="true"/>
-    <TaxCatchAll xmlns="cb757152-6290-4f10-9526-458cf73e4534" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="30dd1bc9-520c-4869-8c8c-9a8c02d447dc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5641,27 +5635,22 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="cb757152-6290-4f10-9526-458cf73e4534" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="cb757152-6290-4f10-9526-458cf73e4534" xsi:nil="true"/>
+    <TaxCatchAll xmlns="cb757152-6290-4f10-9526-458cf73e4534" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="30dd1bc9-520c-4869-8c8c-9a8c02d447dc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8CF2099-042E-4FB8-8771-E34D4B54F195}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8D6317F-551E-46C1-9E04-F304F9154834}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="30dd1bc9-520c-4869-8c8c-9a8c02d447dc"/>
-    <ds:schemaRef ds:uri="cb757152-6290-4f10-9526-458cf73e4534"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5686,9 +5675,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8D6317F-551E-46C1-9E04-F304F9154834}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8CF2099-042E-4FB8-8771-E34D4B54F195}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="30dd1bc9-520c-4869-8c8c-9a8c02d447dc"/>
+    <ds:schemaRef ds:uri="cb757152-6290-4f10-9526-458cf73e4534"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/UK template.xlsx
+++ b/UK template.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nhs.sharepoint.com/sites/ElectiveRecoveryAnalysis/Shared Documents/09 Outpatients Transformation/09_Model_Health_System/12_Routine processing/SA Templates for data bricks/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{752AFE92-8F10-46C1-ADD2-FF649F8D3B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB490118-E809-404D-8A03-6972E57B6AD1}"/>
+  <xr:revisionPtr revIDLastSave="61" documentId="8_{752AFE92-8F10-46C1-ADD2-FF649F8D3B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43E99A1F-5002-48DA-9B39-C135052E20E4}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="876" activeTab="1" xr2:uid="{FF7DBD49-CC0C-437A-836D-915DF7AECF87}"/>
   </bookViews>
   <sheets>
     <sheet name="Source Data &amp; Defintions" sheetId="10" r:id="rId1"/>
     <sheet name="England | Specialist Advice" sheetId="11" r:id="rId2"/>
+    <sheet name="England | Working days" sheetId="12" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="49">
   <si>
     <t>Source Data &amp; Defintions</t>
   </si>
@@ -525,7 +526,7 @@
     <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -655,17 +656,20 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1340,11 +1344,9 @@
   <sheetPr>
     <tabColor theme="8" tint="0.79998168889431442"/>
   </sheetPr>
-  <dimension ref="A2:AK122"/>
+  <dimension ref="A2:AF122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1373,17 +1375,17 @@
     <col min="36" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:37" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="30"/>
       <c r="C2" s="25"/>
     </row>
-    <row r="3" spans="1:37" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="34" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="18"/>
     </row>
-    <row r="4" spans="1:37" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="31" t="s">
         <v>22</v>
       </c>
@@ -1406,7 +1408,7 @@
       <c r="P4" s="20"/>
       <c r="Q4" s="20"/>
     </row>
-    <row r="5" spans="1:37" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="31" t="s">
         <v>23</v>
       </c>
@@ -1428,7 +1430,7 @@
       <c r="P5" s="20"/>
       <c r="Q5" s="20"/>
     </row>
-    <row r="6" spans="1:37" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="31" t="s">
         <v>25</v>
       </c>
@@ -1450,7 +1452,7 @@
       <c r="P6" s="20"/>
       <c r="Q6" s="20"/>
     </row>
-    <row r="7" spans="1:37" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="31" t="s">
         <v>26</v>
       </c>
@@ -1472,7 +1474,7 @@
       <c r="P7" s="20"/>
       <c r="Q7" s="20"/>
     </row>
-    <row r="8" spans="1:37" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="31" t="s">
         <v>28</v>
       </c>
@@ -1494,7 +1496,7 @@
       <c r="P8" s="20"/>
       <c r="Q8" s="20"/>
     </row>
-    <row r="9" spans="1:37" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="32"/>
       <c r="C9" s="19"/>
       <c r="D9" s="20"/>
@@ -1512,66 +1514,62 @@
       <c r="P9" s="20"/>
       <c r="Q9" s="20"/>
     </row>
-    <row r="10" spans="1:37" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="62"/>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="62"/>
-      <c r="L10" s="62"/>
-      <c r="M10" s="62"/>
-      <c r="N10" s="62"/>
-      <c r="O10" s="62"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
-    </row>
-    <row r="11" spans="1:37" ht="75.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+    </row>
+    <row r="11" spans="1:19" ht="75.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
-    </row>
-    <row r="12" spans="1:37" s="43" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+    </row>
+    <row r="12" spans="1:19" s="43" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="T12" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y12" s="47"/>
-    </row>
-    <row r="14" spans="1:37" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:19" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="63"/>
       <c r="F14" s="21"/>
       <c r="G14" s="60" t="s">
         <v>36</v>
@@ -1579,45 +1577,19 @@
       <c r="H14" s="60"/>
       <c r="I14" s="60"/>
       <c r="J14" s="21"/>
-      <c r="K14" s="60" t="s">
+      <c r="K14" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="L14" s="60"/>
-      <c r="M14" s="60"/>
+      <c r="L14" s="62"/>
+      <c r="M14" s="62"/>
       <c r="N14" s="21"/>
-      <c r="O14" s="60" t="s">
+      <c r="O14" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="P14" s="60"/>
-      <c r="Q14" s="60"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="59" t="s">
-        <v>35</v>
-      </c>
-      <c r="V14" s="59"/>
-      <c r="W14" s="59"/>
-      <c r="X14" s="21"/>
-      <c r="Y14" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="Z14" s="60"/>
-      <c r="AA14" s="60"/>
-      <c r="AB14" s="21"/>
-      <c r="AC14" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="AD14" s="61"/>
-      <c r="AE14" s="61"/>
-      <c r="AF14" s="21"/>
-      <c r="AG14" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="AH14" s="61"/>
-      <c r="AI14" s="61"/>
-      <c r="AJ14" s="1"/>
-      <c r="AK14" s="1"/>
-    </row>
-    <row r="15" spans="1:37" s="8" customFormat="1" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P14" s="62"/>
+      <c r="Q14" s="62"/>
+    </row>
+    <row r="15" spans="1:19" s="8" customFormat="1" ht="60.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>39</v>
       </c>
@@ -1660,54 +1632,8 @@
       <c r="Q15" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="T15" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="U15" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="V15" s="9" t="s">
-        <v>44</v>
-      </c>
-      <c r="W15" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="X15" s="22"/>
-      <c r="Y15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="Z15" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="AA15" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="AB15" s="22"/>
-      <c r="AC15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="AD15" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="AE15" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF15" s="22"/>
-      <c r="AG15" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="AH15" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="AI15" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ15" s="1"/>
-      <c r="AK15" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:37" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
         <v>44652</v>
       </c>
@@ -1727,64 +1653,8 @@
       <c r="P16" s="35"/>
       <c r="Q16" s="35"/>
       <c r="S16" s="12"/>
-      <c r="T16" s="11">
-        <f t="shared" ref="T16:T50" si="0">B16</f>
-        <v>44652</v>
-      </c>
-      <c r="U16" s="13">
-        <f t="shared" ref="U16:U50" si="1">C16/$AK16</f>
-        <v>0</v>
-      </c>
-      <c r="V16" s="13">
-        <f t="shared" ref="V16:V50" si="2">D16/$AK16</f>
-        <v>0</v>
-      </c>
-      <c r="W16" s="13">
-        <f t="shared" ref="W16:W50" si="3">E16/$AK16</f>
-        <v>0</v>
-      </c>
-      <c r="Y16" s="13">
-        <f t="shared" ref="Y16:Y50" si="4">G16/$AK16</f>
-        <v>0</v>
-      </c>
-      <c r="Z16" s="13">
-        <f t="shared" ref="Z16:Z50" si="5">H16/$AK16</f>
-        <v>0</v>
-      </c>
-      <c r="AA16" s="13">
-        <f t="shared" ref="AA16:AA50" si="6">I16/$AK16</f>
-        <v>0</v>
-      </c>
-      <c r="AC16" s="13">
-        <f t="shared" ref="AC16:AC50" si="7">K16/$AK16</f>
-        <v>0</v>
-      </c>
-      <c r="AD16" s="13">
-        <f t="shared" ref="AD16:AD50" si="8">L16/$AK16</f>
-        <v>0</v>
-      </c>
-      <c r="AE16" s="13">
-        <f t="shared" ref="AE16:AE50" si="9">M16/$AK16</f>
-        <v>0</v>
-      </c>
-      <c r="AG16" s="13">
-        <f t="shared" ref="AG16:AG50" si="10">O16/$AK16</f>
-        <v>0</v>
-      </c>
-      <c r="AH16" s="13">
-        <f t="shared" ref="AH16:AH50" si="11">P16/$AK16</f>
-        <v>0</v>
-      </c>
-      <c r="AI16" s="13">
-        <f t="shared" ref="AI16:AI50" si="12">Q16/$AK16</f>
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="12"/>
-      <c r="AK16" s="27">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="2:37" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
         <v>44682</v>
       </c>
@@ -1804,64 +1674,8 @@
       <c r="P17" s="35"/>
       <c r="Q17" s="35"/>
       <c r="S17" s="12"/>
-      <c r="T17" s="11">
-        <f t="shared" si="0"/>
-        <v>44682</v>
-      </c>
-      <c r="U17" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V17" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W17" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y17" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z17" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA17" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC17" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD17" s="13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AE17" s="13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG17" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH17" s="13">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI17" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ17" s="12"/>
-      <c r="AK17" s="27">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="2:37" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
         <v>44713</v>
       </c>
@@ -1881,64 +1695,8 @@
       <c r="P18" s="35"/>
       <c r="Q18" s="35"/>
       <c r="S18" s="12"/>
-      <c r="T18" s="11">
-        <f t="shared" si="0"/>
-        <v>44713</v>
-      </c>
-      <c r="U18" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V18" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W18" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y18" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z18" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA18" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC18" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD18" s="13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AE18" s="13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG18" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH18" s="13">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI18" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ18" s="12"/>
-      <c r="AK18" s="27">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="2:37" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
         <v>44743</v>
       </c>
@@ -1958,64 +1716,8 @@
       <c r="P19" s="35"/>
       <c r="Q19" s="35"/>
       <c r="S19" s="12"/>
-      <c r="T19" s="11">
-        <f t="shared" si="0"/>
-        <v>44743</v>
-      </c>
-      <c r="U19" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V19" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W19" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y19" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z19" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA19" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC19" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD19" s="13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AE19" s="13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG19" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH19" s="13">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI19" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ19" s="12"/>
-      <c r="AK19" s="27">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="20" spans="2:37" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
         <v>44774</v>
       </c>
@@ -2035,64 +1737,8 @@
       <c r="P20" s="35"/>
       <c r="Q20" s="35"/>
       <c r="S20" s="12"/>
-      <c r="T20" s="11">
-        <f t="shared" si="0"/>
-        <v>44774</v>
-      </c>
-      <c r="U20" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V20" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W20" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y20" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z20" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA20" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC20" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD20" s="13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AE20" s="13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG20" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH20" s="13">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI20" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ20" s="12"/>
-      <c r="AK20" s="27">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="2:37" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
         <v>44805</v>
       </c>
@@ -2112,64 +1758,8 @@
       <c r="P21" s="35"/>
       <c r="Q21" s="35"/>
       <c r="S21" s="12"/>
-      <c r="T21" s="11">
-        <f t="shared" si="0"/>
-        <v>44805</v>
-      </c>
-      <c r="U21" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V21" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W21" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y21" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z21" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA21" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC21" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD21" s="13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AE21" s="13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG21" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH21" s="13">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI21" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ21" s="15"/>
-      <c r="AK21" s="27">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="2:37" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
         <v>44835</v>
       </c>
@@ -2189,64 +1779,8 @@
       <c r="P22" s="35"/>
       <c r="Q22" s="35"/>
       <c r="S22" s="12"/>
-      <c r="T22" s="11">
-        <f t="shared" si="0"/>
-        <v>44835</v>
-      </c>
-      <c r="U22" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V22" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W22" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y22" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z22" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA22" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC22" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD22" s="13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AE22" s="13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG22" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH22" s="13">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI22" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ22" s="15"/>
-      <c r="AK22" s="27">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="2:37" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
         <v>44866</v>
       </c>
@@ -2266,64 +1800,8 @@
       <c r="P23" s="35"/>
       <c r="Q23" s="35"/>
       <c r="S23" s="12"/>
-      <c r="T23" s="11">
-        <f t="shared" si="0"/>
-        <v>44866</v>
-      </c>
-      <c r="U23" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V23" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W23" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y23" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z23" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA23" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC23" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD23" s="13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AE23" s="13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG23" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH23" s="13">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI23" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ23" s="15"/>
-      <c r="AK23" s="27">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="2:37" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
         <v>44896</v>
       </c>
@@ -2343,64 +1821,8 @@
       <c r="P24" s="35"/>
       <c r="Q24" s="35"/>
       <c r="S24" s="12"/>
-      <c r="T24" s="11">
-        <f t="shared" si="0"/>
-        <v>44896</v>
-      </c>
-      <c r="U24" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V24" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W24" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y24" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z24" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA24" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC24" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD24" s="13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AE24" s="13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG24" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH24" s="13">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI24" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ24" s="15"/>
-      <c r="AK24" s="27">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="2:37" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
         <v>44927</v>
       </c>
@@ -2420,64 +1842,8 @@
       <c r="P25" s="35"/>
       <c r="Q25" s="35"/>
       <c r="S25" s="12"/>
-      <c r="T25" s="11">
-        <f t="shared" si="0"/>
-        <v>44927</v>
-      </c>
-      <c r="U25" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V25" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W25" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y25" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z25" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA25" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC25" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD25" s="13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AE25" s="13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG25" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH25" s="13">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI25" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ25" s="15"/>
-      <c r="AK25" s="27">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="26" spans="2:37" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
         <v>44958</v>
       </c>
@@ -2497,64 +1863,8 @@
       <c r="P26" s="35"/>
       <c r="Q26" s="35"/>
       <c r="S26" s="12"/>
-      <c r="T26" s="11">
-        <f t="shared" si="0"/>
-        <v>44958</v>
-      </c>
-      <c r="U26" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V26" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W26" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y26" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z26" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA26" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC26" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD26" s="13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AE26" s="13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG26" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH26" s="13">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI26" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ26" s="15"/>
-      <c r="AK26" s="27">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="2:37" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
         <v>44986</v>
       </c>
@@ -2574,64 +1884,8 @@
       <c r="P27" s="35"/>
       <c r="Q27" s="35"/>
       <c r="S27" s="12"/>
-      <c r="T27" s="11">
-        <f t="shared" si="0"/>
-        <v>44986</v>
-      </c>
-      <c r="U27" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V27" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W27" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y27" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z27" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA27" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC27" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD27" s="13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AE27" s="13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG27" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH27" s="13">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI27" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ27" s="15"/>
-      <c r="AK27" s="27">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="2:37" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
         <v>45017</v>
       </c>
@@ -2651,64 +1905,8 @@
       <c r="P28" s="35"/>
       <c r="Q28" s="35"/>
       <c r="S28" s="12"/>
-      <c r="T28" s="11">
-        <f t="shared" si="0"/>
-        <v>45017</v>
-      </c>
-      <c r="U28" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V28" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W28" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y28" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z28" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA28" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC28" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD28" s="13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AE28" s="13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG28" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH28" s="13">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI28" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ28" s="15"/>
-      <c r="AK28" s="27">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29" spans="2:37" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B29" s="11">
         <v>45047</v>
       </c>
@@ -2728,64 +1926,8 @@
       <c r="P29" s="35"/>
       <c r="Q29" s="35"/>
       <c r="S29" s="12"/>
-      <c r="T29" s="11">
-        <f t="shared" si="0"/>
-        <v>45047</v>
-      </c>
-      <c r="U29" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V29" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W29" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y29" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z29" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA29" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC29" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD29" s="13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AE29" s="13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG29" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH29" s="13">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI29" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ29" s="15"/>
-      <c r="AK29" s="27">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="30" spans="2:37" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
         <v>45078</v>
       </c>
@@ -2805,64 +1947,8 @@
       <c r="P30" s="35"/>
       <c r="Q30" s="35"/>
       <c r="S30" s="12"/>
-      <c r="T30" s="11">
-        <f t="shared" si="0"/>
-        <v>45078</v>
-      </c>
-      <c r="U30" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V30" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W30" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y30" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z30" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA30" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC30" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD30" s="13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AE30" s="13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG30" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH30" s="13">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI30" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ30" s="15"/>
-      <c r="AK30" s="27">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="2:37" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B31" s="11">
         <v>45108</v>
       </c>
@@ -2882,64 +1968,8 @@
       <c r="P31" s="35"/>
       <c r="Q31" s="35"/>
       <c r="S31" s="12"/>
-      <c r="T31" s="11">
-        <f t="shared" si="0"/>
-        <v>45108</v>
-      </c>
-      <c r="U31" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V31" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W31" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y31" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z31" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA31" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC31" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD31" s="13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AE31" s="13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG31" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH31" s="13">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI31" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ31" s="15"/>
-      <c r="AK31" s="27">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="32" spans="2:37" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B32" s="11">
         <v>45139</v>
       </c>
@@ -2959,64 +1989,8 @@
       <c r="P32" s="35"/>
       <c r="Q32" s="35"/>
       <c r="S32" s="12"/>
-      <c r="T32" s="11">
-        <f t="shared" si="0"/>
-        <v>45139</v>
-      </c>
-      <c r="U32" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V32" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W32" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y32" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z32" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA32" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC32" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD32" s="13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AE32" s="13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG32" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH32" s="13">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI32" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ32" s="15"/>
-      <c r="AK32" s="27">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="2:37" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B33" s="11">
         <v>45170</v>
       </c>
@@ -3036,64 +2010,8 @@
       <c r="P33" s="35"/>
       <c r="Q33" s="35"/>
       <c r="S33" s="12"/>
-      <c r="T33" s="11">
-        <f t="shared" si="0"/>
-        <v>45170</v>
-      </c>
-      <c r="U33" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V33" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W33" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y33" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z33" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA33" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC33" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD33" s="13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AE33" s="13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG33" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH33" s="13">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI33" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ33" s="12"/>
-      <c r="AK33" s="27">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="34" spans="2:37" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B34" s="11">
         <v>45200</v>
       </c>
@@ -3113,64 +2031,8 @@
       <c r="P34" s="35"/>
       <c r="Q34" s="35"/>
       <c r="S34" s="12"/>
-      <c r="T34" s="11">
-        <f t="shared" si="0"/>
-        <v>45200</v>
-      </c>
-      <c r="U34" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V34" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W34" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y34" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z34" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA34" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC34" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD34" s="13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AE34" s="13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG34" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH34" s="13">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI34" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ34" s="12"/>
-      <c r="AK34" s="27">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="2:37" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B35" s="11">
         <v>45231</v>
       </c>
@@ -3190,64 +2052,8 @@
       <c r="P35" s="35"/>
       <c r="Q35" s="35"/>
       <c r="S35" s="12"/>
-      <c r="T35" s="11">
-        <f t="shared" si="0"/>
-        <v>45231</v>
-      </c>
-      <c r="U35" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V35" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W35" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y35" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z35" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA35" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC35" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD35" s="13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AE35" s="13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG35" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH35" s="13">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI35" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ35" s="12"/>
-      <c r="AK35" s="27">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="2:37" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B36" s="11">
         <v>45261</v>
       </c>
@@ -3267,64 +2073,8 @@
       <c r="P36" s="35"/>
       <c r="Q36" s="35"/>
       <c r="S36" s="12"/>
-      <c r="T36" s="11">
-        <f t="shared" si="0"/>
-        <v>45261</v>
-      </c>
-      <c r="U36" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V36" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W36" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y36" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z36" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA36" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC36" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD36" s="13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AE36" s="13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG36" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH36" s="13">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI36" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ36" s="12"/>
-      <c r="AK36" s="27">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="37" spans="2:37" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B37" s="11">
         <v>45292</v>
       </c>
@@ -3344,64 +2094,8 @@
       <c r="P37" s="35"/>
       <c r="Q37" s="35"/>
       <c r="S37" s="12"/>
-      <c r="T37" s="11">
-        <f t="shared" si="0"/>
-        <v>45292</v>
-      </c>
-      <c r="U37" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V37" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W37" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y37" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z37" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA37" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC37" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD37" s="13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AE37" s="13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG37" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH37" s="13">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI37" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ37" s="12"/>
-      <c r="AK37" s="27">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="2:37" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B38" s="11">
         <v>45323</v>
       </c>
@@ -3421,64 +2115,8 @@
       <c r="P38" s="35"/>
       <c r="Q38" s="35"/>
       <c r="S38" s="12"/>
-      <c r="T38" s="11">
-        <f t="shared" si="0"/>
-        <v>45323</v>
-      </c>
-      <c r="U38" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V38" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W38" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y38" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z38" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA38" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC38" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD38" s="13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AE38" s="13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG38" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH38" s="13">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI38" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ38" s="12"/>
-      <c r="AK38" s="27">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="39" spans="2:37" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="11">
         <v>45352</v>
       </c>
@@ -3498,64 +2136,8 @@
       <c r="P39" s="35"/>
       <c r="Q39" s="35"/>
       <c r="S39" s="12"/>
-      <c r="T39" s="11">
-        <f t="shared" si="0"/>
-        <v>45352</v>
-      </c>
-      <c r="U39" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V39" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W39" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y39" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z39" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA39" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC39" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD39" s="13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AE39" s="13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG39" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH39" s="13">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI39" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ39" s="12"/>
-      <c r="AK39" s="27">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="40" spans="2:37" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B40" s="11">
         <v>45383</v>
       </c>
@@ -3575,64 +2157,8 @@
       <c r="P40" s="35"/>
       <c r="Q40" s="35"/>
       <c r="S40" s="12"/>
-      <c r="T40" s="11">
-        <f t="shared" si="0"/>
-        <v>45383</v>
-      </c>
-      <c r="U40" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V40" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W40" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y40" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z40" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA40" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC40" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD40" s="13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AE40" s="13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG40" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH40" s="13">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI40" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ40" s="12"/>
-      <c r="AK40" s="27">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="2:37" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B41" s="11">
         <v>45413</v>
       </c>
@@ -3652,64 +2178,8 @@
       <c r="P41" s="35"/>
       <c r="Q41" s="35"/>
       <c r="S41" s="12"/>
-      <c r="T41" s="11">
-        <f t="shared" si="0"/>
-        <v>45413</v>
-      </c>
-      <c r="U41" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V41" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W41" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y41" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z41" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA41" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC41" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD41" s="13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AE41" s="13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG41" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH41" s="13">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI41" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ41" s="12"/>
-      <c r="AK41" s="27">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="42" spans="2:37" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B42" s="11">
         <v>45444</v>
       </c>
@@ -3729,64 +2199,8 @@
       <c r="P42" s="35"/>
       <c r="Q42" s="35"/>
       <c r="S42" s="12"/>
-      <c r="T42" s="11">
-        <f t="shared" si="0"/>
-        <v>45444</v>
-      </c>
-      <c r="U42" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V42" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W42" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y42" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z42" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA42" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC42" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD42" s="13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AE42" s="13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG42" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH42" s="13">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI42" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ42" s="12"/>
-      <c r="AK42" s="27">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="43" spans="2:37" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B43" s="11">
         <v>45474</v>
       </c>
@@ -3806,64 +2220,8 @@
       <c r="P43" s="35"/>
       <c r="Q43" s="35"/>
       <c r="S43" s="12"/>
-      <c r="T43" s="11">
-        <f t="shared" si="0"/>
-        <v>45474</v>
-      </c>
-      <c r="U43" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V43" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W43" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y43" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z43" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA43" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC43" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD43" s="13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AE43" s="13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG43" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH43" s="13">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI43" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ43" s="12"/>
-      <c r="AK43" s="27">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" spans="2:37" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B44" s="11">
         <v>45505</v>
       </c>
@@ -3883,64 +2241,8 @@
       <c r="P44" s="35"/>
       <c r="Q44" s="35"/>
       <c r="S44" s="12"/>
-      <c r="T44" s="11">
-        <f t="shared" si="0"/>
-        <v>45505</v>
-      </c>
-      <c r="U44" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V44" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W44" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y44" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z44" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA44" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC44" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD44" s="13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AE44" s="13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG44" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH44" s="13">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI44" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AJ44" s="12"/>
-      <c r="AK44" s="27">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="2:37" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B45" s="11">
         <v>45536</v>
       </c>
@@ -3960,63 +2262,8 @@
       <c r="P45" s="35"/>
       <c r="Q45" s="35"/>
       <c r="S45" s="12"/>
-      <c r="T45" s="11">
-        <f t="shared" si="0"/>
-        <v>45536</v>
-      </c>
-      <c r="U45" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V45" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W45" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y45" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z45" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA45" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC45" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD45" s="13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AE45" s="13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG45" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH45" s="13">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI45" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AK45" s="27">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="46" spans="2:37" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B46" s="11">
         <v>45566</v>
       </c>
@@ -4036,63 +2283,8 @@
       <c r="P46" s="35"/>
       <c r="Q46" s="35"/>
       <c r="S46" s="12"/>
-      <c r="T46" s="11">
-        <f t="shared" si="0"/>
-        <v>45566</v>
-      </c>
-      <c r="U46" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V46" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W46" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y46" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z46" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA46" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC46" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD46" s="13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AE46" s="13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG46" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH46" s="13">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI46" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AK46" s="27">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" spans="2:37" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B47" s="11">
         <v>45597</v>
       </c>
@@ -4112,63 +2304,8 @@
       <c r="P47" s="35"/>
       <c r="Q47" s="35"/>
       <c r="S47" s="12"/>
-      <c r="T47" s="11">
-        <f t="shared" si="0"/>
-        <v>45597</v>
-      </c>
-      <c r="U47" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V47" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W47" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y47" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z47" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA47" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC47" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD47" s="13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AE47" s="13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG47" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH47" s="13">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI47" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AK47" s="27">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="48" spans="2:37" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B48" s="11">
         <v>45627</v>
       </c>
@@ -4188,63 +2325,8 @@
       <c r="P48" s="35"/>
       <c r="Q48" s="35"/>
       <c r="S48" s="12"/>
-      <c r="T48" s="11">
-        <f t="shared" si="0"/>
-        <v>45627</v>
-      </c>
-      <c r="U48" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V48" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W48" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y48" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z48" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA48" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC48" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD48" s="13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AE48" s="13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG48" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH48" s="13">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI48" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AK48" s="27">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49" spans="2:37" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="2:32" ht="15" x14ac:dyDescent="0.25">
       <c r="B49" s="11">
         <v>45658</v>
       </c>
@@ -4264,63 +2346,8 @@
       <c r="P49" s="35"/>
       <c r="Q49" s="35"/>
       <c r="S49" s="12"/>
-      <c r="T49" s="11">
-        <f t="shared" si="0"/>
-        <v>45658</v>
-      </c>
-      <c r="U49" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V49" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W49" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y49" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z49" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA49" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC49" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD49" s="13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AE49" s="13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG49" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH49" s="13">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI49" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AK49" s="27">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="50" spans="2:37" ht="15" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="2:32" ht="15" x14ac:dyDescent="0.25">
       <c r="B50" s="11">
         <v>45689</v>
       </c>
@@ -4340,65 +2367,10 @@
       <c r="P50" s="35"/>
       <c r="Q50" s="35"/>
       <c r="S50" s="12"/>
-      <c r="T50" s="11">
-        <f t="shared" si="0"/>
-        <v>45689</v>
-      </c>
-      <c r="U50" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="V50" s="13">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="W50" s="13">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="Y50" s="13">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="Z50" s="13">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="AA50" s="13">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AC50" s="13">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AD50" s="13">
-        <f t="shared" si="8"/>
-        <v>0</v>
-      </c>
-      <c r="AE50" s="13">
-        <f t="shared" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="AG50" s="13">
-        <f t="shared" si="10"/>
-        <v>0</v>
-      </c>
-      <c r="AH50" s="13">
-        <f t="shared" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="AI50" s="13">
-        <f t="shared" si="12"/>
-        <v>0</v>
-      </c>
-      <c r="AK50" s="27">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="2:37" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B51" s="45" t="str">
-        <f>T12</f>
+        <f>'England | Working days'!E13</f>
         <v>Specialist Advice Activity by measure, per working day</v>
       </c>
       <c r="C51" s="29"/>
@@ -4420,7 +2392,7 @@
       <c r="V51" s="12"/>
       <c r="W51" s="12"/>
     </row>
-    <row r="52" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:32" x14ac:dyDescent="0.2">
       <c r="T52" s="12"/>
       <c r="U52" s="12"/>
       <c r="V52" s="12"/>
@@ -4428,26 +2400,26 @@
       <c r="X52" s="26"/>
       <c r="Y52" s="12"/>
     </row>
-    <row r="53" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:32" x14ac:dyDescent="0.2">
       <c r="W53" s="25"/>
       <c r="X53" s="26"/>
       <c r="Y53" s="12"/>
     </row>
-    <row r="54" spans="2:37" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:32" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="W54" s="25"/>
       <c r="X54" s="26"/>
       <c r="Y54" s="12"/>
     </row>
-    <row r="55" spans="2:37" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:32" ht="73.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="W55" s="25"/>
     </row>
-    <row r="56" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:32" x14ac:dyDescent="0.2">
       <c r="V56" s="24"/>
       <c r="W56" s="12"/>
       <c r="X56" s="12"/>
       <c r="Y56" s="12"/>
     </row>
-    <row r="57" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:32" x14ac:dyDescent="0.2">
       <c r="V57" s="24"/>
       <c r="W57" s="12"/>
       <c r="X57" s="12"/>
@@ -4457,7 +2429,7 @@
       <c r="AE57" s="12"/>
       <c r="AF57" s="14"/>
     </row>
-    <row r="58" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:32" x14ac:dyDescent="0.2">
       <c r="V58" s="24"/>
       <c r="W58" s="12"/>
       <c r="X58" s="12"/>
@@ -4467,7 +2439,7 @@
       <c r="AE58" s="12"/>
       <c r="AF58" s="14"/>
     </row>
-    <row r="59" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:32" x14ac:dyDescent="0.2">
       <c r="V59" s="24"/>
       <c r="W59" s="12"/>
       <c r="X59" s="12"/>
@@ -4477,7 +2449,7 @@
       <c r="AE59" s="12"/>
       <c r="AF59" s="14"/>
     </row>
-    <row r="60" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:32" x14ac:dyDescent="0.2">
       <c r="V60" s="24"/>
       <c r="W60" s="12"/>
       <c r="X60" s="12"/>
@@ -4487,7 +2459,7 @@
       <c r="AE60" s="12"/>
       <c r="AF60" s="14"/>
     </row>
-    <row r="61" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:32" x14ac:dyDescent="0.2">
       <c r="V61" s="24"/>
       <c r="W61" s="12"/>
       <c r="X61" s="12"/>
@@ -4497,7 +2469,7 @@
       <c r="AE61" s="12"/>
       <c r="AF61" s="14"/>
     </row>
-    <row r="62" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:32" x14ac:dyDescent="0.2">
       <c r="V62" s="24"/>
       <c r="W62" s="12"/>
       <c r="X62" s="12"/>
@@ -4507,7 +2479,7 @@
       <c r="AE62" s="12"/>
       <c r="AF62" s="14"/>
     </row>
-    <row r="63" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:32" x14ac:dyDescent="0.2">
       <c r="V63" s="24"/>
       <c r="W63" s="12"/>
       <c r="X63" s="12"/>
@@ -4518,7 +2490,7 @@
       <c r="AE63" s="12"/>
       <c r="AF63" s="14"/>
     </row>
-    <row r="64" spans="2:37" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:32" x14ac:dyDescent="0.2">
       <c r="V64" s="24"/>
       <c r="W64" s="12"/>
       <c r="X64" s="12"/>
@@ -5185,11 +3157,7 @@
       <c r="E122" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="U14:W14"/>
-    <mergeCell ref="Y14:AA14"/>
-    <mergeCell ref="AC14:AE14"/>
-    <mergeCell ref="AG14:AI14"/>
+  <mergeCells count="6">
     <mergeCell ref="C10:Q10"/>
     <mergeCell ref="O14:Q14"/>
     <mergeCell ref="K14:M14"/>
@@ -5204,6 +3172,2473 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E193334-6EF9-4B5B-889C-37F0C8CE3CB6}">
+  <dimension ref="B3:V51"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA14" sqref="AA14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="5" max="5" width="18.28515625" customWidth="1"/>
+    <col min="6" max="8" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" customWidth="1"/>
+    <col min="10" max="12" width="15.5703125" customWidth="1"/>
+    <col min="13" max="13" width="4.7109375" customWidth="1"/>
+    <col min="14" max="16" width="15.5703125" customWidth="1"/>
+    <col min="17" max="17" width="5" customWidth="1"/>
+    <col min="18" max="20" width="15.5703125" customWidth="1"/>
+    <col min="21" max="21" width="4" customWidth="1"/>
+    <col min="22" max="22" width="12" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:22" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="B3" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="18"/>
+    </row>
+    <row r="4" spans="2:22" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="19" t="str">
+        <f>'England | Specialist Advice'!C4</f>
+        <v>April 2022 to February 2025</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="20"/>
+      <c r="O4" s="20"/>
+      <c r="P4" s="20"/>
+      <c r="Q4" s="20"/>
+    </row>
+    <row r="5" spans="2:22" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
+      <c r="O5" s="20"/>
+      <c r="P5" s="20"/>
+      <c r="Q5" s="20"/>
+    </row>
+    <row r="6" spans="2:22" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="20"/>
+      <c r="P6" s="20"/>
+      <c r="Q6" s="20"/>
+    </row>
+    <row r="7" spans="2:22" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="20"/>
+      <c r="P7" s="20"/>
+      <c r="Q7" s="20"/>
+    </row>
+    <row r="8" spans="2:22" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+    </row>
+    <row r="9" spans="2:22" s="1" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="32"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="20"/>
+      <c r="P9" s="20"/>
+      <c r="Q9" s="20"/>
+    </row>
+    <row r="10" spans="2:22" s="1" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
+      <c r="I10" s="59"/>
+      <c r="J10" s="59"/>
+      <c r="K10" s="59"/>
+      <c r="L10" s="59"/>
+      <c r="M10" s="59"/>
+      <c r="N10" s="59"/>
+      <c r="O10" s="59"/>
+      <c r="P10" s="59"/>
+      <c r="Q10" s="59"/>
+    </row>
+    <row r="11" spans="2:22" s="1" customFormat="1" ht="75.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>33</v>
+      </c>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
+      <c r="J11" s="59"/>
+      <c r="K11" s="59"/>
+      <c r="L11" s="59"/>
+      <c r="M11" s="59"/>
+      <c r="N11" s="59"/>
+      <c r="O11" s="59"/>
+      <c r="P11" s="59"/>
+      <c r="Q11" s="59"/>
+    </row>
+    <row r="13" spans="2:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E13" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="47"/>
+      <c r="K13" s="43"/>
+      <c r="L13" s="43"/>
+      <c r="M13" s="43"/>
+      <c r="N13" s="43"/>
+      <c r="O13" s="43"/>
+      <c r="P13" s="43"/>
+      <c r="Q13" s="43"/>
+      <c r="R13" s="43"/>
+      <c r="S13" s="43"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="43"/>
+      <c r="V13" s="43"/>
+    </row>
+    <row r="14" spans="2:22" x14ac:dyDescent="0.25">
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
+      <c r="S14" s="1"/>
+      <c r="T14" s="1"/>
+      <c r="U14" s="1"/>
+      <c r="V14" s="1"/>
+    </row>
+    <row r="15" spans="2:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E15" s="1"/>
+      <c r="F15" s="61" t="s">
+        <v>35</v>
+      </c>
+      <c r="G15" s="61"/>
+      <c r="H15" s="61"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="60" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" s="60"/>
+      <c r="L15" s="60"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="O15" s="62"/>
+      <c r="P15" s="62"/>
+      <c r="Q15" s="21"/>
+      <c r="R15" s="62" t="s">
+        <v>38</v>
+      </c>
+      <c r="S15" s="62"/>
+      <c r="T15" s="62"/>
+      <c r="U15" s="1"/>
+      <c r="V15" s="1"/>
+    </row>
+    <row r="16" spans="2:22" ht="90" x14ac:dyDescent="0.25">
+      <c r="E16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I16" s="22"/>
+      <c r="J16" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="M16" s="22"/>
+      <c r="N16" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="P16" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="S16" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="T16" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="U16" s="1"/>
+      <c r="V16" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="17" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E17" s="11">
+        <f>'England | Specialist Advice'!B16</f>
+        <v>44652</v>
+      </c>
+      <c r="F17" s="13">
+        <f>'England | Specialist Advice'!C16/$V17</f>
+        <v>0</v>
+      </c>
+      <c r="G17" s="13">
+        <f>'England | Specialist Advice'!D16/$V17</f>
+        <v>0</v>
+      </c>
+      <c r="H17" s="13">
+        <f>'England | Specialist Advice'!E16/$V17</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="13">
+        <f>'England | Specialist Advice'!G16/$V17</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="13">
+        <f>'England | Specialist Advice'!H16/$V17</f>
+        <v>0</v>
+      </c>
+      <c r="L17" s="13">
+        <f>'England | Specialist Advice'!I16/$V17</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="13">
+        <f>'England | Specialist Advice'!K16/$V17</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="13">
+        <f>'England | Specialist Advice'!L16/$V17</f>
+        <v>0</v>
+      </c>
+      <c r="P17" s="13">
+        <f>'England | Specialist Advice'!M16/$V17</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="13">
+        <f>'England | Specialist Advice'!O16/$V17</f>
+        <v>0</v>
+      </c>
+      <c r="S17" s="13">
+        <f>'England | Specialist Advice'!P16/$V17</f>
+        <v>0</v>
+      </c>
+      <c r="T17" s="13">
+        <f>'England | Specialist Advice'!Q16/$V17</f>
+        <v>0</v>
+      </c>
+      <c r="U17" s="12"/>
+      <c r="V17" s="27">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E18" s="11">
+        <f>'England | Specialist Advice'!B17</f>
+        <v>44682</v>
+      </c>
+      <c r="F18" s="13">
+        <f>'England | Specialist Advice'!C17/$V18</f>
+        <v>0</v>
+      </c>
+      <c r="G18" s="13">
+        <f>'England | Specialist Advice'!D17/$V18</f>
+        <v>0</v>
+      </c>
+      <c r="H18" s="13">
+        <f>'England | Specialist Advice'!E17/$V18</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="13">
+        <f>'England | Specialist Advice'!G17/$V18</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="13">
+        <f>'England | Specialist Advice'!H17/$V18</f>
+        <v>0</v>
+      </c>
+      <c r="L18" s="13">
+        <f>'England | Specialist Advice'!I17/$V18</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="1"/>
+      <c r="N18" s="13">
+        <f>'England | Specialist Advice'!K17/$V18</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="13">
+        <f>'England | Specialist Advice'!L17/$V18</f>
+        <v>0</v>
+      </c>
+      <c r="P18" s="13">
+        <f>'England | Specialist Advice'!M17/$V18</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="13">
+        <f>'England | Specialist Advice'!O17/$V18</f>
+        <v>0</v>
+      </c>
+      <c r="S18" s="13">
+        <f>'England | Specialist Advice'!P17/$V18</f>
+        <v>0</v>
+      </c>
+      <c r="T18" s="13">
+        <f>'England | Specialist Advice'!Q17/$V18</f>
+        <v>0</v>
+      </c>
+      <c r="U18" s="12"/>
+      <c r="V18" s="27">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E19" s="11">
+        <f>'England | Specialist Advice'!B18</f>
+        <v>44713</v>
+      </c>
+      <c r="F19" s="13">
+        <f>'England | Specialist Advice'!C18/$V19</f>
+        <v>0</v>
+      </c>
+      <c r="G19" s="13">
+        <f>'England | Specialist Advice'!D18/$V19</f>
+        <v>0</v>
+      </c>
+      <c r="H19" s="13">
+        <f>'England | Specialist Advice'!E18/$V19</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="13">
+        <f>'England | Specialist Advice'!G18/$V19</f>
+        <v>0</v>
+      </c>
+      <c r="K19" s="13">
+        <f>'England | Specialist Advice'!H18/$V19</f>
+        <v>0</v>
+      </c>
+      <c r="L19" s="13">
+        <f>'England | Specialist Advice'!I18/$V19</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="1"/>
+      <c r="N19" s="13">
+        <f>'England | Specialist Advice'!K18/$V19</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="13">
+        <f>'England | Specialist Advice'!L18/$V19</f>
+        <v>0</v>
+      </c>
+      <c r="P19" s="13">
+        <f>'England | Specialist Advice'!M18/$V19</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="13">
+        <f>'England | Specialist Advice'!O18/$V19</f>
+        <v>0</v>
+      </c>
+      <c r="S19" s="13">
+        <f>'England | Specialist Advice'!P18/$V19</f>
+        <v>0</v>
+      </c>
+      <c r="T19" s="13">
+        <f>'England | Specialist Advice'!Q18/$V19</f>
+        <v>0</v>
+      </c>
+      <c r="U19" s="12"/>
+      <c r="V19" s="27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E20" s="11">
+        <f>'England | Specialist Advice'!B19</f>
+        <v>44743</v>
+      </c>
+      <c r="F20" s="13">
+        <f>'England | Specialist Advice'!C19/$V20</f>
+        <v>0</v>
+      </c>
+      <c r="G20" s="13">
+        <f>'England | Specialist Advice'!D19/$V20</f>
+        <v>0</v>
+      </c>
+      <c r="H20" s="13">
+        <f>'England | Specialist Advice'!E19/$V20</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="13">
+        <f>'England | Specialist Advice'!G19/$V20</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="13">
+        <f>'England | Specialist Advice'!H19/$V20</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="13">
+        <f>'England | Specialist Advice'!I19/$V20</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="1"/>
+      <c r="N20" s="13">
+        <f>'England | Specialist Advice'!K19/$V20</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="13">
+        <f>'England | Specialist Advice'!L19/$V20</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="13">
+        <f>'England | Specialist Advice'!M19/$V20</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="13">
+        <f>'England | Specialist Advice'!O19/$V20</f>
+        <v>0</v>
+      </c>
+      <c r="S20" s="13">
+        <f>'England | Specialist Advice'!P19/$V20</f>
+        <v>0</v>
+      </c>
+      <c r="T20" s="13">
+        <f>'England | Specialist Advice'!Q19/$V20</f>
+        <v>0</v>
+      </c>
+      <c r="U20" s="12"/>
+      <c r="V20" s="27">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E21" s="11">
+        <f>'England | Specialist Advice'!B20</f>
+        <v>44774</v>
+      </c>
+      <c r="F21" s="13">
+        <f>'England | Specialist Advice'!C20/$V21</f>
+        <v>0</v>
+      </c>
+      <c r="G21" s="13">
+        <f>'England | Specialist Advice'!D20/$V21</f>
+        <v>0</v>
+      </c>
+      <c r="H21" s="13">
+        <f>'England | Specialist Advice'!E20/$V21</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="13">
+        <f>'England | Specialist Advice'!G20/$V21</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="13">
+        <f>'England | Specialist Advice'!H20/$V21</f>
+        <v>0</v>
+      </c>
+      <c r="L21" s="13">
+        <f>'England | Specialist Advice'!I20/$V21</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="1"/>
+      <c r="N21" s="13">
+        <f>'England | Specialist Advice'!K20/$V21</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="13">
+        <f>'England | Specialist Advice'!L20/$V21</f>
+        <v>0</v>
+      </c>
+      <c r="P21" s="13">
+        <f>'England | Specialist Advice'!M20/$V21</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="13">
+        <f>'England | Specialist Advice'!O20/$V21</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="13">
+        <f>'England | Specialist Advice'!P20/$V21</f>
+        <v>0</v>
+      </c>
+      <c r="T21" s="13">
+        <f>'England | Specialist Advice'!Q20/$V21</f>
+        <v>0</v>
+      </c>
+      <c r="U21" s="12"/>
+      <c r="V21" s="27">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E22" s="11">
+        <f>'England | Specialist Advice'!B21</f>
+        <v>44805</v>
+      </c>
+      <c r="F22" s="13">
+        <f>'England | Specialist Advice'!C21/$V22</f>
+        <v>0</v>
+      </c>
+      <c r="G22" s="13">
+        <f>'England | Specialist Advice'!D21/$V22</f>
+        <v>0</v>
+      </c>
+      <c r="H22" s="13">
+        <f>'England | Specialist Advice'!E21/$V22</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="13">
+        <f>'England | Specialist Advice'!G21/$V22</f>
+        <v>0</v>
+      </c>
+      <c r="K22" s="13">
+        <f>'England | Specialist Advice'!H21/$V22</f>
+        <v>0</v>
+      </c>
+      <c r="L22" s="13">
+        <f>'England | Specialist Advice'!I21/$V22</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="1"/>
+      <c r="N22" s="13">
+        <f>'England | Specialist Advice'!K21/$V22</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="13">
+        <f>'England | Specialist Advice'!L21/$V22</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="13">
+        <f>'England | Specialist Advice'!M21/$V22</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="13">
+        <f>'England | Specialist Advice'!O21/$V22</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="13">
+        <f>'England | Specialist Advice'!P21/$V22</f>
+        <v>0</v>
+      </c>
+      <c r="T22" s="13">
+        <f>'England | Specialist Advice'!Q21/$V22</f>
+        <v>0</v>
+      </c>
+      <c r="U22" s="15"/>
+      <c r="V22" s="27">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E23" s="11">
+        <f>'England | Specialist Advice'!B22</f>
+        <v>44835</v>
+      </c>
+      <c r="F23" s="13">
+        <f>'England | Specialist Advice'!C22/$V23</f>
+        <v>0</v>
+      </c>
+      <c r="G23" s="13">
+        <f>'England | Specialist Advice'!D22/$V23</f>
+        <v>0</v>
+      </c>
+      <c r="H23" s="13">
+        <f>'England | Specialist Advice'!E22/$V23</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="13">
+        <f>'England | Specialist Advice'!G22/$V23</f>
+        <v>0</v>
+      </c>
+      <c r="K23" s="13">
+        <f>'England | Specialist Advice'!H22/$V23</f>
+        <v>0</v>
+      </c>
+      <c r="L23" s="13">
+        <f>'England | Specialist Advice'!I22/$V23</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="1"/>
+      <c r="N23" s="13">
+        <f>'England | Specialist Advice'!K22/$V23</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="13">
+        <f>'England | Specialist Advice'!L22/$V23</f>
+        <v>0</v>
+      </c>
+      <c r="P23" s="13">
+        <f>'England | Specialist Advice'!M22/$V23</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="13">
+        <f>'England | Specialist Advice'!O22/$V23</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="13">
+        <f>'England | Specialist Advice'!P22/$V23</f>
+        <v>0</v>
+      </c>
+      <c r="T23" s="13">
+        <f>'England | Specialist Advice'!Q22/$V23</f>
+        <v>0</v>
+      </c>
+      <c r="U23" s="15"/>
+      <c r="V23" s="27">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E24" s="11">
+        <f>'England | Specialist Advice'!B23</f>
+        <v>44866</v>
+      </c>
+      <c r="F24" s="13">
+        <f>'England | Specialist Advice'!C23/$V24</f>
+        <v>0</v>
+      </c>
+      <c r="G24" s="13">
+        <f>'England | Specialist Advice'!D23/$V24</f>
+        <v>0</v>
+      </c>
+      <c r="H24" s="13">
+        <f>'England | Specialist Advice'!E23/$V24</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="13">
+        <f>'England | Specialist Advice'!G23/$V24</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="13">
+        <f>'England | Specialist Advice'!H23/$V24</f>
+        <v>0</v>
+      </c>
+      <c r="L24" s="13">
+        <f>'England | Specialist Advice'!I23/$V24</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="1"/>
+      <c r="N24" s="13">
+        <f>'England | Specialist Advice'!K23/$V24</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="13">
+        <f>'England | Specialist Advice'!L23/$V24</f>
+        <v>0</v>
+      </c>
+      <c r="P24" s="13">
+        <f>'England | Specialist Advice'!M23/$V24</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="13">
+        <f>'England | Specialist Advice'!O23/$V24</f>
+        <v>0</v>
+      </c>
+      <c r="S24" s="13">
+        <f>'England | Specialist Advice'!P23/$V24</f>
+        <v>0</v>
+      </c>
+      <c r="T24" s="13">
+        <f>'England | Specialist Advice'!Q23/$V24</f>
+        <v>0</v>
+      </c>
+      <c r="U24" s="15"/>
+      <c r="V24" s="27">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E25" s="11">
+        <f>'England | Specialist Advice'!B24</f>
+        <v>44896</v>
+      </c>
+      <c r="F25" s="13">
+        <f>'England | Specialist Advice'!C24/$V25</f>
+        <v>0</v>
+      </c>
+      <c r="G25" s="13">
+        <f>'England | Specialist Advice'!D24/$V25</f>
+        <v>0</v>
+      </c>
+      <c r="H25" s="13">
+        <f>'England | Specialist Advice'!E24/$V25</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="13">
+        <f>'England | Specialist Advice'!G24/$V25</f>
+        <v>0</v>
+      </c>
+      <c r="K25" s="13">
+        <f>'England | Specialist Advice'!H24/$V25</f>
+        <v>0</v>
+      </c>
+      <c r="L25" s="13">
+        <f>'England | Specialist Advice'!I24/$V25</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="1"/>
+      <c r="N25" s="13">
+        <f>'England | Specialist Advice'!K24/$V25</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="13">
+        <f>'England | Specialist Advice'!L24/$V25</f>
+        <v>0</v>
+      </c>
+      <c r="P25" s="13">
+        <f>'England | Specialist Advice'!M24/$V25</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="13">
+        <f>'England | Specialist Advice'!O24/$V25</f>
+        <v>0</v>
+      </c>
+      <c r="S25" s="13">
+        <f>'England | Specialist Advice'!P24/$V25</f>
+        <v>0</v>
+      </c>
+      <c r="T25" s="13">
+        <f>'England | Specialist Advice'!Q24/$V25</f>
+        <v>0</v>
+      </c>
+      <c r="U25" s="15"/>
+      <c r="V25" s="27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E26" s="11">
+        <f>'England | Specialist Advice'!B25</f>
+        <v>44927</v>
+      </c>
+      <c r="F26" s="13">
+        <f>'England | Specialist Advice'!C25/$V26</f>
+        <v>0</v>
+      </c>
+      <c r="G26" s="13">
+        <f>'England | Specialist Advice'!D25/$V26</f>
+        <v>0</v>
+      </c>
+      <c r="H26" s="13">
+        <f>'England | Specialist Advice'!E25/$V26</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="13">
+        <f>'England | Specialist Advice'!G25/$V26</f>
+        <v>0</v>
+      </c>
+      <c r="K26" s="13">
+        <f>'England | Specialist Advice'!H25/$V26</f>
+        <v>0</v>
+      </c>
+      <c r="L26" s="13">
+        <f>'England | Specialist Advice'!I25/$V26</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="1"/>
+      <c r="N26" s="13">
+        <f>'England | Specialist Advice'!K25/$V26</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="13">
+        <f>'England | Specialist Advice'!L25/$V26</f>
+        <v>0</v>
+      </c>
+      <c r="P26" s="13">
+        <f>'England | Specialist Advice'!M25/$V26</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1"/>
+      <c r="R26" s="13">
+        <f>'England | Specialist Advice'!O25/$V26</f>
+        <v>0</v>
+      </c>
+      <c r="S26" s="13">
+        <f>'England | Specialist Advice'!P25/$V26</f>
+        <v>0</v>
+      </c>
+      <c r="T26" s="13">
+        <f>'England | Specialist Advice'!Q25/$V26</f>
+        <v>0</v>
+      </c>
+      <c r="U26" s="15"/>
+      <c r="V26" s="27">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E27" s="11">
+        <f>'England | Specialist Advice'!B26</f>
+        <v>44958</v>
+      </c>
+      <c r="F27" s="13">
+        <f>'England | Specialist Advice'!C26/$V27</f>
+        <v>0</v>
+      </c>
+      <c r="G27" s="13">
+        <f>'England | Specialist Advice'!D26/$V27</f>
+        <v>0</v>
+      </c>
+      <c r="H27" s="13">
+        <f>'England | Specialist Advice'!E26/$V27</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="1"/>
+      <c r="J27" s="13">
+        <f>'England | Specialist Advice'!G26/$V27</f>
+        <v>0</v>
+      </c>
+      <c r="K27" s="13">
+        <f>'England | Specialist Advice'!H26/$V27</f>
+        <v>0</v>
+      </c>
+      <c r="L27" s="13">
+        <f>'England | Specialist Advice'!I26/$V27</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="1"/>
+      <c r="N27" s="13">
+        <f>'England | Specialist Advice'!K26/$V27</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="13">
+        <f>'England | Specialist Advice'!L26/$V27</f>
+        <v>0</v>
+      </c>
+      <c r="P27" s="13">
+        <f>'England | Specialist Advice'!M26/$V27</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="13">
+        <f>'England | Specialist Advice'!O26/$V27</f>
+        <v>0</v>
+      </c>
+      <c r="S27" s="13">
+        <f>'England | Specialist Advice'!P26/$V27</f>
+        <v>0</v>
+      </c>
+      <c r="T27" s="13">
+        <f>'England | Specialist Advice'!Q26/$V27</f>
+        <v>0</v>
+      </c>
+      <c r="U27" s="15"/>
+      <c r="V27" s="27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E28" s="11">
+        <f>'England | Specialist Advice'!B27</f>
+        <v>44986</v>
+      </c>
+      <c r="F28" s="13">
+        <f>'England | Specialist Advice'!C27/$V28</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="13">
+        <f>'England | Specialist Advice'!D27/$V28</f>
+        <v>0</v>
+      </c>
+      <c r="H28" s="13">
+        <f>'England | Specialist Advice'!E27/$V28</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="1"/>
+      <c r="J28" s="13">
+        <f>'England | Specialist Advice'!G27/$V28</f>
+        <v>0</v>
+      </c>
+      <c r="K28" s="13">
+        <f>'England | Specialist Advice'!H27/$V28</f>
+        <v>0</v>
+      </c>
+      <c r="L28" s="13">
+        <f>'England | Specialist Advice'!I27/$V28</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="1"/>
+      <c r="N28" s="13">
+        <f>'England | Specialist Advice'!K27/$V28</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="13">
+        <f>'England | Specialist Advice'!L27/$V28</f>
+        <v>0</v>
+      </c>
+      <c r="P28" s="13">
+        <f>'England | Specialist Advice'!M27/$V28</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="13">
+        <f>'England | Specialist Advice'!O27/$V28</f>
+        <v>0</v>
+      </c>
+      <c r="S28" s="13">
+        <f>'England | Specialist Advice'!P27/$V28</f>
+        <v>0</v>
+      </c>
+      <c r="T28" s="13">
+        <f>'England | Specialist Advice'!Q27/$V28</f>
+        <v>0</v>
+      </c>
+      <c r="U28" s="15"/>
+      <c r="V28" s="27">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E29" s="11">
+        <f>'England | Specialist Advice'!B28</f>
+        <v>45017</v>
+      </c>
+      <c r="F29" s="13">
+        <f>'England | Specialist Advice'!C28/$V29</f>
+        <v>0</v>
+      </c>
+      <c r="G29" s="13">
+        <f>'England | Specialist Advice'!D28/$V29</f>
+        <v>0</v>
+      </c>
+      <c r="H29" s="13">
+        <f>'England | Specialist Advice'!E28/$V29</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="J29" s="13">
+        <f>'England | Specialist Advice'!G28/$V29</f>
+        <v>0</v>
+      </c>
+      <c r="K29" s="13">
+        <f>'England | Specialist Advice'!H28/$V29</f>
+        <v>0</v>
+      </c>
+      <c r="L29" s="13">
+        <f>'England | Specialist Advice'!I28/$V29</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="1"/>
+      <c r="N29" s="13">
+        <f>'England | Specialist Advice'!K28/$V29</f>
+        <v>0</v>
+      </c>
+      <c r="O29" s="13">
+        <f>'England | Specialist Advice'!L28/$V29</f>
+        <v>0</v>
+      </c>
+      <c r="P29" s="13">
+        <f>'England | Specialist Advice'!M28/$V29</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="13">
+        <f>'England | Specialist Advice'!O28/$V29</f>
+        <v>0</v>
+      </c>
+      <c r="S29" s="13">
+        <f>'England | Specialist Advice'!P28/$V29</f>
+        <v>0</v>
+      </c>
+      <c r="T29" s="13">
+        <f>'England | Specialist Advice'!Q28/$V29</f>
+        <v>0</v>
+      </c>
+      <c r="U29" s="15"/>
+      <c r="V29" s="27">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E30" s="11">
+        <f>'England | Specialist Advice'!B29</f>
+        <v>45047</v>
+      </c>
+      <c r="F30" s="13">
+        <f>'England | Specialist Advice'!C29/$V30</f>
+        <v>0</v>
+      </c>
+      <c r="G30" s="13">
+        <f>'England | Specialist Advice'!D29/$V30</f>
+        <v>0</v>
+      </c>
+      <c r="H30" s="13">
+        <f>'England | Specialist Advice'!E29/$V30</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="J30" s="13">
+        <f>'England | Specialist Advice'!G29/$V30</f>
+        <v>0</v>
+      </c>
+      <c r="K30" s="13">
+        <f>'England | Specialist Advice'!H29/$V30</f>
+        <v>0</v>
+      </c>
+      <c r="L30" s="13">
+        <f>'England | Specialist Advice'!I29/$V30</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="1"/>
+      <c r="N30" s="13">
+        <f>'England | Specialist Advice'!K29/$V30</f>
+        <v>0</v>
+      </c>
+      <c r="O30" s="13">
+        <f>'England | Specialist Advice'!L29/$V30</f>
+        <v>0</v>
+      </c>
+      <c r="P30" s="13">
+        <f>'England | Specialist Advice'!M29/$V30</f>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="1"/>
+      <c r="R30" s="13">
+        <f>'England | Specialist Advice'!O29/$V30</f>
+        <v>0</v>
+      </c>
+      <c r="S30" s="13">
+        <f>'England | Specialist Advice'!P29/$V30</f>
+        <v>0</v>
+      </c>
+      <c r="T30" s="13">
+        <f>'England | Specialist Advice'!Q29/$V30</f>
+        <v>0</v>
+      </c>
+      <c r="U30" s="15"/>
+      <c r="V30" s="27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E31" s="11">
+        <f>'England | Specialist Advice'!B30</f>
+        <v>45078</v>
+      </c>
+      <c r="F31" s="13">
+        <f>'England | Specialist Advice'!C30/$V31</f>
+        <v>0</v>
+      </c>
+      <c r="G31" s="13">
+        <f>'England | Specialist Advice'!D30/$V31</f>
+        <v>0</v>
+      </c>
+      <c r="H31" s="13">
+        <f>'England | Specialist Advice'!E30/$V31</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="13">
+        <f>'England | Specialist Advice'!G30/$V31</f>
+        <v>0</v>
+      </c>
+      <c r="K31" s="13">
+        <f>'England | Specialist Advice'!H30/$V31</f>
+        <v>0</v>
+      </c>
+      <c r="L31" s="13">
+        <f>'England | Specialist Advice'!I30/$V31</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="1"/>
+      <c r="N31" s="13">
+        <f>'England | Specialist Advice'!K30/$V31</f>
+        <v>0</v>
+      </c>
+      <c r="O31" s="13">
+        <f>'England | Specialist Advice'!L30/$V31</f>
+        <v>0</v>
+      </c>
+      <c r="P31" s="13">
+        <f>'England | Specialist Advice'!M30/$V31</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="1"/>
+      <c r="R31" s="13">
+        <f>'England | Specialist Advice'!O30/$V31</f>
+        <v>0</v>
+      </c>
+      <c r="S31" s="13">
+        <f>'England | Specialist Advice'!P30/$V31</f>
+        <v>0</v>
+      </c>
+      <c r="T31" s="13">
+        <f>'England | Specialist Advice'!Q30/$V31</f>
+        <v>0</v>
+      </c>
+      <c r="U31" s="15"/>
+      <c r="V31" s="27">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E32" s="11">
+        <f>'England | Specialist Advice'!B31</f>
+        <v>45108</v>
+      </c>
+      <c r="F32" s="13">
+        <f>'England | Specialist Advice'!C31/$V32</f>
+        <v>0</v>
+      </c>
+      <c r="G32" s="13">
+        <f>'England | Specialist Advice'!D31/$V32</f>
+        <v>0</v>
+      </c>
+      <c r="H32" s="13">
+        <f>'England | Specialist Advice'!E31/$V32</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="1"/>
+      <c r="J32" s="13">
+        <f>'England | Specialist Advice'!G31/$V32</f>
+        <v>0</v>
+      </c>
+      <c r="K32" s="13">
+        <f>'England | Specialist Advice'!H31/$V32</f>
+        <v>0</v>
+      </c>
+      <c r="L32" s="13">
+        <f>'England | Specialist Advice'!I31/$V32</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="1"/>
+      <c r="N32" s="13">
+        <f>'England | Specialist Advice'!K31/$V32</f>
+        <v>0</v>
+      </c>
+      <c r="O32" s="13">
+        <f>'England | Specialist Advice'!L31/$V32</f>
+        <v>0</v>
+      </c>
+      <c r="P32" s="13">
+        <f>'England | Specialist Advice'!M31/$V32</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="13">
+        <f>'England | Specialist Advice'!O31/$V32</f>
+        <v>0</v>
+      </c>
+      <c r="S32" s="13">
+        <f>'England | Specialist Advice'!P31/$V32</f>
+        <v>0</v>
+      </c>
+      <c r="T32" s="13">
+        <f>'England | Specialist Advice'!Q31/$V32</f>
+        <v>0</v>
+      </c>
+      <c r="U32" s="15"/>
+      <c r="V32" s="27">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E33" s="11">
+        <f>'England | Specialist Advice'!B32</f>
+        <v>45139</v>
+      </c>
+      <c r="F33" s="13">
+        <f>'England | Specialist Advice'!C32/$V33</f>
+        <v>0</v>
+      </c>
+      <c r="G33" s="13">
+        <f>'England | Specialist Advice'!D32/$V33</f>
+        <v>0</v>
+      </c>
+      <c r="H33" s="13">
+        <f>'England | Specialist Advice'!E32/$V33</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="1"/>
+      <c r="J33" s="13">
+        <f>'England | Specialist Advice'!G32/$V33</f>
+        <v>0</v>
+      </c>
+      <c r="K33" s="13">
+        <f>'England | Specialist Advice'!H32/$V33</f>
+        <v>0</v>
+      </c>
+      <c r="L33" s="13">
+        <f>'England | Specialist Advice'!I32/$V33</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="1"/>
+      <c r="N33" s="13">
+        <f>'England | Specialist Advice'!K32/$V33</f>
+        <v>0</v>
+      </c>
+      <c r="O33" s="13">
+        <f>'England | Specialist Advice'!L32/$V33</f>
+        <v>0</v>
+      </c>
+      <c r="P33" s="13">
+        <f>'England | Specialist Advice'!M32/$V33</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="1"/>
+      <c r="R33" s="13">
+        <f>'England | Specialist Advice'!O32/$V33</f>
+        <v>0</v>
+      </c>
+      <c r="S33" s="13">
+        <f>'England | Specialist Advice'!P32/$V33</f>
+        <v>0</v>
+      </c>
+      <c r="T33" s="13">
+        <f>'England | Specialist Advice'!Q32/$V33</f>
+        <v>0</v>
+      </c>
+      <c r="U33" s="15"/>
+      <c r="V33" s="27">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E34" s="11">
+        <f>'England | Specialist Advice'!B33</f>
+        <v>45170</v>
+      </c>
+      <c r="F34" s="13">
+        <f>'England | Specialist Advice'!C33/$V34</f>
+        <v>0</v>
+      </c>
+      <c r="G34" s="13">
+        <f>'England | Specialist Advice'!D33/$V34</f>
+        <v>0</v>
+      </c>
+      <c r="H34" s="13">
+        <f>'England | Specialist Advice'!E33/$V34</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="13">
+        <f>'England | Specialist Advice'!G33/$V34</f>
+        <v>0</v>
+      </c>
+      <c r="K34" s="13">
+        <f>'England | Specialist Advice'!H33/$V34</f>
+        <v>0</v>
+      </c>
+      <c r="L34" s="13">
+        <f>'England | Specialist Advice'!I33/$V34</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="1"/>
+      <c r="N34" s="13">
+        <f>'England | Specialist Advice'!K33/$V34</f>
+        <v>0</v>
+      </c>
+      <c r="O34" s="13">
+        <f>'England | Specialist Advice'!L33/$V34</f>
+        <v>0</v>
+      </c>
+      <c r="P34" s="13">
+        <f>'England | Specialist Advice'!M33/$V34</f>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="13">
+        <f>'England | Specialist Advice'!O33/$V34</f>
+        <v>0</v>
+      </c>
+      <c r="S34" s="13">
+        <f>'England | Specialist Advice'!P33/$V34</f>
+        <v>0</v>
+      </c>
+      <c r="T34" s="13">
+        <f>'England | Specialist Advice'!Q33/$V34</f>
+        <v>0</v>
+      </c>
+      <c r="U34" s="12"/>
+      <c r="V34" s="27">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="35" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E35" s="11">
+        <f>'England | Specialist Advice'!B34</f>
+        <v>45200</v>
+      </c>
+      <c r="F35" s="13">
+        <f>'England | Specialist Advice'!C34/$V35</f>
+        <v>0</v>
+      </c>
+      <c r="G35" s="13">
+        <f>'England | Specialist Advice'!D34/$V35</f>
+        <v>0</v>
+      </c>
+      <c r="H35" s="13">
+        <f>'England | Specialist Advice'!E34/$V35</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="1"/>
+      <c r="J35" s="13">
+        <f>'England | Specialist Advice'!G34/$V35</f>
+        <v>0</v>
+      </c>
+      <c r="K35" s="13">
+        <f>'England | Specialist Advice'!H34/$V35</f>
+        <v>0</v>
+      </c>
+      <c r="L35" s="13">
+        <f>'England | Specialist Advice'!I34/$V35</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="1"/>
+      <c r="N35" s="13">
+        <f>'England | Specialist Advice'!K34/$V35</f>
+        <v>0</v>
+      </c>
+      <c r="O35" s="13">
+        <f>'England | Specialist Advice'!L34/$V35</f>
+        <v>0</v>
+      </c>
+      <c r="P35" s="13">
+        <f>'England | Specialist Advice'!M34/$V35</f>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="1"/>
+      <c r="R35" s="13">
+        <f>'England | Specialist Advice'!O34/$V35</f>
+        <v>0</v>
+      </c>
+      <c r="S35" s="13">
+        <f>'England | Specialist Advice'!P34/$V35</f>
+        <v>0</v>
+      </c>
+      <c r="T35" s="13">
+        <f>'England | Specialist Advice'!Q34/$V35</f>
+        <v>0</v>
+      </c>
+      <c r="U35" s="12"/>
+      <c r="V35" s="27">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E36" s="11">
+        <f>'England | Specialist Advice'!B35</f>
+        <v>45231</v>
+      </c>
+      <c r="F36" s="13">
+        <f>'England | Specialist Advice'!C35/$V36</f>
+        <v>0</v>
+      </c>
+      <c r="G36" s="13">
+        <f>'England | Specialist Advice'!D35/$V36</f>
+        <v>0</v>
+      </c>
+      <c r="H36" s="13">
+        <f>'England | Specialist Advice'!E35/$V36</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="13">
+        <f>'England | Specialist Advice'!G35/$V36</f>
+        <v>0</v>
+      </c>
+      <c r="K36" s="13">
+        <f>'England | Specialist Advice'!H35/$V36</f>
+        <v>0</v>
+      </c>
+      <c r="L36" s="13">
+        <f>'England | Specialist Advice'!I35/$V36</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="1"/>
+      <c r="N36" s="13">
+        <f>'England | Specialist Advice'!K35/$V36</f>
+        <v>0</v>
+      </c>
+      <c r="O36" s="13">
+        <f>'England | Specialist Advice'!L35/$V36</f>
+        <v>0</v>
+      </c>
+      <c r="P36" s="13">
+        <f>'England | Specialist Advice'!M35/$V36</f>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="13">
+        <f>'England | Specialist Advice'!O35/$V36</f>
+        <v>0</v>
+      </c>
+      <c r="S36" s="13">
+        <f>'England | Specialist Advice'!P35/$V36</f>
+        <v>0</v>
+      </c>
+      <c r="T36" s="13">
+        <f>'England | Specialist Advice'!Q35/$V36</f>
+        <v>0</v>
+      </c>
+      <c r="U36" s="12"/>
+      <c r="V36" s="27">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E37" s="11">
+        <f>'England | Specialist Advice'!B36</f>
+        <v>45261</v>
+      </c>
+      <c r="F37" s="13">
+        <f>'England | Specialist Advice'!C36/$V37</f>
+        <v>0</v>
+      </c>
+      <c r="G37" s="13">
+        <f>'England | Specialist Advice'!D36/$V37</f>
+        <v>0</v>
+      </c>
+      <c r="H37" s="13">
+        <f>'England | Specialist Advice'!E36/$V37</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="13">
+        <f>'England | Specialist Advice'!G36/$V37</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="13">
+        <f>'England | Specialist Advice'!H36/$V37</f>
+        <v>0</v>
+      </c>
+      <c r="L37" s="13">
+        <f>'England | Specialist Advice'!I36/$V37</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="1"/>
+      <c r="N37" s="13">
+        <f>'England | Specialist Advice'!K36/$V37</f>
+        <v>0</v>
+      </c>
+      <c r="O37" s="13">
+        <f>'England | Specialist Advice'!L36/$V37</f>
+        <v>0</v>
+      </c>
+      <c r="P37" s="13">
+        <f>'England | Specialist Advice'!M36/$V37</f>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="1"/>
+      <c r="R37" s="13">
+        <f>'England | Specialist Advice'!O36/$V37</f>
+        <v>0</v>
+      </c>
+      <c r="S37" s="13">
+        <f>'England | Specialist Advice'!P36/$V37</f>
+        <v>0</v>
+      </c>
+      <c r="T37" s="13">
+        <f>'England | Specialist Advice'!Q36/$V37</f>
+        <v>0</v>
+      </c>
+      <c r="U37" s="12"/>
+      <c r="V37" s="27">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E38" s="11">
+        <f>'England | Specialist Advice'!B37</f>
+        <v>45292</v>
+      </c>
+      <c r="F38" s="13">
+        <f>'England | Specialist Advice'!C37/$V38</f>
+        <v>0</v>
+      </c>
+      <c r="G38" s="13">
+        <f>'England | Specialist Advice'!D37/$V38</f>
+        <v>0</v>
+      </c>
+      <c r="H38" s="13">
+        <f>'England | Specialist Advice'!E37/$V38</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="1"/>
+      <c r="J38" s="13">
+        <f>'England | Specialist Advice'!G37/$V38</f>
+        <v>0</v>
+      </c>
+      <c r="K38" s="13">
+        <f>'England | Specialist Advice'!H37/$V38</f>
+        <v>0</v>
+      </c>
+      <c r="L38" s="13">
+        <f>'England | Specialist Advice'!I37/$V38</f>
+        <v>0</v>
+      </c>
+      <c r="M38" s="1"/>
+      <c r="N38" s="13">
+        <f>'England | Specialist Advice'!K37/$V38</f>
+        <v>0</v>
+      </c>
+      <c r="O38" s="13">
+        <f>'England | Specialist Advice'!L37/$V38</f>
+        <v>0</v>
+      </c>
+      <c r="P38" s="13">
+        <f>'England | Specialist Advice'!M37/$V38</f>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1"/>
+      <c r="R38" s="13">
+        <f>'England | Specialist Advice'!O37/$V38</f>
+        <v>0</v>
+      </c>
+      <c r="S38" s="13">
+        <f>'England | Specialist Advice'!P37/$V38</f>
+        <v>0</v>
+      </c>
+      <c r="T38" s="13">
+        <f>'England | Specialist Advice'!Q37/$V38</f>
+        <v>0</v>
+      </c>
+      <c r="U38" s="12"/>
+      <c r="V38" s="27">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E39" s="11">
+        <f>'England | Specialist Advice'!B38</f>
+        <v>45323</v>
+      </c>
+      <c r="F39" s="13">
+        <f>'England | Specialist Advice'!C38/$V39</f>
+        <v>0</v>
+      </c>
+      <c r="G39" s="13">
+        <f>'England | Specialist Advice'!D38/$V39</f>
+        <v>0</v>
+      </c>
+      <c r="H39" s="13">
+        <f>'England | Specialist Advice'!E38/$V39</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="13">
+        <f>'England | Specialist Advice'!G38/$V39</f>
+        <v>0</v>
+      </c>
+      <c r="K39" s="13">
+        <f>'England | Specialist Advice'!H38/$V39</f>
+        <v>0</v>
+      </c>
+      <c r="L39" s="13">
+        <f>'England | Specialist Advice'!I38/$V39</f>
+        <v>0</v>
+      </c>
+      <c r="M39" s="1"/>
+      <c r="N39" s="13">
+        <f>'England | Specialist Advice'!K38/$V39</f>
+        <v>0</v>
+      </c>
+      <c r="O39" s="13">
+        <f>'England | Specialist Advice'!L38/$V39</f>
+        <v>0</v>
+      </c>
+      <c r="P39" s="13">
+        <f>'England | Specialist Advice'!M38/$V39</f>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="1"/>
+      <c r="R39" s="13">
+        <f>'England | Specialist Advice'!O38/$V39</f>
+        <v>0</v>
+      </c>
+      <c r="S39" s="13">
+        <f>'England | Specialist Advice'!P38/$V39</f>
+        <v>0</v>
+      </c>
+      <c r="T39" s="13">
+        <f>'England | Specialist Advice'!Q38/$V39</f>
+        <v>0</v>
+      </c>
+      <c r="U39" s="12"/>
+      <c r="V39" s="27">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E40" s="11">
+        <f>'England | Specialist Advice'!B39</f>
+        <v>45352</v>
+      </c>
+      <c r="F40" s="13">
+        <f>'England | Specialist Advice'!C39/$V40</f>
+        <v>0</v>
+      </c>
+      <c r="G40" s="13">
+        <f>'England | Specialist Advice'!D39/$V40</f>
+        <v>0</v>
+      </c>
+      <c r="H40" s="13">
+        <f>'England | Specialist Advice'!E39/$V40</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="13">
+        <f>'England | Specialist Advice'!G39/$V40</f>
+        <v>0</v>
+      </c>
+      <c r="K40" s="13">
+        <f>'England | Specialist Advice'!H39/$V40</f>
+        <v>0</v>
+      </c>
+      <c r="L40" s="13">
+        <f>'England | Specialist Advice'!I39/$V40</f>
+        <v>0</v>
+      </c>
+      <c r="M40" s="1"/>
+      <c r="N40" s="13">
+        <f>'England | Specialist Advice'!K39/$V40</f>
+        <v>0</v>
+      </c>
+      <c r="O40" s="13">
+        <f>'England | Specialist Advice'!L39/$V40</f>
+        <v>0</v>
+      </c>
+      <c r="P40" s="13">
+        <f>'England | Specialist Advice'!M39/$V40</f>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="13">
+        <f>'England | Specialist Advice'!O39/$V40</f>
+        <v>0</v>
+      </c>
+      <c r="S40" s="13">
+        <f>'England | Specialist Advice'!P39/$V40</f>
+        <v>0</v>
+      </c>
+      <c r="T40" s="13">
+        <f>'England | Specialist Advice'!Q39/$V40</f>
+        <v>0</v>
+      </c>
+      <c r="U40" s="12"/>
+      <c r="V40" s="27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="41" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E41" s="11">
+        <f>'England | Specialist Advice'!B40</f>
+        <v>45383</v>
+      </c>
+      <c r="F41" s="13">
+        <f>'England | Specialist Advice'!C40/$V41</f>
+        <v>0</v>
+      </c>
+      <c r="G41" s="13">
+        <f>'England | Specialist Advice'!D40/$V41</f>
+        <v>0</v>
+      </c>
+      <c r="H41" s="13">
+        <f>'England | Specialist Advice'!E40/$V41</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="1"/>
+      <c r="J41" s="13">
+        <f>'England | Specialist Advice'!G40/$V41</f>
+        <v>0</v>
+      </c>
+      <c r="K41" s="13">
+        <f>'England | Specialist Advice'!H40/$V41</f>
+        <v>0</v>
+      </c>
+      <c r="L41" s="13">
+        <f>'England | Specialist Advice'!I40/$V41</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="1"/>
+      <c r="N41" s="13">
+        <f>'England | Specialist Advice'!K40/$V41</f>
+        <v>0</v>
+      </c>
+      <c r="O41" s="13">
+        <f>'England | Specialist Advice'!L40/$V41</f>
+        <v>0</v>
+      </c>
+      <c r="P41" s="13">
+        <f>'England | Specialist Advice'!M40/$V41</f>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="1"/>
+      <c r="R41" s="13">
+        <f>'England | Specialist Advice'!O40/$V41</f>
+        <v>0</v>
+      </c>
+      <c r="S41" s="13">
+        <f>'England | Specialist Advice'!P40/$V41</f>
+        <v>0</v>
+      </c>
+      <c r="T41" s="13">
+        <f>'England | Specialist Advice'!Q40/$V41</f>
+        <v>0</v>
+      </c>
+      <c r="U41" s="12"/>
+      <c r="V41" s="27">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E42" s="11">
+        <f>'England | Specialist Advice'!B41</f>
+        <v>45413</v>
+      </c>
+      <c r="F42" s="13">
+        <f>'England | Specialist Advice'!C41/$V42</f>
+        <v>0</v>
+      </c>
+      <c r="G42" s="13">
+        <f>'England | Specialist Advice'!D41/$V42</f>
+        <v>0</v>
+      </c>
+      <c r="H42" s="13">
+        <f>'England | Specialist Advice'!E41/$V42</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="1"/>
+      <c r="J42" s="13">
+        <f>'England | Specialist Advice'!G41/$V42</f>
+        <v>0</v>
+      </c>
+      <c r="K42" s="13">
+        <f>'England | Specialist Advice'!H41/$V42</f>
+        <v>0</v>
+      </c>
+      <c r="L42" s="13">
+        <f>'England | Specialist Advice'!I41/$V42</f>
+        <v>0</v>
+      </c>
+      <c r="M42" s="1"/>
+      <c r="N42" s="13">
+        <f>'England | Specialist Advice'!K41/$V42</f>
+        <v>0</v>
+      </c>
+      <c r="O42" s="13">
+        <f>'England | Specialist Advice'!L41/$V42</f>
+        <v>0</v>
+      </c>
+      <c r="P42" s="13">
+        <f>'England | Specialist Advice'!M41/$V42</f>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="1"/>
+      <c r="R42" s="13">
+        <f>'England | Specialist Advice'!O41/$V42</f>
+        <v>0</v>
+      </c>
+      <c r="S42" s="13">
+        <f>'England | Specialist Advice'!P41/$V42</f>
+        <v>0</v>
+      </c>
+      <c r="T42" s="13">
+        <f>'England | Specialist Advice'!Q41/$V42</f>
+        <v>0</v>
+      </c>
+      <c r="U42" s="12"/>
+      <c r="V42" s="27">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E43" s="11">
+        <f>'England | Specialist Advice'!B42</f>
+        <v>45444</v>
+      </c>
+      <c r="F43" s="13">
+        <f>'England | Specialist Advice'!C42/$V43</f>
+        <v>0</v>
+      </c>
+      <c r="G43" s="13">
+        <f>'England | Specialist Advice'!D42/$V43</f>
+        <v>0</v>
+      </c>
+      <c r="H43" s="13">
+        <f>'England | Specialist Advice'!E42/$V43</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="1"/>
+      <c r="J43" s="13">
+        <f>'England | Specialist Advice'!G42/$V43</f>
+        <v>0</v>
+      </c>
+      <c r="K43" s="13">
+        <f>'England | Specialist Advice'!H42/$V43</f>
+        <v>0</v>
+      </c>
+      <c r="L43" s="13">
+        <f>'England | Specialist Advice'!I42/$V43</f>
+        <v>0</v>
+      </c>
+      <c r="M43" s="1"/>
+      <c r="N43" s="13">
+        <f>'England | Specialist Advice'!K42/$V43</f>
+        <v>0</v>
+      </c>
+      <c r="O43" s="13">
+        <f>'England | Specialist Advice'!L42/$V43</f>
+        <v>0</v>
+      </c>
+      <c r="P43" s="13">
+        <f>'England | Specialist Advice'!M42/$V43</f>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="1"/>
+      <c r="R43" s="13">
+        <f>'England | Specialist Advice'!O42/$V43</f>
+        <v>0</v>
+      </c>
+      <c r="S43" s="13">
+        <f>'England | Specialist Advice'!P42/$V43</f>
+        <v>0</v>
+      </c>
+      <c r="T43" s="13">
+        <f>'England | Specialist Advice'!Q42/$V43</f>
+        <v>0</v>
+      </c>
+      <c r="U43" s="12"/>
+      <c r="V43" s="27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E44" s="11">
+        <f>'England | Specialist Advice'!B43</f>
+        <v>45474</v>
+      </c>
+      <c r="F44" s="13">
+        <f>'England | Specialist Advice'!C43/$V44</f>
+        <v>0</v>
+      </c>
+      <c r="G44" s="13">
+        <f>'England | Specialist Advice'!D43/$V44</f>
+        <v>0</v>
+      </c>
+      <c r="H44" s="13">
+        <f>'England | Specialist Advice'!E43/$V44</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="1"/>
+      <c r="J44" s="13">
+        <f>'England | Specialist Advice'!G43/$V44</f>
+        <v>0</v>
+      </c>
+      <c r="K44" s="13">
+        <f>'England | Specialist Advice'!H43/$V44</f>
+        <v>0</v>
+      </c>
+      <c r="L44" s="13">
+        <f>'England | Specialist Advice'!I43/$V44</f>
+        <v>0</v>
+      </c>
+      <c r="M44" s="1"/>
+      <c r="N44" s="13">
+        <f>'England | Specialist Advice'!K43/$V44</f>
+        <v>0</v>
+      </c>
+      <c r="O44" s="13">
+        <f>'England | Specialist Advice'!L43/$V44</f>
+        <v>0</v>
+      </c>
+      <c r="P44" s="13">
+        <f>'England | Specialist Advice'!M43/$V44</f>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="13">
+        <f>'England | Specialist Advice'!O43/$V44</f>
+        <v>0</v>
+      </c>
+      <c r="S44" s="13">
+        <f>'England | Specialist Advice'!P43/$V44</f>
+        <v>0</v>
+      </c>
+      <c r="T44" s="13">
+        <f>'England | Specialist Advice'!Q43/$V44</f>
+        <v>0</v>
+      </c>
+      <c r="U44" s="12"/>
+      <c r="V44" s="27">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E45" s="11">
+        <f>'England | Specialist Advice'!B44</f>
+        <v>45505</v>
+      </c>
+      <c r="F45" s="13">
+        <f>'England | Specialist Advice'!C44/$V45</f>
+        <v>0</v>
+      </c>
+      <c r="G45" s="13">
+        <f>'England | Specialist Advice'!D44/$V45</f>
+        <v>0</v>
+      </c>
+      <c r="H45" s="13">
+        <f>'England | Specialist Advice'!E44/$V45</f>
+        <v>0</v>
+      </c>
+      <c r="I45" s="1"/>
+      <c r="J45" s="13">
+        <f>'England | Specialist Advice'!G44/$V45</f>
+        <v>0</v>
+      </c>
+      <c r="K45" s="13">
+        <f>'England | Specialist Advice'!H44/$V45</f>
+        <v>0</v>
+      </c>
+      <c r="L45" s="13">
+        <f>'England | Specialist Advice'!I44/$V45</f>
+        <v>0</v>
+      </c>
+      <c r="M45" s="1"/>
+      <c r="N45" s="13">
+        <f>'England | Specialist Advice'!K44/$V45</f>
+        <v>0</v>
+      </c>
+      <c r="O45" s="13">
+        <f>'England | Specialist Advice'!L44/$V45</f>
+        <v>0</v>
+      </c>
+      <c r="P45" s="13">
+        <f>'England | Specialist Advice'!M44/$V45</f>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="1"/>
+      <c r="R45" s="13">
+        <f>'England | Specialist Advice'!O44/$V45</f>
+        <v>0</v>
+      </c>
+      <c r="S45" s="13">
+        <f>'England | Specialist Advice'!P44/$V45</f>
+        <v>0</v>
+      </c>
+      <c r="T45" s="13">
+        <f>'England | Specialist Advice'!Q44/$V45</f>
+        <v>0</v>
+      </c>
+      <c r="U45" s="12"/>
+      <c r="V45" s="27">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E46" s="11">
+        <f>'England | Specialist Advice'!B45</f>
+        <v>45536</v>
+      </c>
+      <c r="F46" s="13">
+        <f>'England | Specialist Advice'!C45/$V46</f>
+        <v>0</v>
+      </c>
+      <c r="G46" s="13">
+        <f>'England | Specialist Advice'!D45/$V46</f>
+        <v>0</v>
+      </c>
+      <c r="H46" s="13">
+        <f>'England | Specialist Advice'!E45/$V46</f>
+        <v>0</v>
+      </c>
+      <c r="I46" s="1"/>
+      <c r="J46" s="13">
+        <f>'England | Specialist Advice'!G45/$V46</f>
+        <v>0</v>
+      </c>
+      <c r="K46" s="13">
+        <f>'England | Specialist Advice'!H45/$V46</f>
+        <v>0</v>
+      </c>
+      <c r="L46" s="13">
+        <f>'England | Specialist Advice'!I45/$V46</f>
+        <v>0</v>
+      </c>
+      <c r="M46" s="1"/>
+      <c r="N46" s="13">
+        <f>'England | Specialist Advice'!K45/$V46</f>
+        <v>0</v>
+      </c>
+      <c r="O46" s="13">
+        <f>'England | Specialist Advice'!L45/$V46</f>
+        <v>0</v>
+      </c>
+      <c r="P46" s="13">
+        <f>'England | Specialist Advice'!M45/$V46</f>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="1"/>
+      <c r="R46" s="13">
+        <f>'England | Specialist Advice'!O45/$V46</f>
+        <v>0</v>
+      </c>
+      <c r="S46" s="13">
+        <f>'England | Specialist Advice'!P45/$V46</f>
+        <v>0</v>
+      </c>
+      <c r="T46" s="13">
+        <f>'England | Specialist Advice'!Q45/$V46</f>
+        <v>0</v>
+      </c>
+      <c r="U46" s="1"/>
+      <c r="V46" s="27">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="47" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E47" s="11">
+        <f>'England | Specialist Advice'!B46</f>
+        <v>45566</v>
+      </c>
+      <c r="F47" s="13">
+        <f>'England | Specialist Advice'!C46/$V47</f>
+        <v>0</v>
+      </c>
+      <c r="G47" s="13">
+        <f>'England | Specialist Advice'!D46/$V47</f>
+        <v>0</v>
+      </c>
+      <c r="H47" s="13">
+        <f>'England | Specialist Advice'!E46/$V47</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="1"/>
+      <c r="J47" s="13">
+        <f>'England | Specialist Advice'!G46/$V47</f>
+        <v>0</v>
+      </c>
+      <c r="K47" s="13">
+        <f>'England | Specialist Advice'!H46/$V47</f>
+        <v>0</v>
+      </c>
+      <c r="L47" s="13">
+        <f>'England | Specialist Advice'!I46/$V47</f>
+        <v>0</v>
+      </c>
+      <c r="M47" s="1"/>
+      <c r="N47" s="13">
+        <f>'England | Specialist Advice'!K46/$V47</f>
+        <v>0</v>
+      </c>
+      <c r="O47" s="13">
+        <f>'England | Specialist Advice'!L46/$V47</f>
+        <v>0</v>
+      </c>
+      <c r="P47" s="13">
+        <f>'England | Specialist Advice'!M46/$V47</f>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="13">
+        <f>'England | Specialist Advice'!O46/$V47</f>
+        <v>0</v>
+      </c>
+      <c r="S47" s="13">
+        <f>'England | Specialist Advice'!P46/$V47</f>
+        <v>0</v>
+      </c>
+      <c r="T47" s="13">
+        <f>'England | Specialist Advice'!Q46/$V47</f>
+        <v>0</v>
+      </c>
+      <c r="U47" s="1"/>
+      <c r="V47" s="27">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="48" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E48" s="11">
+        <f>'England | Specialist Advice'!B47</f>
+        <v>45597</v>
+      </c>
+      <c r="F48" s="13">
+        <f>'England | Specialist Advice'!C47/$V48</f>
+        <v>0</v>
+      </c>
+      <c r="G48" s="13">
+        <f>'England | Specialist Advice'!D47/$V48</f>
+        <v>0</v>
+      </c>
+      <c r="H48" s="13">
+        <f>'England | Specialist Advice'!E47/$V48</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="13">
+        <f>'England | Specialist Advice'!G47/$V48</f>
+        <v>0</v>
+      </c>
+      <c r="K48" s="13">
+        <f>'England | Specialist Advice'!H47/$V48</f>
+        <v>0</v>
+      </c>
+      <c r="L48" s="13">
+        <f>'England | Specialist Advice'!I47/$V48</f>
+        <v>0</v>
+      </c>
+      <c r="M48" s="1"/>
+      <c r="N48" s="13">
+        <f>'England | Specialist Advice'!K47/$V48</f>
+        <v>0</v>
+      </c>
+      <c r="O48" s="13">
+        <f>'England | Specialist Advice'!L47/$V48</f>
+        <v>0</v>
+      </c>
+      <c r="P48" s="13">
+        <f>'England | Specialist Advice'!M47/$V48</f>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="13">
+        <f>'England | Specialist Advice'!O47/$V48</f>
+        <v>0</v>
+      </c>
+      <c r="S48" s="13">
+        <f>'England | Specialist Advice'!P47/$V48</f>
+        <v>0</v>
+      </c>
+      <c r="T48" s="13">
+        <f>'England | Specialist Advice'!Q47/$V48</f>
+        <v>0</v>
+      </c>
+      <c r="U48" s="1"/>
+      <c r="V48" s="27">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E49" s="11">
+        <f>'England | Specialist Advice'!B48</f>
+        <v>45627</v>
+      </c>
+      <c r="F49" s="13">
+        <f>'England | Specialist Advice'!C48/$V49</f>
+        <v>0</v>
+      </c>
+      <c r="G49" s="13">
+        <f>'England | Specialist Advice'!D48/$V49</f>
+        <v>0</v>
+      </c>
+      <c r="H49" s="13">
+        <f>'England | Specialist Advice'!E48/$V49</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="1"/>
+      <c r="J49" s="13">
+        <f>'England | Specialist Advice'!G48/$V49</f>
+        <v>0</v>
+      </c>
+      <c r="K49" s="13">
+        <f>'England | Specialist Advice'!H48/$V49</f>
+        <v>0</v>
+      </c>
+      <c r="L49" s="13">
+        <f>'England | Specialist Advice'!I48/$V49</f>
+        <v>0</v>
+      </c>
+      <c r="M49" s="1"/>
+      <c r="N49" s="13">
+        <f>'England | Specialist Advice'!K48/$V49</f>
+        <v>0</v>
+      </c>
+      <c r="O49" s="13">
+        <f>'England | Specialist Advice'!L48/$V49</f>
+        <v>0</v>
+      </c>
+      <c r="P49" s="13">
+        <f>'England | Specialist Advice'!M48/$V49</f>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="1"/>
+      <c r="R49" s="13">
+        <f>'England | Specialist Advice'!O48/$V49</f>
+        <v>0</v>
+      </c>
+      <c r="S49" s="13">
+        <f>'England | Specialist Advice'!P48/$V49</f>
+        <v>0</v>
+      </c>
+      <c r="T49" s="13">
+        <f>'England | Specialist Advice'!Q48/$V49</f>
+        <v>0</v>
+      </c>
+      <c r="U49" s="1"/>
+      <c r="V49" s="27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="50" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E50" s="11">
+        <f>'England | Specialist Advice'!B49</f>
+        <v>45658</v>
+      </c>
+      <c r="F50" s="13">
+        <f>'England | Specialist Advice'!C49/$V50</f>
+        <v>0</v>
+      </c>
+      <c r="G50" s="13">
+        <f>'England | Specialist Advice'!D49/$V50</f>
+        <v>0</v>
+      </c>
+      <c r="H50" s="13">
+        <f>'England | Specialist Advice'!E49/$V50</f>
+        <v>0</v>
+      </c>
+      <c r="I50" s="1"/>
+      <c r="J50" s="13">
+        <f>'England | Specialist Advice'!G49/$V50</f>
+        <v>0</v>
+      </c>
+      <c r="K50" s="13">
+        <f>'England | Specialist Advice'!H49/$V50</f>
+        <v>0</v>
+      </c>
+      <c r="L50" s="13">
+        <f>'England | Specialist Advice'!I49/$V50</f>
+        <v>0</v>
+      </c>
+      <c r="M50" s="1"/>
+      <c r="N50" s="13">
+        <f>'England | Specialist Advice'!K49/$V50</f>
+        <v>0</v>
+      </c>
+      <c r="O50" s="13">
+        <f>'England | Specialist Advice'!L49/$V50</f>
+        <v>0</v>
+      </c>
+      <c r="P50" s="13">
+        <f>'England | Specialist Advice'!M49/$V50</f>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="1"/>
+      <c r="R50" s="13">
+        <f>'England | Specialist Advice'!O49/$V50</f>
+        <v>0</v>
+      </c>
+      <c r="S50" s="13">
+        <f>'England | Specialist Advice'!P49/$V50</f>
+        <v>0</v>
+      </c>
+      <c r="T50" s="13">
+        <f>'England | Specialist Advice'!Q49/$V50</f>
+        <v>0</v>
+      </c>
+      <c r="U50" s="1"/>
+      <c r="V50" s="27">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="E51" s="11">
+        <f>'England | Specialist Advice'!B50</f>
+        <v>45689</v>
+      </c>
+      <c r="F51" s="13">
+        <f>'England | Specialist Advice'!C50/$V51</f>
+        <v>0</v>
+      </c>
+      <c r="G51" s="13">
+        <f>'England | Specialist Advice'!D50/$V51</f>
+        <v>0</v>
+      </c>
+      <c r="H51" s="13">
+        <f>'England | Specialist Advice'!E50/$V51</f>
+        <v>0</v>
+      </c>
+      <c r="I51" s="1"/>
+      <c r="J51" s="13">
+        <f>'England | Specialist Advice'!G50/$V51</f>
+        <v>0</v>
+      </c>
+      <c r="K51" s="13">
+        <f>'England | Specialist Advice'!H50/$V51</f>
+        <v>0</v>
+      </c>
+      <c r="L51" s="13">
+        <f>'England | Specialist Advice'!I50/$V51</f>
+        <v>0</v>
+      </c>
+      <c r="M51" s="1"/>
+      <c r="N51" s="13">
+        <f>'England | Specialist Advice'!K50/$V51</f>
+        <v>0</v>
+      </c>
+      <c r="O51" s="13">
+        <f>'England | Specialist Advice'!L50/$V51</f>
+        <v>0</v>
+      </c>
+      <c r="P51" s="13">
+        <f>'England | Specialist Advice'!M50/$V51</f>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="1"/>
+      <c r="R51" s="13">
+        <f>'England | Specialist Advice'!O50/$V51</f>
+        <v>0</v>
+      </c>
+      <c r="S51" s="13">
+        <f>'England | Specialist Advice'!P50/$V51</f>
+        <v>0</v>
+      </c>
+      <c r="T51" s="13">
+        <f>'England | Specialist Advice'!Q50/$V51</f>
+        <v>0</v>
+      </c>
+      <c r="U51" s="1"/>
+      <c r="V51" s="27">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="R15:T15"/>
+    <mergeCell ref="C10:Q10"/>
+    <mergeCell ref="C11:Q11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/UK template.xlsx
+++ b/UK template.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nhs.sharepoint.com/sites/ElectiveRecoveryAnalysis/Shared Documents/09 Outpatients Transformation/09_Model_Health_System/12_Routine processing/SA Templates for data bricks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nhs.sharepoint.com/sites/ElectiveRecoveryAnalysis/Shared Documents/09 Outpatients Transformation/09_Model_Health_System/12_Routine processing/SA Templates for data bricks/Template archive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="61" documentId="8_{752AFE92-8F10-46C1-ADD2-FF649F8D3B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43E99A1F-5002-48DA-9B39-C135052E20E4}"/>
+  <xr:revisionPtr revIDLastSave="208" documentId="8_{752AFE92-8F10-46C1-ADD2-FF649F8D3B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C55AED3-8CE6-4FA0-93D2-57A40D5EC220}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="876" activeTab="1" xr2:uid="{FF7DBD49-CC0C-437A-836D-915DF7AECF87}"/>
   </bookViews>
   <sheets>
-    <sheet name="Source Data &amp; Defintions" sheetId="10" r:id="rId1"/>
-    <sheet name="England | Specialist Advice" sheetId="11" r:id="rId2"/>
-    <sheet name="England | Working days" sheetId="12" r:id="rId3"/>
+    <sheet name="Source Data and Definitions" sheetId="10" r:id="rId1"/>
+    <sheet name="Activity by month" sheetId="11" r:id="rId2"/>
+    <sheet name="Activity per working day" sheetId="12" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,88 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="54">
   <si>
     <t>Source Data &amp; Defintions</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Data source </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Monthly specialist advice activity returns are collected from Integrated Care Boards (ICBs) as part of the System Elective Recovery Outpatient Collection (System EROC). 
-The System EROC includes any or all recorded clinical dialogue that facilitates the seeking and/or provision of specialist advice prior to, or instead of a referral to secondary care, where that advice is expected to support a referrer to manage a patient without the need for an unnecessary outpatient appointment. Please note, interactions about patients as part of the ongoing validation of waiting list activities is not included in this collection.
-Submissions represent a co-ordinated, aggregate position across Integrated Boards (ICBs). The methodology requests that submissions only include activity where the first request was raised by an organisation within the ICB. This can, however, include requests directed to organisations beyond the ICBs geographical footprint, this approach means that we have a national picture of activity underway in England. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>Data definitions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-The information relating to status and outcomes is used to define the key reporting measures used by NHS England: 
-   - Total Requests: number of specialist advice requests raised.
-   - Processed Requests: The number of specialist advice requests that have been received and responded to. This does not include those that are open or in need of     redirection at source.
-   - Diverted Requests: The total number of specialist advice requests that have been 'Processed' i.e. received and responded to and 'returned to referrer with advice' where it is expected that the advice 
-diverted a referral.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Specialty categorisation</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF0070C0"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">This file includes an England aggregate position, Published management information grouping activity by specialities that are in, and out of, scope of the elective recovery fund (ERF) is also available at ICB and Provider level. </t>
-    </r>
   </si>
   <si>
     <t>Types of Specialist Advice</t>
@@ -287,6 +208,31 @@
       <t>per working day</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">Monthly specialist advice activity returns are collected from Integrated Care Boards (ICBs) as part of the System Elective Recovery Outpatient Collection (System EROC). 
+The System EROC includes any or all recorded clinical dialogue that facilitates the seeking and/or provision of specialist advice prior to, or instead of a referral to secondary care, where that advice is expected to support a referrer to manage a patient without the need for an unnecessary outpatient appointment. Please note, interactions about patients as part of the ongoing validation of waiting list activities is not included in this collection.
+Submissions represent a co-ordinated, aggregate position across Integrated Boards (ICBs). The methodology requests that submissions only include activity where the first request was raised by an organisation within the ICB. This can, however, include requests directed to organisations beyond the ICBs geographical footprint, this approach means that we have a national picture of activity underway in England. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data source </t>
+  </si>
+  <si>
+    <t>Data definitions</t>
+  </si>
+  <si>
+    <t>The information relating to status and outcomes is used to define the key reporting measures used by NHS England: 
+   - Total Requests: number of specialist advice requests raised.
+   - Processed Requests: The number of specialist advice requests that have been received and responded to. This does not include those that are open or in need of     redirection at source.
+   - Diverted Requests: The total number of specialist advice requests that have been 'Processed' i.e. received and responded to and 'returned to referrer with advice' where it is expected that the advice 
+diverted a referral.</t>
+  </si>
+  <si>
+    <t>Specialty categorisation</t>
+  </si>
+  <si>
+    <t>This file includes an England aggregate position. Published management information grouping activity by specialities that are in, and out of, scope of the elective recovery fund (ERF) is also available at ICB and Provider level, please refer to the published csv files.</t>
+  </si>
 </sst>
 </file>
 
@@ -299,7 +245,7 @@
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.000000_-;\-* #,##0.000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,12 +326,6 @@
     </font>
     <font>
       <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF0070C0"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -482,7 +422,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -520,13 +460,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="6" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="6" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="6" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="6" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -578,22 +596,19 @@
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -616,15 +631,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
@@ -633,43 +663,83 @@
       <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -996,10 +1066,10 @@
   <sheetPr>
     <tabColor theme="0" tint="-0.249977111117893"/>
   </sheetPr>
-  <dimension ref="B1:J29"/>
+  <dimension ref="B1:J33"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23:E23"/>
+      <selection activeCell="B12" sqref="B12:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1012,327 +1082,382 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
-      <c r="J1" s="37"/>
-    </row>
-    <row r="2" spans="2:10" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="B2" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-      <c r="I2" s="37"/>
-      <c r="J2" s="37"/>
-    </row>
-    <row r="3" spans="2:10" ht="388.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="53" t="s">
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+    </row>
+    <row r="2" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="80" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="80"/>
+      <c r="D2" s="80"/>
+      <c r="E2" s="80"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="36"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="36"/>
+    </row>
+    <row r="3" spans="2:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="79" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+    </row>
+    <row r="4" spans="2:10" ht="165" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="78" t="s">
+        <v>48</v>
+      </c>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="36"/>
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="5"/>
+    </row>
+    <row r="5" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="79" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="36"/>
+      <c r="J5" s="5"/>
+    </row>
+    <row r="6" spans="2:10" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="78" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="78"/>
+      <c r="D6" s="78"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="5"/>
+    </row>
+    <row r="7" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="79" t="s">
+        <v>52</v>
+      </c>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
+      <c r="J7" s="5"/>
+    </row>
+    <row r="8" spans="2:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="78" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="78"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+    </row>
+    <row r="9" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="53"/>
-      <c r="D3" s="53"/>
-      <c r="E3" s="53"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="2:10" ht="6.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="53"/>
-      <c r="C4" s="53"/>
-      <c r="D4" s="53"/>
-      <c r="E4" s="53"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="37"/>
-    </row>
-    <row r="5" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B5" s="52" t="s">
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
+      <c r="J9" s="36"/>
+    </row>
+    <row r="10" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="52"/>
-      <c r="D5" s="52"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="37"/>
-      <c r="J5" s="37"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="58" t="s">
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+    </row>
+    <row r="11" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
-      <c r="J6" s="37"/>
-    </row>
-    <row r="7" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="55" t="s">
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="36"/>
+      <c r="G11" s="36"/>
+      <c r="H11" s="36"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+    </row>
+    <row r="12" spans="2:10" s="3" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-    </row>
-    <row r="8" spans="2:10" s="3" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="49" t="s">
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+    </row>
+    <row r="13" spans="2:10" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="39"/>
-      <c r="J8" s="39"/>
-    </row>
-    <row r="9" spans="2:10" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="49" t="s">
+      <c r="C13" s="53"/>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+    </row>
+    <row r="14" spans="2:10" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="39"/>
-      <c r="J9" s="39"/>
-    </row>
-    <row r="10" spans="2:10" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="49" t="s">
+      <c r="C14" s="53"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+    </row>
+    <row r="15" spans="2:10" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="54" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="39"/>
-      <c r="J10" s="39"/>
-    </row>
-    <row r="11" spans="2:10" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="50" t="s">
+      <c r="C15" s="54"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="54"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+    </row>
+    <row r="16" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="39"/>
+      <c r="C16" s="39"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+    </row>
+    <row r="17" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="39"/>
-      <c r="J11" s="39"/>
-    </row>
-    <row r="12" spans="2:10" ht="8.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="40"/>
-      <c r="C12" s="40"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="37"/>
-      <c r="G12" s="37"/>
-      <c r="H12" s="37"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="37"/>
-    </row>
-    <row r="13" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="55" t="s">
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="J17" s="36"/>
+    </row>
+    <row r="18" spans="2:10" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-    </row>
-    <row r="14" spans="2:10" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="49" t="s">
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="38"/>
+    </row>
+    <row r="19" spans="2:10" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="39"/>
-      <c r="J14" s="39"/>
-    </row>
-    <row r="15" spans="2:10" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="49" t="s">
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+    </row>
+    <row r="20" spans="2:10" s="3" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-    </row>
-    <row r="16" spans="2:10" s="3" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="49" t="s">
+      <c r="C20" s="53"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+    </row>
+    <row r="21" spans="2:10" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="39"/>
-    </row>
-    <row r="17" spans="2:5" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="50" t="s">
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+    </row>
+    <row r="22" spans="2:10" s="4" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="56" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="50"/>
-    </row>
-    <row r="18" spans="2:5" s="4" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="51" t="s">
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="56"/>
+    </row>
+    <row r="23" spans="2:10" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="51"/>
-      <c r="D18" s="51"/>
-      <c r="E18" s="51"/>
-    </row>
-    <row r="19" spans="2:5" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="49" t="s">
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B24" s="41"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37"/>
+    </row>
+    <row r="25" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B25" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B20" s="42"/>
-      <c r="C20" s="42"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-    </row>
-    <row r="21" spans="2:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B21" s="52" t="s">
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+    </row>
+    <row r="26" spans="2:10" s="3" customFormat="1" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-    </row>
-    <row r="22" spans="2:5" s="3" customFormat="1" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="53" t="s">
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+    </row>
+    <row r="27" spans="2:10" s="3" customFormat="1" ht="81.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-    </row>
-    <row r="23" spans="2:5" s="3" customFormat="1" ht="81.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="54" t="s">
+      <c r="C27" s="57"/>
+      <c r="D27" s="57"/>
+      <c r="E27" s="57"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B28" s="41"/>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+    </row>
+    <row r="29" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B29" s="51" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-    </row>
-    <row r="25" spans="2:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B25" s="52" t="s">
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+    </row>
+    <row r="30" spans="2:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="52"/>
-      <c r="D25" s="52"/>
-      <c r="E25" s="52"/>
-    </row>
-    <row r="26" spans="2:5" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="53" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="53"/>
-      <c r="D26" s="53"/>
-      <c r="E26" s="53"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B27" s="43"/>
-      <c r="C27" s="43"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B28" s="43"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="37"/>
-    </row>
-    <row r="29" spans="2:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B29" s="48"/>
-      <c r="C29" s="48"/>
-      <c r="D29" s="48"/>
-      <c r="E29" s="48"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B31" s="42"/>
+      <c r="C31" s="42"/>
+      <c r="D31" s="36"/>
+      <c r="E31" s="36"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B32" s="42"/>
+      <c r="C32" s="42"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="36"/>
+    </row>
+    <row r="33" spans="2:5" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
+  <mergeCells count="25">
+    <mergeCell ref="B33:E33"/>
     <mergeCell ref="B18:E18"/>
     <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="B22:E22"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="B25:E25"/>
     <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="B4:E4"/>
+    <mergeCell ref="B8:E8"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B6:E6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1376,18 +1501,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:19" ht="15" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
+      <c r="A2" s="29"/>
       <c r="C2" s="25"/>
     </row>
     <row r="3" spans="1:19" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="18"/>
+    </row>
+    <row r="4" spans="1:19" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="30" t="s">
         <v>21</v>
-      </c>
-      <c r="C3" s="18"/>
-    </row>
-    <row r="4" spans="1:19" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="31" t="s">
-        <v>22</v>
       </c>
       <c r="C4" s="19" t="str">
         <f>TEXT($B$16, "mmmm yyyy") &amp; " to " &amp; TEXT(MAX($B$16:$B$100), "mmmm yyyy")</f>
@@ -1409,11 +1534,11 @@
       <c r="Q4" s="20"/>
     </row>
     <row r="5" spans="1:19" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>24</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
@@ -1431,11 +1556,11 @@
       <c r="Q5" s="20"/>
     </row>
     <row r="6" spans="1:19" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="31" t="s">
-        <v>25</v>
+      <c r="B6" s="30" t="s">
+        <v>24</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
@@ -1453,11 +1578,11 @@
       <c r="Q6" s="20"/>
     </row>
     <row r="7" spans="1:19" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>26</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>27</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
@@ -1475,11 +1600,11 @@
       <c r="Q7" s="20"/>
     </row>
     <row r="8" spans="1:19" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>28</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>29</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
@@ -1497,7 +1622,7 @@
       <c r="Q8" s="20"/>
     </row>
     <row r="9" spans="1:19" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="32"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="19"/>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
@@ -1515,872 +1640,872 @@
       <c r="Q9" s="20"/>
     </row>
     <row r="10" spans="1:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+    </row>
+    <row r="11" spans="1:19" ht="75.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-    </row>
-    <row r="11" spans="1:19" ht="75.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="33" t="s">
+      <c r="C11" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
+    </row>
+    <row r="12" spans="1:19" s="42" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="45" t="s">
         <v>33</v>
-      </c>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
-    </row>
-    <row r="12" spans="1:19" s="43" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="46" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:19" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
-      <c r="C14" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
+      <c r="C14" s="61" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
       <c r="F14" s="21"/>
       <c r="G14" s="60" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H14" s="60"/>
       <c r="I14" s="60"/>
       <c r="J14" s="21"/>
-      <c r="K14" s="62" t="s">
+      <c r="K14" s="59" t="s">
+        <v>36</v>
+      </c>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="L14" s="62"/>
-      <c r="M14" s="62"/>
-      <c r="N14" s="21"/>
-      <c r="O14" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="P14" s="62"/>
-      <c r="Q14" s="62"/>
+      <c r="P14" s="59"/>
+      <c r="Q14" s="59"/>
     </row>
     <row r="15" spans="1:19" s="8" customFormat="1" ht="60.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="D15" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="E15" s="9" t="s">
         <v>41</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>42</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="H15" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="I15" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="J15" s="22"/>
       <c r="K15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L15" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="M15" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="M15" s="10" t="s">
-        <v>42</v>
       </c>
       <c r="N15" s="22"/>
       <c r="O15" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="P15" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="P15" s="10" t="s">
+      <c r="Q15" s="10" t="s">
         <v>41</v>
-      </c>
-      <c r="Q15" s="10" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
         <v>44652</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="35"/>
-      <c r="N16" s="36"/>
-      <c r="O16" s="35"/>
-      <c r="P16" s="35"/>
-      <c r="Q16" s="35"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="34"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="34"/>
+      <c r="J16" s="35"/>
+      <c r="K16" s="34"/>
+      <c r="L16" s="34"/>
+      <c r="M16" s="34"/>
+      <c r="N16" s="35"/>
+      <c r="O16" s="34"/>
+      <c r="P16" s="34"/>
+      <c r="Q16" s="34"/>
       <c r="S16" s="12"/>
     </row>
     <row r="17" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
         <v>44682</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="35"/>
-      <c r="I17" s="35"/>
-      <c r="J17" s="36"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="35"/>
-      <c r="N17" s="36"/>
-      <c r="O17" s="35"/>
-      <c r="P17" s="35"/>
-      <c r="Q17" s="35"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="34"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="34"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="34"/>
+      <c r="J17" s="35"/>
+      <c r="K17" s="34"/>
+      <c r="L17" s="34"/>
+      <c r="M17" s="34"/>
+      <c r="N17" s="35"/>
+      <c r="O17" s="34"/>
+      <c r="P17" s="34"/>
+      <c r="Q17" s="34"/>
       <c r="S17" s="12"/>
     </row>
     <row r="18" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
         <v>44713</v>
       </c>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="36"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="36"/>
-      <c r="O18" s="35"/>
-      <c r="P18" s="35"/>
-      <c r="Q18" s="35"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="34"/>
+      <c r="F18" s="35"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="35"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="35"/>
+      <c r="O18" s="34"/>
+      <c r="P18" s="34"/>
+      <c r="Q18" s="34"/>
       <c r="S18" s="12"/>
     </row>
     <row r="19" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
         <v>44743</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="36"/>
-      <c r="K19" s="35"/>
-      <c r="L19" s="35"/>
-      <c r="M19" s="35"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="35"/>
+      <c r="K19" s="34"/>
+      <c r="L19" s="34"/>
+      <c r="M19" s="34"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="34"/>
+      <c r="P19" s="34"/>
+      <c r="Q19" s="34"/>
       <c r="S19" s="12"/>
     </row>
     <row r="20" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
         <v>44774</v>
       </c>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="35"/>
-      <c r="J20" s="36"/>
-      <c r="K20" s="35"/>
-      <c r="L20" s="35"/>
-      <c r="M20" s="35"/>
-      <c r="N20" s="36"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="35"/>
+      <c r="K20" s="34"/>
+      <c r="L20" s="34"/>
+      <c r="M20" s="34"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="34"/>
+      <c r="P20" s="34"/>
+      <c r="Q20" s="34"/>
       <c r="S20" s="12"/>
     </row>
     <row r="21" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
         <v>44805</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="36"/>
-      <c r="K21" s="35"/>
-      <c r="L21" s="35"/>
-      <c r="M21" s="35"/>
-      <c r="N21" s="36"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="34"/>
+      <c r="J21" s="35"/>
+      <c r="K21" s="34"/>
+      <c r="L21" s="34"/>
+      <c r="M21" s="34"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="34"/>
+      <c r="P21" s="34"/>
+      <c r="Q21" s="34"/>
       <c r="S21" s="12"/>
     </row>
     <row r="22" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
         <v>44835</v>
       </c>
-      <c r="C22" s="35"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="35"/>
-      <c r="I22" s="35"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="35"/>
-      <c r="L22" s="35"/>
-      <c r="M22" s="35"/>
-      <c r="N22" s="36"/>
-      <c r="O22" s="35"/>
-      <c r="P22" s="35"/>
-      <c r="Q22" s="35"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="34"/>
+      <c r="J22" s="35"/>
+      <c r="K22" s="34"/>
+      <c r="L22" s="34"/>
+      <c r="M22" s="34"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="34"/>
+      <c r="P22" s="34"/>
+      <c r="Q22" s="34"/>
       <c r="S22" s="12"/>
     </row>
     <row r="23" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
         <v>44866</v>
       </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="35"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="35"/>
-      <c r="J23" s="36"/>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35"/>
-      <c r="N23" s="36"/>
-      <c r="O23" s="35"/>
-      <c r="P23" s="35"/>
-      <c r="Q23" s="35"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="34"/>
+      <c r="J23" s="35"/>
+      <c r="K23" s="34"/>
+      <c r="L23" s="34"/>
+      <c r="M23" s="34"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="34"/>
+      <c r="P23" s="34"/>
+      <c r="Q23" s="34"/>
       <c r="S23" s="12"/>
     </row>
     <row r="24" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
         <v>44896</v>
       </c>
-      <c r="C24" s="35"/>
-      <c r="D24" s="35"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="35"/>
-      <c r="I24" s="35"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35"/>
-      <c r="N24" s="36"/>
-      <c r="O24" s="35"/>
-      <c r="P24" s="35"/>
-      <c r="Q24" s="35"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="34"/>
+      <c r="J24" s="35"/>
+      <c r="K24" s="34"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="34"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="34"/>
+      <c r="P24" s="34"/>
+      <c r="Q24" s="34"/>
       <c r="S24" s="12"/>
     </row>
     <row r="25" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
         <v>44927</v>
       </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="35"/>
-      <c r="I25" s="35"/>
-      <c r="J25" s="36"/>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
-      <c r="M25" s="35"/>
-      <c r="N25" s="36"/>
-      <c r="O25" s="35"/>
-      <c r="P25" s="35"/>
-      <c r="Q25" s="35"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="34"/>
+      <c r="J25" s="35"/>
+      <c r="K25" s="34"/>
+      <c r="L25" s="34"/>
+      <c r="M25" s="34"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="34"/>
+      <c r="P25" s="34"/>
+      <c r="Q25" s="34"/>
       <c r="S25" s="12"/>
     </row>
     <row r="26" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
         <v>44958</v>
       </c>
-      <c r="C26" s="35"/>
-      <c r="D26" s="35"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="35"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="35"/>
-      <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="36"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="34"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="34"/>
+      <c r="J26" s="35"/>
+      <c r="K26" s="34"/>
+      <c r="L26" s="34"/>
+      <c r="M26" s="34"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="34"/>
+      <c r="P26" s="34"/>
+      <c r="Q26" s="34"/>
       <c r="S26" s="12"/>
     </row>
     <row r="27" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
         <v>44986</v>
       </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="36"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="35"/>
-      <c r="I27" s="35"/>
-      <c r="J27" s="36"/>
-      <c r="K27" s="35"/>
-      <c r="L27" s="35"/>
-      <c r="M27" s="35"/>
-      <c r="N27" s="36"/>
-      <c r="O27" s="35"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="34"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="34"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="34"/>
+      <c r="L27" s="34"/>
+      <c r="M27" s="34"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="34"/>
+      <c r="P27" s="34"/>
+      <c r="Q27" s="34"/>
       <c r="S27" s="12"/>
     </row>
     <row r="28" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
         <v>45017</v>
       </c>
-      <c r="C28" s="35"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="36"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="35"/>
-      <c r="I28" s="35"/>
-      <c r="J28" s="36"/>
-      <c r="K28" s="35"/>
-      <c r="L28" s="35"/>
-      <c r="M28" s="35"/>
-      <c r="N28" s="36"/>
-      <c r="O28" s="35"/>
-      <c r="P28" s="35"/>
-      <c r="Q28" s="35"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="35"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
       <c r="S28" s="12"/>
     </row>
     <row r="29" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B29" s="11">
         <v>45047</v>
       </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="35"/>
-      <c r="I29" s="35"/>
-      <c r="J29" s="36"/>
-      <c r="K29" s="35"/>
-      <c r="L29" s="35"/>
-      <c r="M29" s="35"/>
-      <c r="N29" s="36"/>
-      <c r="O29" s="35"/>
-      <c r="P29" s="35"/>
-      <c r="Q29" s="35"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="35"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
       <c r="S29" s="12"/>
     </row>
     <row r="30" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
         <v>45078</v>
       </c>
-      <c r="C30" s="35"/>
-      <c r="D30" s="35"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="35"/>
-      <c r="I30" s="35"/>
-      <c r="J30" s="36"/>
-      <c r="K30" s="35"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="35"/>
-      <c r="N30" s="36"/>
-      <c r="O30" s="35"/>
-      <c r="P30" s="35"/>
-      <c r="Q30" s="35"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="34"/>
+      <c r="H30" s="34"/>
+      <c r="I30" s="34"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="34"/>
+      <c r="L30" s="34"/>
+      <c r="M30" s="34"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="34"/>
+      <c r="P30" s="34"/>
+      <c r="Q30" s="34"/>
       <c r="S30" s="12"/>
     </row>
     <row r="31" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B31" s="11">
         <v>45108</v>
       </c>
-      <c r="C31" s="35"/>
-      <c r="D31" s="35"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="36"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="35"/>
-      <c r="I31" s="35"/>
-      <c r="J31" s="36"/>
-      <c r="K31" s="35"/>
-      <c r="L31" s="35"/>
-      <c r="M31" s="35"/>
-      <c r="N31" s="36"/>
-      <c r="O31" s="35"/>
-      <c r="P31" s="35"/>
-      <c r="Q31" s="35"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="34"/>
+      <c r="H31" s="34"/>
+      <c r="I31" s="34"/>
+      <c r="J31" s="35"/>
+      <c r="K31" s="34"/>
+      <c r="L31" s="34"/>
+      <c r="M31" s="34"/>
+      <c r="N31" s="35"/>
+      <c r="O31" s="34"/>
+      <c r="P31" s="34"/>
+      <c r="Q31" s="34"/>
       <c r="S31" s="12"/>
     </row>
     <row r="32" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B32" s="11">
         <v>45139</v>
       </c>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="36"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="35"/>
-      <c r="J32" s="36"/>
-      <c r="K32" s="35"/>
-      <c r="L32" s="35"/>
-      <c r="M32" s="35"/>
-      <c r="N32" s="36"/>
-      <c r="O32" s="35"/>
-      <c r="P32" s="35"/>
-      <c r="Q32" s="35"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="34"/>
+      <c r="H32" s="34"/>
+      <c r="I32" s="34"/>
+      <c r="J32" s="35"/>
+      <c r="K32" s="34"/>
+      <c r="L32" s="34"/>
+      <c r="M32" s="34"/>
+      <c r="N32" s="35"/>
+      <c r="O32" s="34"/>
+      <c r="P32" s="34"/>
+      <c r="Q32" s="34"/>
       <c r="S32" s="12"/>
     </row>
     <row r="33" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B33" s="11">
         <v>45170</v>
       </c>
-      <c r="C33" s="35"/>
-      <c r="D33" s="35"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="36"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="35"/>
-      <c r="I33" s="35"/>
-      <c r="J33" s="36"/>
-      <c r="K33" s="35"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="35"/>
-      <c r="N33" s="36"/>
-      <c r="O33" s="35"/>
-      <c r="P33" s="35"/>
-      <c r="Q33" s="35"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="34"/>
+      <c r="H33" s="34"/>
+      <c r="I33" s="34"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="34"/>
+      <c r="L33" s="34"/>
+      <c r="M33" s="34"/>
+      <c r="N33" s="35"/>
+      <c r="O33" s="34"/>
+      <c r="P33" s="34"/>
+      <c r="Q33" s="34"/>
       <c r="S33" s="12"/>
     </row>
     <row r="34" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B34" s="11">
         <v>45200</v>
       </c>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="36"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="35"/>
-      <c r="I34" s="35"/>
-      <c r="J34" s="36"/>
-      <c r="K34" s="35"/>
-      <c r="L34" s="35"/>
-      <c r="M34" s="35"/>
-      <c r="N34" s="36"/>
-      <c r="O34" s="35"/>
-      <c r="P34" s="35"/>
-      <c r="Q34" s="35"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="34"/>
+      <c r="H34" s="34"/>
+      <c r="I34" s="34"/>
+      <c r="J34" s="35"/>
+      <c r="K34" s="34"/>
+      <c r="L34" s="34"/>
+      <c r="M34" s="34"/>
+      <c r="N34" s="35"/>
+      <c r="O34" s="34"/>
+      <c r="P34" s="34"/>
+      <c r="Q34" s="34"/>
       <c r="S34" s="12"/>
     </row>
     <row r="35" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B35" s="11">
         <v>45231</v>
       </c>
-      <c r="C35" s="35"/>
-      <c r="D35" s="35"/>
-      <c r="E35" s="35"/>
-      <c r="F35" s="36"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="35"/>
-      <c r="J35" s="36"/>
-      <c r="K35" s="35"/>
-      <c r="L35" s="35"/>
-      <c r="M35" s="35"/>
-      <c r="N35" s="36"/>
-      <c r="O35" s="35"/>
-      <c r="P35" s="35"/>
-      <c r="Q35" s="35"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="34"/>
+      <c r="H35" s="34"/>
+      <c r="I35" s="34"/>
+      <c r="J35" s="35"/>
+      <c r="K35" s="34"/>
+      <c r="L35" s="34"/>
+      <c r="M35" s="34"/>
+      <c r="N35" s="35"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="34"/>
       <c r="S35" s="12"/>
     </row>
     <row r="36" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B36" s="11">
         <v>45261</v>
       </c>
-      <c r="C36" s="35"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="35"/>
-      <c r="F36" s="36"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="35"/>
-      <c r="I36" s="35"/>
-      <c r="J36" s="36"/>
-      <c r="K36" s="35"/>
-      <c r="L36" s="35"/>
-      <c r="M36" s="35"/>
-      <c r="N36" s="36"/>
-      <c r="O36" s="35"/>
-      <c r="P36" s="35"/>
-      <c r="Q36" s="35"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="34"/>
+      <c r="L36" s="34"/>
+      <c r="M36" s="34"/>
+      <c r="N36" s="35"/>
+      <c r="O36" s="34"/>
+      <c r="P36" s="34"/>
+      <c r="Q36" s="34"/>
       <c r="S36" s="12"/>
     </row>
     <row r="37" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B37" s="11">
         <v>45292</v>
       </c>
-      <c r="C37" s="35"/>
-      <c r="D37" s="35"/>
-      <c r="E37" s="35"/>
-      <c r="F37" s="36"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="35"/>
-      <c r="I37" s="35"/>
-      <c r="J37" s="36"/>
-      <c r="K37" s="35"/>
-      <c r="L37" s="35"/>
-      <c r="M37" s="35"/>
-      <c r="N37" s="36"/>
-      <c r="O37" s="35"/>
-      <c r="P37" s="35"/>
-      <c r="Q37" s="35"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+      <c r="J37" s="35"/>
+      <c r="K37" s="34"/>
+      <c r="L37" s="34"/>
+      <c r="M37" s="34"/>
+      <c r="N37" s="35"/>
+      <c r="O37" s="34"/>
+      <c r="P37" s="34"/>
+      <c r="Q37" s="34"/>
       <c r="S37" s="12"/>
     </row>
     <row r="38" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B38" s="11">
         <v>45323</v>
       </c>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="36"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="35"/>
-      <c r="J38" s="36"/>
-      <c r="K38" s="35"/>
-      <c r="L38" s="35"/>
-      <c r="M38" s="35"/>
-      <c r="N38" s="36"/>
-      <c r="O38" s="35"/>
-      <c r="P38" s="35"/>
-      <c r="Q38" s="35"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+      <c r="J38" s="35"/>
+      <c r="K38" s="34"/>
+      <c r="L38" s="34"/>
+      <c r="M38" s="34"/>
+      <c r="N38" s="35"/>
+      <c r="O38" s="34"/>
+      <c r="P38" s="34"/>
+      <c r="Q38" s="34"/>
       <c r="S38" s="12"/>
     </row>
     <row r="39" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B39" s="11">
         <v>45352</v>
       </c>
-      <c r="C39" s="35"/>
-      <c r="D39" s="35"/>
-      <c r="E39" s="35"/>
-      <c r="F39" s="36"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="35"/>
-      <c r="I39" s="35"/>
-      <c r="J39" s="36"/>
-      <c r="K39" s="35"/>
-      <c r="L39" s="35"/>
-      <c r="M39" s="35"/>
-      <c r="N39" s="36"/>
-      <c r="O39" s="35"/>
-      <c r="P39" s="35"/>
-      <c r="Q39" s="35"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+      <c r="I39" s="34"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="34"/>
+      <c r="L39" s="34"/>
+      <c r="M39" s="34"/>
+      <c r="N39" s="35"/>
+      <c r="O39" s="34"/>
+      <c r="P39" s="34"/>
+      <c r="Q39" s="34"/>
       <c r="S39" s="12"/>
     </row>
     <row r="40" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B40" s="11">
         <v>45383</v>
       </c>
-      <c r="C40" s="35"/>
-      <c r="D40" s="35"/>
-      <c r="E40" s="35"/>
-      <c r="F40" s="36"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="35"/>
-      <c r="I40" s="35"/>
-      <c r="J40" s="36"/>
-      <c r="K40" s="35"/>
-      <c r="L40" s="35"/>
-      <c r="M40" s="35"/>
-      <c r="N40" s="36"/>
-      <c r="O40" s="35"/>
-      <c r="P40" s="35"/>
-      <c r="Q40" s="35"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+      <c r="J40" s="35"/>
+      <c r="K40" s="34"/>
+      <c r="L40" s="34"/>
+      <c r="M40" s="34"/>
+      <c r="N40" s="35"/>
+      <c r="O40" s="34"/>
+      <c r="P40" s="34"/>
+      <c r="Q40" s="34"/>
       <c r="S40" s="12"/>
     </row>
     <row r="41" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B41" s="11">
         <v>45413</v>
       </c>
-      <c r="C41" s="35"/>
-      <c r="D41" s="35"/>
-      <c r="E41" s="35"/>
-      <c r="F41" s="36"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="35"/>
-      <c r="I41" s="35"/>
-      <c r="J41" s="36"/>
-      <c r="K41" s="35"/>
-      <c r="L41" s="35"/>
-      <c r="M41" s="35"/>
-      <c r="N41" s="36"/>
-      <c r="O41" s="35"/>
-      <c r="P41" s="35"/>
-      <c r="Q41" s="35"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+      <c r="J41" s="35"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="35"/>
+      <c r="O41" s="34"/>
+      <c r="P41" s="34"/>
+      <c r="Q41" s="34"/>
       <c r="S41" s="12"/>
     </row>
     <row r="42" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B42" s="11">
         <v>45444</v>
       </c>
-      <c r="C42" s="35"/>
-      <c r="D42" s="35"/>
-      <c r="E42" s="35"/>
-      <c r="F42" s="36"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="35"/>
-      <c r="I42" s="35"/>
-      <c r="J42" s="36"/>
-      <c r="K42" s="35"/>
-      <c r="L42" s="35"/>
-      <c r="M42" s="35"/>
-      <c r="N42" s="36"/>
-      <c r="O42" s="35"/>
-      <c r="P42" s="35"/>
-      <c r="Q42" s="35"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="34"/>
+      <c r="L42" s="34"/>
+      <c r="M42" s="34"/>
+      <c r="N42" s="35"/>
+      <c r="O42" s="34"/>
+      <c r="P42" s="34"/>
+      <c r="Q42" s="34"/>
       <c r="S42" s="12"/>
     </row>
     <row r="43" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B43" s="11">
         <v>45474</v>
       </c>
-      <c r="C43" s="35"/>
-      <c r="D43" s="35"/>
-      <c r="E43" s="35"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="35"/>
-      <c r="L43" s="35"/>
-      <c r="M43" s="35"/>
-      <c r="N43" s="36"/>
-      <c r="O43" s="35"/>
-      <c r="P43" s="35"/>
-      <c r="Q43" s="35"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+      <c r="J43" s="35"/>
+      <c r="K43" s="34"/>
+      <c r="L43" s="34"/>
+      <c r="M43" s="34"/>
+      <c r="N43" s="35"/>
+      <c r="O43" s="34"/>
+      <c r="P43" s="34"/>
+      <c r="Q43" s="34"/>
       <c r="S43" s="12"/>
     </row>
     <row r="44" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B44" s="11">
         <v>45505</v>
       </c>
-      <c r="C44" s="35"/>
-      <c r="D44" s="35"/>
-      <c r="E44" s="35"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="36"/>
-      <c r="K44" s="35"/>
-      <c r="L44" s="35"/>
-      <c r="M44" s="35"/>
-      <c r="N44" s="36"/>
-      <c r="O44" s="35"/>
-      <c r="P44" s="35"/>
-      <c r="Q44" s="35"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="35"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+      <c r="J44" s="35"/>
+      <c r="K44" s="34"/>
+      <c r="L44" s="34"/>
+      <c r="M44" s="34"/>
+      <c r="N44" s="35"/>
+      <c r="O44" s="34"/>
+      <c r="P44" s="34"/>
+      <c r="Q44" s="34"/>
       <c r="S44" s="12"/>
     </row>
     <row r="45" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B45" s="11">
         <v>45536</v>
       </c>
-      <c r="C45" s="35"/>
-      <c r="D45" s="35"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="36"/>
-      <c r="G45" s="35"/>
-      <c r="H45" s="35"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="36"/>
-      <c r="K45" s="35"/>
-      <c r="L45" s="35"/>
-      <c r="M45" s="35"/>
-      <c r="N45" s="36"/>
-      <c r="O45" s="35"/>
-      <c r="P45" s="35"/>
-      <c r="Q45" s="35"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="35"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+      <c r="J45" s="35"/>
+      <c r="K45" s="34"/>
+      <c r="L45" s="34"/>
+      <c r="M45" s="34"/>
+      <c r="N45" s="35"/>
+      <c r="O45" s="34"/>
+      <c r="P45" s="34"/>
+      <c r="Q45" s="34"/>
       <c r="S45" s="12"/>
     </row>
     <row r="46" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B46" s="11">
         <v>45566</v>
       </c>
-      <c r="C46" s="35"/>
-      <c r="D46" s="35"/>
-      <c r="E46" s="35"/>
-      <c r="F46" s="36"/>
-      <c r="G46" s="35"/>
-      <c r="H46" s="35"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="36"/>
-      <c r="K46" s="35"/>
-      <c r="L46" s="35"/>
-      <c r="M46" s="35"/>
-      <c r="N46" s="36"/>
-      <c r="O46" s="35"/>
-      <c r="P46" s="35"/>
-      <c r="Q46" s="35"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="35"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="J46" s="35"/>
+      <c r="K46" s="34"/>
+      <c r="L46" s="34"/>
+      <c r="M46" s="34"/>
+      <c r="N46" s="35"/>
+      <c r="O46" s="34"/>
+      <c r="P46" s="34"/>
+      <c r="Q46" s="34"/>
       <c r="S46" s="12"/>
     </row>
     <row r="47" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B47" s="11">
         <v>45597</v>
       </c>
-      <c r="C47" s="35"/>
-      <c r="D47" s="35"/>
-      <c r="E47" s="35"/>
-      <c r="F47" s="36"/>
-      <c r="G47" s="35"/>
-      <c r="H47" s="35"/>
-      <c r="I47" s="35"/>
-      <c r="J47" s="36"/>
-      <c r="K47" s="35"/>
-      <c r="L47" s="35"/>
-      <c r="M47" s="35"/>
-      <c r="N47" s="36"/>
-      <c r="O47" s="35"/>
-      <c r="P47" s="35"/>
-      <c r="Q47" s="35"/>
+      <c r="C47" s="34"/>
+      <c r="D47" s="34"/>
+      <c r="E47" s="34"/>
+      <c r="F47" s="35"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="J47" s="35"/>
+      <c r="K47" s="34"/>
+      <c r="L47" s="34"/>
+      <c r="M47" s="34"/>
+      <c r="N47" s="35"/>
+      <c r="O47" s="34"/>
+      <c r="P47" s="34"/>
+      <c r="Q47" s="34"/>
       <c r="S47" s="12"/>
     </row>
     <row r="48" spans="2:19" ht="15" x14ac:dyDescent="0.25">
       <c r="B48" s="11">
         <v>45627</v>
       </c>
-      <c r="C48" s="35"/>
-      <c r="D48" s="35"/>
-      <c r="E48" s="35"/>
-      <c r="F48" s="36"/>
-      <c r="G48" s="35"/>
-      <c r="H48" s="35"/>
-      <c r="I48" s="35"/>
-      <c r="J48" s="36"/>
-      <c r="K48" s="35"/>
-      <c r="L48" s="35"/>
-      <c r="M48" s="35"/>
-      <c r="N48" s="36"/>
-      <c r="O48" s="35"/>
-      <c r="P48" s="35"/>
-      <c r="Q48" s="35"/>
+      <c r="C48" s="34"/>
+      <c r="D48" s="34"/>
+      <c r="E48" s="34"/>
+      <c r="F48" s="35"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="J48" s="35"/>
+      <c r="K48" s="34"/>
+      <c r="L48" s="34"/>
+      <c r="M48" s="34"/>
+      <c r="N48" s="35"/>
+      <c r="O48" s="34"/>
+      <c r="P48" s="34"/>
+      <c r="Q48" s="34"/>
       <c r="S48" s="12"/>
     </row>
     <row r="49" spans="2:32" ht="15" x14ac:dyDescent="0.25">
       <c r="B49" s="11">
         <v>45658</v>
       </c>
-      <c r="C49" s="35"/>
-      <c r="D49" s="35"/>
-      <c r="E49" s="35"/>
-      <c r="F49" s="36"/>
-      <c r="G49" s="35"/>
-      <c r="H49" s="35"/>
-      <c r="I49" s="35"/>
-      <c r="J49" s="36"/>
-      <c r="K49" s="35"/>
-      <c r="L49" s="35"/>
-      <c r="M49" s="35"/>
-      <c r="N49" s="36"/>
-      <c r="O49" s="35"/>
-      <c r="P49" s="35"/>
-      <c r="Q49" s="35"/>
+      <c r="C49" s="34"/>
+      <c r="D49" s="34"/>
+      <c r="E49" s="34"/>
+      <c r="F49" s="35"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="J49" s="35"/>
+      <c r="K49" s="34"/>
+      <c r="L49" s="34"/>
+      <c r="M49" s="34"/>
+      <c r="N49" s="35"/>
+      <c r="O49" s="34"/>
+      <c r="P49" s="34"/>
+      <c r="Q49" s="34"/>
       <c r="S49" s="12"/>
     </row>
     <row r="50" spans="2:32" ht="15" x14ac:dyDescent="0.25">
       <c r="B50" s="11">
         <v>45689</v>
       </c>
-      <c r="C50" s="35"/>
-      <c r="D50" s="35"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="36"/>
-      <c r="G50" s="35"/>
-      <c r="H50" s="35"/>
-      <c r="I50" s="35"/>
-      <c r="J50" s="36"/>
-      <c r="K50" s="35"/>
-      <c r="L50" s="35"/>
-      <c r="M50" s="35"/>
-      <c r="N50" s="36"/>
-      <c r="O50" s="35"/>
-      <c r="P50" s="35"/>
-      <c r="Q50" s="35"/>
+      <c r="C50" s="34"/>
+      <c r="D50" s="34"/>
+      <c r="E50" s="34"/>
+      <c r="F50" s="35"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="J50" s="35"/>
+      <c r="K50" s="34"/>
+      <c r="L50" s="34"/>
+      <c r="M50" s="34"/>
+      <c r="N50" s="35"/>
+      <c r="O50" s="34"/>
+      <c r="P50" s="34"/>
+      <c r="Q50" s="34"/>
       <c r="S50" s="12"/>
     </row>
     <row r="51" spans="2:32" x14ac:dyDescent="0.2">
-      <c r="B51" s="45" t="str">
-        <f>'England | Working days'!E13</f>
+      <c r="B51" s="44" t="str">
+        <f>'Activity per working day'!B13</f>
         <v>Specialist Advice Activity by measure, per working day</v>
       </c>
-      <c r="C51" s="29"/>
-      <c r="D51" s="29"/>
-      <c r="E51" s="29"/>
-      <c r="F51" s="29"/>
-      <c r="G51" s="29"/>
-      <c r="H51" s="29"/>
-      <c r="I51" s="29"/>
-      <c r="J51" s="29"/>
+      <c r="C51" s="28"/>
+      <c r="D51" s="28"/>
+      <c r="E51" s="28"/>
+      <c r="F51" s="28"/>
+      <c r="G51" s="28"/>
+      <c r="H51" s="28"/>
+      <c r="I51" s="28"/>
+      <c r="J51" s="28"/>
       <c r="K51" s="23"/>
       <c r="L51" s="17"/>
       <c r="M51" s="17"/>
@@ -2735,7 +2860,7 @@
     </row>
     <row r="90" spans="2:32" x14ac:dyDescent="0.2">
       <c r="T90" s="12"/>
-      <c r="U90" s="44"/>
+      <c r="U90" s="43"/>
     </row>
     <row r="91" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B91" s="25"/>
@@ -3179,36 +3304,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E193334-6EF9-4B5B-889C-37F0C8CE3CB6}">
   <dimension ref="B3:V51"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14"/>
+    <sheetView showGridLines="0" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="V16" sqref="V16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="18.28515625" customWidth="1"/>
-    <col min="6" max="8" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="5.5703125" customWidth="1"/>
-    <col min="10" max="12" width="15.5703125" customWidth="1"/>
-    <col min="13" max="13" width="4.7109375" customWidth="1"/>
-    <col min="14" max="16" width="15.5703125" customWidth="1"/>
-    <col min="17" max="17" width="5" customWidth="1"/>
+    <col min="1" max="1" width="2.85546875" customWidth="1"/>
+    <col min="2" max="2" width="18.5703125" customWidth="1"/>
+    <col min="3" max="5" width="13.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="7" max="9" width="16" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" customWidth="1"/>
+    <col min="11" max="13" width="16.42578125" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" customWidth="1"/>
+    <col min="15" max="17" width="16" customWidth="1"/>
     <col min="18" max="20" width="15.5703125" customWidth="1"/>
     <col min="21" max="21" width="4" customWidth="1"/>
     <col min="22" max="22" width="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="3" spans="2:22" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="33" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="18"/>
+    </row>
+    <row r="4" spans="2:22" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="18"/>
-    </row>
-    <row r="4" spans="2:22" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="31" t="s">
-        <v>22</v>
-      </c>
       <c r="C4" s="19" t="str">
-        <f>'England | Specialist Advice'!C4</f>
+        <f>'Activity by month'!C4</f>
         <v>April 2022 to February 2025</v>
       </c>
       <c r="D4" s="20"/>
@@ -3227,11 +3354,11 @@
       <c r="Q4" s="20"/>
     </row>
     <row r="5" spans="2:22" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="31" t="s">
+      <c r="B5" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="19" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>24</v>
       </c>
       <c r="D5" s="20"/>
       <c r="E5" s="20"/>
@@ -3249,11 +3376,11 @@
       <c r="Q5" s="20"/>
     </row>
     <row r="6" spans="2:22" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="31" t="s">
-        <v>25</v>
+      <c r="B6" s="30" t="s">
+        <v>24</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
@@ -3271,11 +3398,11 @@
       <c r="Q6" s="20"/>
     </row>
     <row r="7" spans="2:22" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="31" t="s">
+      <c r="B7" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="19" t="s">
         <v>26</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>27</v>
       </c>
       <c r="D7" s="20"/>
       <c r="E7" s="20"/>
@@ -3293,11 +3420,11 @@
       <c r="Q7" s="20"/>
     </row>
     <row r="8" spans="2:22" s="1" customFormat="1" ht="18.399999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="31" t="s">
+      <c r="B8" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="19" t="s">
         <v>28</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>29</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
@@ -3315,7 +3442,7 @@
       <c r="Q8" s="20"/>
     </row>
     <row r="9" spans="2:22" s="1" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="32"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="19"/>
       <c r="D9" s="20"/>
       <c r="E9" s="20"/>
@@ -3333,70 +3460,70 @@
       <c r="Q9" s="20"/>
     </row>
     <row r="10" spans="2:22" s="1" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="D10" s="58"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="58"/>
+      <c r="J10" s="58"/>
+      <c r="K10" s="58"/>
+      <c r="L10" s="58"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="58"/>
+      <c r="P10" s="58"/>
+      <c r="Q10" s="58"/>
+    </row>
+    <row r="11" spans="2:22" s="1" customFormat="1" ht="75.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
-      <c r="I10" s="59"/>
-      <c r="J10" s="59"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="59"/>
-      <c r="M10" s="59"/>
-      <c r="N10" s="59"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="59"/>
-      <c r="Q10" s="59"/>
-    </row>
-    <row r="11" spans="2:22" s="1" customFormat="1" ht="75.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="33" t="s">
+      <c r="C11" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="C11" s="59" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
-      <c r="J11" s="59"/>
-      <c r="K11" s="59"/>
-      <c r="L11" s="59"/>
-      <c r="M11" s="59"/>
-      <c r="N11" s="59"/>
-      <c r="O11" s="59"/>
-      <c r="P11" s="59"/>
-      <c r="Q11" s="59"/>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="58"/>
+      <c r="J11" s="58"/>
+      <c r="K11" s="58"/>
+      <c r="L11" s="58"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="58"/>
+      <c r="P11" s="58"/>
+      <c r="Q11" s="58"/>
     </row>
     <row r="13" spans="2:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E13" s="46" t="s">
-        <v>48</v>
-      </c>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="47"/>
-      <c r="K13" s="43"/>
-      <c r="L13" s="43"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="43"/>
-      <c r="O13" s="43"/>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="43"/>
-      <c r="R13" s="43"/>
-      <c r="S13" s="43"/>
-      <c r="T13" s="43"/>
-      <c r="U13" s="43"/>
-      <c r="V13" s="43"/>
+      <c r="B13" s="45" t="s">
+        <v>47</v>
+      </c>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="42"/>
+      <c r="L13" s="42"/>
+      <c r="M13" s="42"/>
+      <c r="N13" s="42"/>
+      <c r="O13" s="42"/>
+      <c r="P13" s="42"/>
+      <c r="Q13" s="42"/>
+      <c r="R13" s="42"/>
+      <c r="S13" s="42"/>
+      <c r="T13" s="42"/>
+      <c r="U13" s="42"/>
+      <c r="V13" s="42"/>
     </row>
     <row r="14" spans="2:22" x14ac:dyDescent="0.25">
       <c r="E14" s="1"/>
@@ -3419,2252 +3546,2235 @@
       <c r="V14" s="1"/>
     </row>
     <row r="15" spans="2:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="E15" s="1"/>
-      <c r="F15" s="61" t="s">
+      <c r="C15" s="73" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="74"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="69" t="s">
+        <v>34</v>
+      </c>
+      <c r="G15" s="65" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="61"/>
-      <c r="H15" s="61"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="60" t="s">
+      <c r="H15" s="66"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="70"/>
+      <c r="K15" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="K15" s="60"/>
-      <c r="L15" s="60"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="62" t="s">
+      <c r="L15" s="63"/>
+      <c r="M15" s="64"/>
+      <c r="N15" s="71"/>
+      <c r="O15" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="O15" s="62"/>
-      <c r="P15" s="62"/>
-      <c r="Q15" s="21"/>
-      <c r="R15" s="62" t="s">
-        <v>38</v>
-      </c>
-      <c r="S15" s="62"/>
-      <c r="T15" s="62"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="64"/>
+      <c r="R15" s="72"/>
+      <c r="S15" s="72"/>
+      <c r="T15" s="72"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
     </row>
-    <row r="16" spans="2:22" ht="90" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:22" ht="60" x14ac:dyDescent="0.25">
+      <c r="B16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>43</v>
+      </c>
       <c r="E16" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="68" t="s">
         <v>43</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="I16" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="9" t="s">
+      <c r="J16" s="22"/>
+      <c r="K16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="N16" s="22"/>
+      <c r="O16" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="P16" s="68" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q16" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="R16" s="1"/>
+      <c r="S16" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="K16" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="L16" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="M16" s="22"/>
-      <c r="N16" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="O16" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="P16" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="S16" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="T16" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="U16" s="1"/>
-      <c r="V16" s="28" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E17" s="11">
-        <f>'England | Specialist Advice'!B16</f>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B17" s="11">
+        <f>'Activity by month'!B16</f>
         <v>44652</v>
       </c>
-      <c r="F17" s="13">
-        <f>'England | Specialist Advice'!C16/$V17</f>
-        <v>0</v>
-      </c>
+      <c r="C17" s="13">
+        <f>'Activity by month'!C16/$S17</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="13">
+        <f>'Activity by month'!D16/$S17</f>
+        <v>0</v>
+      </c>
+      <c r="E17" s="13">
+        <f>'Activity by month'!E16/$S17</f>
+        <v>0</v>
+      </c>
+      <c r="F17" s="1"/>
       <c r="G17" s="13">
-        <f>'England | Specialist Advice'!D16/$V17</f>
+        <f>'Activity by month'!G16/$S17</f>
         <v>0</v>
       </c>
       <c r="H17" s="13">
-        <f>'England | Specialist Advice'!E16/$V17</f>
-        <v>0</v>
-      </c>
-      <c r="I17" s="1"/>
-      <c r="J17" s="13">
-        <f>'England | Specialist Advice'!G16/$V17</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!H16/$S17</f>
+        <v>0</v>
+      </c>
+      <c r="I17" s="13">
+        <f>'Activity by month'!I16/$S17</f>
+        <v>0</v>
+      </c>
+      <c r="J17" s="1"/>
       <c r="K17" s="13">
-        <f>'England | Specialist Advice'!H16/$V17</f>
+        <f>'Activity by month'!K16/$S17</f>
         <v>0</v>
       </c>
       <c r="L17" s="13">
-        <f>'England | Specialist Advice'!I16/$V17</f>
-        <v>0</v>
-      </c>
-      <c r="M17" s="1"/>
-      <c r="N17" s="13">
-        <f>'England | Specialist Advice'!K16/$V17</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!L16/$S17</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="13">
+        <f>'Activity by month'!M16/$S17</f>
+        <v>0</v>
+      </c>
+      <c r="N17" s="1"/>
       <c r="O17" s="13">
-        <f>'England | Specialist Advice'!L16/$V17</f>
+        <f>'Activity by month'!O16/$S17</f>
         <v>0</v>
       </c>
       <c r="P17" s="13">
-        <f>'England | Specialist Advice'!M16/$V17</f>
-        <v>0</v>
-      </c>
-      <c r="Q17" s="1"/>
-      <c r="R17" s="13">
-        <f>'England | Specialist Advice'!O16/$V17</f>
-        <v>0</v>
-      </c>
-      <c r="S17" s="13">
-        <f>'England | Specialist Advice'!P16/$V17</f>
-        <v>0</v>
-      </c>
-      <c r="T17" s="13">
-        <f>'England | Specialist Advice'!Q16/$V17</f>
-        <v>0</v>
-      </c>
-      <c r="U17" s="12"/>
-      <c r="V17" s="27">
+        <f>'Activity by month'!P16/$S17</f>
+        <v>0</v>
+      </c>
+      <c r="Q17" s="13">
+        <f>'Activity by month'!Q16/$S17</f>
+        <v>0</v>
+      </c>
+      <c r="R17" s="12"/>
+      <c r="S17" s="76">
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E18" s="11">
-        <f>'England | Specialist Advice'!B17</f>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B18" s="11">
+        <f>'Activity by month'!B17</f>
         <v>44682</v>
       </c>
-      <c r="F18" s="13">
-        <f>'England | Specialist Advice'!C17/$V18</f>
-        <v>0</v>
-      </c>
+      <c r="C18" s="13">
+        <f>'Activity by month'!C17/$S18</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="13">
+        <f>'Activity by month'!D17/$S18</f>
+        <v>0</v>
+      </c>
+      <c r="E18" s="13">
+        <f>'Activity by month'!E17/$S18</f>
+        <v>0</v>
+      </c>
+      <c r="F18" s="1"/>
       <c r="G18" s="13">
-        <f>'England | Specialist Advice'!D17/$V18</f>
+        <f>'Activity by month'!G17/$S18</f>
         <v>0</v>
       </c>
       <c r="H18" s="13">
-        <f>'England | Specialist Advice'!E17/$V18</f>
-        <v>0</v>
-      </c>
-      <c r="I18" s="1"/>
-      <c r="J18" s="13">
-        <f>'England | Specialist Advice'!G17/$V18</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!H17/$S18</f>
+        <v>0</v>
+      </c>
+      <c r="I18" s="13">
+        <f>'Activity by month'!I17/$S18</f>
+        <v>0</v>
+      </c>
+      <c r="J18" s="1"/>
       <c r="K18" s="13">
-        <f>'England | Specialist Advice'!H17/$V18</f>
+        <f>'Activity by month'!K17/$S18</f>
         <v>0</v>
       </c>
       <c r="L18" s="13">
-        <f>'England | Specialist Advice'!I17/$V18</f>
-        <v>0</v>
-      </c>
-      <c r="M18" s="1"/>
-      <c r="N18" s="13">
-        <f>'England | Specialist Advice'!K17/$V18</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!L17/$S18</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="13">
+        <f>'Activity by month'!M17/$S18</f>
+        <v>0</v>
+      </c>
+      <c r="N18" s="1"/>
       <c r="O18" s="13">
-        <f>'England | Specialist Advice'!L17/$V18</f>
+        <f>'Activity by month'!O17/$S18</f>
         <v>0</v>
       </c>
       <c r="P18" s="13">
-        <f>'England | Specialist Advice'!M17/$V18</f>
-        <v>0</v>
-      </c>
-      <c r="Q18" s="1"/>
-      <c r="R18" s="13">
-        <f>'England | Specialist Advice'!O17/$V18</f>
-        <v>0</v>
-      </c>
-      <c r="S18" s="13">
-        <f>'England | Specialist Advice'!P17/$V18</f>
-        <v>0</v>
-      </c>
-      <c r="T18" s="13">
-        <f>'England | Specialist Advice'!Q17/$V18</f>
-        <v>0</v>
-      </c>
-      <c r="U18" s="12"/>
-      <c r="V18" s="27">
+        <f>'Activity by month'!P17/$S18</f>
+        <v>0</v>
+      </c>
+      <c r="Q18" s="13">
+        <f>'Activity by month'!Q17/$S18</f>
+        <v>0</v>
+      </c>
+      <c r="R18" s="12"/>
+      <c r="S18" s="27">
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E19" s="11">
-        <f>'England | Specialist Advice'!B18</f>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B19" s="11">
+        <f>'Activity by month'!B18</f>
         <v>44713</v>
       </c>
-      <c r="F19" s="13">
-        <f>'England | Specialist Advice'!C18/$V19</f>
-        <v>0</v>
-      </c>
+      <c r="C19" s="13">
+        <f>'Activity by month'!C18/$S19</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="13">
+        <f>'Activity by month'!D18/$S19</f>
+        <v>0</v>
+      </c>
+      <c r="E19" s="13">
+        <f>'Activity by month'!E18/$S19</f>
+        <v>0</v>
+      </c>
+      <c r="F19" s="1"/>
       <c r="G19" s="13">
-        <f>'England | Specialist Advice'!D18/$V19</f>
+        <f>'Activity by month'!G18/$S19</f>
         <v>0</v>
       </c>
       <c r="H19" s="13">
-        <f>'England | Specialist Advice'!E18/$V19</f>
-        <v>0</v>
-      </c>
-      <c r="I19" s="1"/>
-      <c r="J19" s="13">
-        <f>'England | Specialist Advice'!G18/$V19</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!H18/$S19</f>
+        <v>0</v>
+      </c>
+      <c r="I19" s="13">
+        <f>'Activity by month'!I18/$S19</f>
+        <v>0</v>
+      </c>
+      <c r="J19" s="1"/>
       <c r="K19" s="13">
-        <f>'England | Specialist Advice'!H18/$V19</f>
+        <f>'Activity by month'!K18/$S19</f>
         <v>0</v>
       </c>
       <c r="L19" s="13">
-        <f>'England | Specialist Advice'!I18/$V19</f>
-        <v>0</v>
-      </c>
-      <c r="M19" s="1"/>
-      <c r="N19" s="13">
-        <f>'England | Specialist Advice'!K18/$V19</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!L18/$S19</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="13">
+        <f>'Activity by month'!M18/$S19</f>
+        <v>0</v>
+      </c>
+      <c r="N19" s="1"/>
       <c r="O19" s="13">
-        <f>'England | Specialist Advice'!L18/$V19</f>
+        <f>'Activity by month'!O18/$S19</f>
         <v>0</v>
       </c>
       <c r="P19" s="13">
-        <f>'England | Specialist Advice'!M18/$V19</f>
-        <v>0</v>
-      </c>
-      <c r="Q19" s="1"/>
-      <c r="R19" s="13">
-        <f>'England | Specialist Advice'!O18/$V19</f>
-        <v>0</v>
-      </c>
-      <c r="S19" s="13">
-        <f>'England | Specialist Advice'!P18/$V19</f>
-        <v>0</v>
-      </c>
-      <c r="T19" s="13">
-        <f>'England | Specialist Advice'!Q18/$V19</f>
-        <v>0</v>
-      </c>
-      <c r="U19" s="12"/>
-      <c r="V19" s="27">
+        <f>'Activity by month'!P18/$S19</f>
+        <v>0</v>
+      </c>
+      <c r="Q19" s="13">
+        <f>'Activity by month'!Q18/$S19</f>
+        <v>0</v>
+      </c>
+      <c r="R19" s="12"/>
+      <c r="S19" s="27">
         <v>20</v>
       </c>
     </row>
-    <row r="20" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E20" s="11">
-        <f>'England | Specialist Advice'!B19</f>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B20" s="11">
+        <f>'Activity by month'!B19</f>
         <v>44743</v>
       </c>
-      <c r="F20" s="13">
-        <f>'England | Specialist Advice'!C19/$V20</f>
-        <v>0</v>
-      </c>
+      <c r="C20" s="13">
+        <f>'Activity by month'!C19/$S20</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="13">
+        <f>'Activity by month'!D19/$S20</f>
+        <v>0</v>
+      </c>
+      <c r="E20" s="13">
+        <f>'Activity by month'!E19/$S20</f>
+        <v>0</v>
+      </c>
+      <c r="F20" s="1"/>
       <c r="G20" s="13">
-        <f>'England | Specialist Advice'!D19/$V20</f>
+        <f>'Activity by month'!G19/$S20</f>
         <v>0</v>
       </c>
       <c r="H20" s="13">
-        <f>'England | Specialist Advice'!E19/$V20</f>
-        <v>0</v>
-      </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="13">
-        <f>'England | Specialist Advice'!G19/$V20</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!H19/$S20</f>
+        <v>0</v>
+      </c>
+      <c r="I20" s="13">
+        <f>'Activity by month'!I19/$S20</f>
+        <v>0</v>
+      </c>
+      <c r="J20" s="1"/>
       <c r="K20" s="13">
-        <f>'England | Specialist Advice'!H19/$V20</f>
+        <f>'Activity by month'!K19/$S20</f>
         <v>0</v>
       </c>
       <c r="L20" s="13">
-        <f>'England | Specialist Advice'!I19/$V20</f>
-        <v>0</v>
-      </c>
-      <c r="M20" s="1"/>
-      <c r="N20" s="13">
-        <f>'England | Specialist Advice'!K19/$V20</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!L19/$S20</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="13">
+        <f>'Activity by month'!M19/$S20</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="1"/>
       <c r="O20" s="13">
-        <f>'England | Specialist Advice'!L19/$V20</f>
+        <f>'Activity by month'!O19/$S20</f>
         <v>0</v>
       </c>
       <c r="P20" s="13">
-        <f>'England | Specialist Advice'!M19/$V20</f>
-        <v>0</v>
-      </c>
-      <c r="Q20" s="1"/>
-      <c r="R20" s="13">
-        <f>'England | Specialist Advice'!O19/$V20</f>
-        <v>0</v>
-      </c>
-      <c r="S20" s="13">
-        <f>'England | Specialist Advice'!P19/$V20</f>
-        <v>0</v>
-      </c>
-      <c r="T20" s="13">
-        <f>'England | Specialist Advice'!Q19/$V20</f>
-        <v>0</v>
-      </c>
-      <c r="U20" s="12"/>
-      <c r="V20" s="27">
+        <f>'Activity by month'!P19/$S20</f>
+        <v>0</v>
+      </c>
+      <c r="Q20" s="13">
+        <f>'Activity by month'!Q19/$S20</f>
+        <v>0</v>
+      </c>
+      <c r="R20" s="12"/>
+      <c r="S20" s="27">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E21" s="11">
-        <f>'England | Specialist Advice'!B20</f>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B21" s="11">
+        <f>'Activity by month'!B20</f>
         <v>44774</v>
       </c>
-      <c r="F21" s="13">
-        <f>'England | Specialist Advice'!C20/$V21</f>
-        <v>0</v>
-      </c>
+      <c r="C21" s="13">
+        <f>'Activity by month'!C20/$S21</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="13">
+        <f>'Activity by month'!D20/$S21</f>
+        <v>0</v>
+      </c>
+      <c r="E21" s="13">
+        <f>'Activity by month'!E20/$S21</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="1"/>
       <c r="G21" s="13">
-        <f>'England | Specialist Advice'!D20/$V21</f>
+        <f>'Activity by month'!G20/$S21</f>
         <v>0</v>
       </c>
       <c r="H21" s="13">
-        <f>'England | Specialist Advice'!E20/$V21</f>
-        <v>0</v>
-      </c>
-      <c r="I21" s="1"/>
-      <c r="J21" s="13">
-        <f>'England | Specialist Advice'!G20/$V21</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!H20/$S21</f>
+        <v>0</v>
+      </c>
+      <c r="I21" s="13">
+        <f>'Activity by month'!I20/$S21</f>
+        <v>0</v>
+      </c>
+      <c r="J21" s="1"/>
       <c r="K21" s="13">
-        <f>'England | Specialist Advice'!H20/$V21</f>
+        <f>'Activity by month'!K20/$S21</f>
         <v>0</v>
       </c>
       <c r="L21" s="13">
-        <f>'England | Specialist Advice'!I20/$V21</f>
-        <v>0</v>
-      </c>
-      <c r="M21" s="1"/>
-      <c r="N21" s="13">
-        <f>'England | Specialist Advice'!K20/$V21</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!L20/$S21</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="13">
+        <f>'Activity by month'!M20/$S21</f>
+        <v>0</v>
+      </c>
+      <c r="N21" s="1"/>
       <c r="O21" s="13">
-        <f>'England | Specialist Advice'!L20/$V21</f>
+        <f>'Activity by month'!O20/$S21</f>
         <v>0</v>
       </c>
       <c r="P21" s="13">
-        <f>'England | Specialist Advice'!M20/$V21</f>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="1"/>
-      <c r="R21" s="13">
-        <f>'England | Specialist Advice'!O20/$V21</f>
-        <v>0</v>
-      </c>
-      <c r="S21" s="13">
-        <f>'England | Specialist Advice'!P20/$V21</f>
-        <v>0</v>
-      </c>
-      <c r="T21" s="13">
-        <f>'England | Specialist Advice'!Q20/$V21</f>
-        <v>0</v>
-      </c>
-      <c r="U21" s="12"/>
-      <c r="V21" s="27">
+        <f>'Activity by month'!P20/$S21</f>
+        <v>0</v>
+      </c>
+      <c r="Q21" s="13">
+        <f>'Activity by month'!Q20/$S21</f>
+        <v>0</v>
+      </c>
+      <c r="R21" s="12"/>
+      <c r="S21" s="27">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E22" s="11">
-        <f>'England | Specialist Advice'!B21</f>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B22" s="11">
+        <f>'Activity by month'!B21</f>
         <v>44805</v>
       </c>
-      <c r="F22" s="13">
-        <f>'England | Specialist Advice'!C21/$V22</f>
-        <v>0</v>
-      </c>
+      <c r="C22" s="13">
+        <f>'Activity by month'!C21/$S22</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="13">
+        <f>'Activity by month'!D21/$S22</f>
+        <v>0</v>
+      </c>
+      <c r="E22" s="13">
+        <f>'Activity by month'!E21/$S22</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="1"/>
       <c r="G22" s="13">
-        <f>'England | Specialist Advice'!D21/$V22</f>
+        <f>'Activity by month'!G21/$S22</f>
         <v>0</v>
       </c>
       <c r="H22" s="13">
-        <f>'England | Specialist Advice'!E21/$V22</f>
-        <v>0</v>
-      </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="13">
-        <f>'England | Specialist Advice'!G21/$V22</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!H21/$S22</f>
+        <v>0</v>
+      </c>
+      <c r="I22" s="13">
+        <f>'Activity by month'!I21/$S22</f>
+        <v>0</v>
+      </c>
+      <c r="J22" s="1"/>
       <c r="K22" s="13">
-        <f>'England | Specialist Advice'!H21/$V22</f>
+        <f>'Activity by month'!K21/$S22</f>
         <v>0</v>
       </c>
       <c r="L22" s="13">
-        <f>'England | Specialist Advice'!I21/$V22</f>
-        <v>0</v>
-      </c>
-      <c r="M22" s="1"/>
-      <c r="N22" s="13">
-        <f>'England | Specialist Advice'!K21/$V22</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!L21/$S22</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="13">
+        <f>'Activity by month'!M21/$S22</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="1"/>
       <c r="O22" s="13">
-        <f>'England | Specialist Advice'!L21/$V22</f>
+        <f>'Activity by month'!O21/$S22</f>
         <v>0</v>
       </c>
       <c r="P22" s="13">
-        <f>'England | Specialist Advice'!M21/$V22</f>
-        <v>0</v>
-      </c>
-      <c r="Q22" s="1"/>
-      <c r="R22" s="13">
-        <f>'England | Specialist Advice'!O21/$V22</f>
-        <v>0</v>
-      </c>
-      <c r="S22" s="13">
-        <f>'England | Specialist Advice'!P21/$V22</f>
-        <v>0</v>
-      </c>
-      <c r="T22" s="13">
-        <f>'England | Specialist Advice'!Q21/$V22</f>
-        <v>0</v>
-      </c>
-      <c r="U22" s="15"/>
-      <c r="V22" s="27">
+        <f>'Activity by month'!P21/$S22</f>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="13">
+        <f>'Activity by month'!Q21/$S22</f>
+        <v>0</v>
+      </c>
+      <c r="R22" s="15"/>
+      <c r="S22" s="27">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E23" s="11">
-        <f>'England | Specialist Advice'!B22</f>
+    <row r="23" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B23" s="11">
+        <f>'Activity by month'!B22</f>
         <v>44835</v>
       </c>
-      <c r="F23" s="13">
-        <f>'England | Specialist Advice'!C22/$V23</f>
-        <v>0</v>
-      </c>
+      <c r="C23" s="13">
+        <f>'Activity by month'!C22/$S23</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="13">
+        <f>'Activity by month'!D22/$S23</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="13">
+        <f>'Activity by month'!E22/$S23</f>
+        <v>0</v>
+      </c>
+      <c r="F23" s="1"/>
       <c r="G23" s="13">
-        <f>'England | Specialist Advice'!D22/$V23</f>
+        <f>'Activity by month'!G22/$S23</f>
         <v>0</v>
       </c>
       <c r="H23" s="13">
-        <f>'England | Specialist Advice'!E22/$V23</f>
-        <v>0</v>
-      </c>
-      <c r="I23" s="1"/>
-      <c r="J23" s="13">
-        <f>'England | Specialist Advice'!G22/$V23</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!H22/$S23</f>
+        <v>0</v>
+      </c>
+      <c r="I23" s="13">
+        <f>'Activity by month'!I22/$S23</f>
+        <v>0</v>
+      </c>
+      <c r="J23" s="1"/>
       <c r="K23" s="13">
-        <f>'England | Specialist Advice'!H22/$V23</f>
+        <f>'Activity by month'!K22/$S23</f>
         <v>0</v>
       </c>
       <c r="L23" s="13">
-        <f>'England | Specialist Advice'!I22/$V23</f>
-        <v>0</v>
-      </c>
-      <c r="M23" s="1"/>
-      <c r="N23" s="13">
-        <f>'England | Specialist Advice'!K22/$V23</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!L22/$S23</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="13">
+        <f>'Activity by month'!M22/$S23</f>
+        <v>0</v>
+      </c>
+      <c r="N23" s="1"/>
       <c r="O23" s="13">
-        <f>'England | Specialist Advice'!L22/$V23</f>
+        <f>'Activity by month'!O22/$S23</f>
         <v>0</v>
       </c>
       <c r="P23" s="13">
-        <f>'England | Specialist Advice'!M22/$V23</f>
-        <v>0</v>
-      </c>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="13">
-        <f>'England | Specialist Advice'!O22/$V23</f>
-        <v>0</v>
-      </c>
-      <c r="S23" s="13">
-        <f>'England | Specialist Advice'!P22/$V23</f>
-        <v>0</v>
-      </c>
-      <c r="T23" s="13">
-        <f>'England | Specialist Advice'!Q22/$V23</f>
-        <v>0</v>
-      </c>
-      <c r="U23" s="15"/>
-      <c r="V23" s="27">
+        <f>'Activity by month'!P22/$S23</f>
+        <v>0</v>
+      </c>
+      <c r="Q23" s="13">
+        <f>'Activity by month'!Q22/$S23</f>
+        <v>0</v>
+      </c>
+      <c r="R23" s="15"/>
+      <c r="S23" s="27">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E24" s="11">
-        <f>'England | Specialist Advice'!B23</f>
+    <row r="24" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B24" s="11">
+        <f>'Activity by month'!B23</f>
         <v>44866</v>
       </c>
-      <c r="F24" s="13">
-        <f>'England | Specialist Advice'!C23/$V24</f>
-        <v>0</v>
-      </c>
+      <c r="C24" s="13">
+        <f>'Activity by month'!C23/$S24</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="13">
+        <f>'Activity by month'!D23/$S24</f>
+        <v>0</v>
+      </c>
+      <c r="E24" s="13">
+        <f>'Activity by month'!E23/$S24</f>
+        <v>0</v>
+      </c>
+      <c r="F24" s="1"/>
       <c r="G24" s="13">
-        <f>'England | Specialist Advice'!D23/$V24</f>
+        <f>'Activity by month'!G23/$S24</f>
         <v>0</v>
       </c>
       <c r="H24" s="13">
-        <f>'England | Specialist Advice'!E23/$V24</f>
-        <v>0</v>
-      </c>
-      <c r="I24" s="1"/>
-      <c r="J24" s="13">
-        <f>'England | Specialist Advice'!G23/$V24</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!H23/$S24</f>
+        <v>0</v>
+      </c>
+      <c r="I24" s="13">
+        <f>'Activity by month'!I23/$S24</f>
+        <v>0</v>
+      </c>
+      <c r="J24" s="1"/>
       <c r="K24" s="13">
-        <f>'England | Specialist Advice'!H23/$V24</f>
+        <f>'Activity by month'!K23/$S24</f>
         <v>0</v>
       </c>
       <c r="L24" s="13">
-        <f>'England | Specialist Advice'!I23/$V24</f>
-        <v>0</v>
-      </c>
-      <c r="M24" s="1"/>
-      <c r="N24" s="13">
-        <f>'England | Specialist Advice'!K23/$V24</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!L23/$S24</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="13">
+        <f>'Activity by month'!M23/$S24</f>
+        <v>0</v>
+      </c>
+      <c r="N24" s="1"/>
       <c r="O24" s="13">
-        <f>'England | Specialist Advice'!L23/$V24</f>
+        <f>'Activity by month'!O23/$S24</f>
         <v>0</v>
       </c>
       <c r="P24" s="13">
-        <f>'England | Specialist Advice'!M23/$V24</f>
-        <v>0</v>
-      </c>
-      <c r="Q24" s="1"/>
-      <c r="R24" s="13">
-        <f>'England | Specialist Advice'!O23/$V24</f>
-        <v>0</v>
-      </c>
-      <c r="S24" s="13">
-        <f>'England | Specialist Advice'!P23/$V24</f>
-        <v>0</v>
-      </c>
-      <c r="T24" s="13">
-        <f>'England | Specialist Advice'!Q23/$V24</f>
-        <v>0</v>
-      </c>
-      <c r="U24" s="15"/>
-      <c r="V24" s="27">
+        <f>'Activity by month'!P23/$S24</f>
+        <v>0</v>
+      </c>
+      <c r="Q24" s="13">
+        <f>'Activity by month'!Q23/$S24</f>
+        <v>0</v>
+      </c>
+      <c r="R24" s="15"/>
+      <c r="S24" s="27">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E25" s="11">
-        <f>'England | Specialist Advice'!B24</f>
+    <row r="25" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B25" s="11">
+        <f>'Activity by month'!B24</f>
         <v>44896</v>
       </c>
-      <c r="F25" s="13">
-        <f>'England | Specialist Advice'!C24/$V25</f>
-        <v>0</v>
-      </c>
+      <c r="C25" s="13">
+        <f>'Activity by month'!C24/$S25</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="13">
+        <f>'Activity by month'!D24/$S25</f>
+        <v>0</v>
+      </c>
+      <c r="E25" s="13">
+        <f>'Activity by month'!E24/$S25</f>
+        <v>0</v>
+      </c>
+      <c r="F25" s="1"/>
       <c r="G25" s="13">
-        <f>'England | Specialist Advice'!D24/$V25</f>
+        <f>'Activity by month'!G24/$S25</f>
         <v>0</v>
       </c>
       <c r="H25" s="13">
-        <f>'England | Specialist Advice'!E24/$V25</f>
-        <v>0</v>
-      </c>
-      <c r="I25" s="1"/>
-      <c r="J25" s="13">
-        <f>'England | Specialist Advice'!G24/$V25</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!H24/$S25</f>
+        <v>0</v>
+      </c>
+      <c r="I25" s="13">
+        <f>'Activity by month'!I24/$S25</f>
+        <v>0</v>
+      </c>
+      <c r="J25" s="1"/>
       <c r="K25" s="13">
-        <f>'England | Specialist Advice'!H24/$V25</f>
+        <f>'Activity by month'!K24/$S25</f>
         <v>0</v>
       </c>
       <c r="L25" s="13">
-        <f>'England | Specialist Advice'!I24/$V25</f>
-        <v>0</v>
-      </c>
-      <c r="M25" s="1"/>
-      <c r="N25" s="13">
-        <f>'England | Specialist Advice'!K24/$V25</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!L24/$S25</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="13">
+        <f>'Activity by month'!M24/$S25</f>
+        <v>0</v>
+      </c>
+      <c r="N25" s="1"/>
       <c r="O25" s="13">
-        <f>'England | Specialist Advice'!L24/$V25</f>
+        <f>'Activity by month'!O24/$S25</f>
         <v>0</v>
       </c>
       <c r="P25" s="13">
-        <f>'England | Specialist Advice'!M24/$V25</f>
-        <v>0</v>
-      </c>
-      <c r="Q25" s="1"/>
-      <c r="R25" s="13">
-        <f>'England | Specialist Advice'!O24/$V25</f>
-        <v>0</v>
-      </c>
-      <c r="S25" s="13">
-        <f>'England | Specialist Advice'!P24/$V25</f>
-        <v>0</v>
-      </c>
-      <c r="T25" s="13">
-        <f>'England | Specialist Advice'!Q24/$V25</f>
-        <v>0</v>
-      </c>
-      <c r="U25" s="15"/>
-      <c r="V25" s="27">
+        <f>'Activity by month'!P24/$S25</f>
+        <v>0</v>
+      </c>
+      <c r="Q25" s="13">
+        <f>'Activity by month'!Q24/$S25</f>
+        <v>0</v>
+      </c>
+      <c r="R25" s="15"/>
+      <c r="S25" s="27">
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E26" s="11">
-        <f>'England | Specialist Advice'!B25</f>
+    <row r="26" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B26" s="11">
+        <f>'Activity by month'!B25</f>
         <v>44927</v>
       </c>
-      <c r="F26" s="13">
-        <f>'England | Specialist Advice'!C25/$V26</f>
-        <v>0</v>
-      </c>
+      <c r="C26" s="13">
+        <f>'Activity by month'!C25/$S26</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="13">
+        <f>'Activity by month'!D25/$S26</f>
+        <v>0</v>
+      </c>
+      <c r="E26" s="13">
+        <f>'Activity by month'!E25/$S26</f>
+        <v>0</v>
+      </c>
+      <c r="F26" s="1"/>
       <c r="G26" s="13">
-        <f>'England | Specialist Advice'!D25/$V26</f>
+        <f>'Activity by month'!G25/$S26</f>
         <v>0</v>
       </c>
       <c r="H26" s="13">
-        <f>'England | Specialist Advice'!E25/$V26</f>
-        <v>0</v>
-      </c>
-      <c r="I26" s="1"/>
-      <c r="J26" s="13">
-        <f>'England | Specialist Advice'!G25/$V26</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!H25/$S26</f>
+        <v>0</v>
+      </c>
+      <c r="I26" s="13">
+        <f>'Activity by month'!I25/$S26</f>
+        <v>0</v>
+      </c>
+      <c r="J26" s="1"/>
       <c r="K26" s="13">
-        <f>'England | Specialist Advice'!H25/$V26</f>
+        <f>'Activity by month'!K25/$S26</f>
         <v>0</v>
       </c>
       <c r="L26" s="13">
-        <f>'England | Specialist Advice'!I25/$V26</f>
-        <v>0</v>
-      </c>
-      <c r="M26" s="1"/>
-      <c r="N26" s="13">
-        <f>'England | Specialist Advice'!K25/$V26</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!L25/$S26</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="13">
+        <f>'Activity by month'!M25/$S26</f>
+        <v>0</v>
+      </c>
+      <c r="N26" s="1"/>
       <c r="O26" s="13">
-        <f>'England | Specialist Advice'!L25/$V26</f>
+        <f>'Activity by month'!O25/$S26</f>
         <v>0</v>
       </c>
       <c r="P26" s="13">
-        <f>'England | Specialist Advice'!M25/$V26</f>
-        <v>0</v>
-      </c>
-      <c r="Q26" s="1"/>
-      <c r="R26" s="13">
-        <f>'England | Specialist Advice'!O25/$V26</f>
-        <v>0</v>
-      </c>
-      <c r="S26" s="13">
-        <f>'England | Specialist Advice'!P25/$V26</f>
-        <v>0</v>
-      </c>
-      <c r="T26" s="13">
-        <f>'England | Specialist Advice'!Q25/$V26</f>
-        <v>0</v>
-      </c>
-      <c r="U26" s="15"/>
-      <c r="V26" s="27">
+        <f>'Activity by month'!P25/$S26</f>
+        <v>0</v>
+      </c>
+      <c r="Q26" s="13">
+        <f>'Activity by month'!Q25/$S26</f>
+        <v>0</v>
+      </c>
+      <c r="R26" s="15"/>
+      <c r="S26" s="27">
         <v>21</v>
       </c>
     </row>
-    <row r="27" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E27" s="11">
-        <f>'England | Specialist Advice'!B26</f>
+    <row r="27" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B27" s="11">
+        <f>'Activity by month'!B26</f>
         <v>44958</v>
       </c>
-      <c r="F27" s="13">
-        <f>'England | Specialist Advice'!C26/$V27</f>
-        <v>0</v>
-      </c>
+      <c r="C27" s="13">
+        <f>'Activity by month'!C26/$S27</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="13">
+        <f>'Activity by month'!D26/$S27</f>
+        <v>0</v>
+      </c>
+      <c r="E27" s="13">
+        <f>'Activity by month'!E26/$S27</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="1"/>
       <c r="G27" s="13">
-        <f>'England | Specialist Advice'!D26/$V27</f>
+        <f>'Activity by month'!G26/$S27</f>
         <v>0</v>
       </c>
       <c r="H27" s="13">
-        <f>'England | Specialist Advice'!E26/$V27</f>
-        <v>0</v>
-      </c>
-      <c r="I27" s="1"/>
-      <c r="J27" s="13">
-        <f>'England | Specialist Advice'!G26/$V27</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!H26/$S27</f>
+        <v>0</v>
+      </c>
+      <c r="I27" s="13">
+        <f>'Activity by month'!I26/$S27</f>
+        <v>0</v>
+      </c>
+      <c r="J27" s="1"/>
       <c r="K27" s="13">
-        <f>'England | Specialist Advice'!H26/$V27</f>
+        <f>'Activity by month'!K26/$S27</f>
         <v>0</v>
       </c>
       <c r="L27" s="13">
-        <f>'England | Specialist Advice'!I26/$V27</f>
-        <v>0</v>
-      </c>
-      <c r="M27" s="1"/>
-      <c r="N27" s="13">
-        <f>'England | Specialist Advice'!K26/$V27</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!L26/$S27</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="13">
+        <f>'Activity by month'!M26/$S27</f>
+        <v>0</v>
+      </c>
+      <c r="N27" s="1"/>
       <c r="O27" s="13">
-        <f>'England | Specialist Advice'!L26/$V27</f>
+        <f>'Activity by month'!O26/$S27</f>
         <v>0</v>
       </c>
       <c r="P27" s="13">
-        <f>'England | Specialist Advice'!M26/$V27</f>
-        <v>0</v>
-      </c>
-      <c r="Q27" s="1"/>
-      <c r="R27" s="13">
-        <f>'England | Specialist Advice'!O26/$V27</f>
-        <v>0</v>
-      </c>
-      <c r="S27" s="13">
-        <f>'England | Specialist Advice'!P26/$V27</f>
-        <v>0</v>
-      </c>
-      <c r="T27" s="13">
-        <f>'England | Specialist Advice'!Q26/$V27</f>
-        <v>0</v>
-      </c>
-      <c r="U27" s="15"/>
-      <c r="V27" s="27">
+        <f>'Activity by month'!P26/$S27</f>
+        <v>0</v>
+      </c>
+      <c r="Q27" s="13">
+        <f>'Activity by month'!Q26/$S27</f>
+        <v>0</v>
+      </c>
+      <c r="R27" s="15"/>
+      <c r="S27" s="27">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E28" s="11">
-        <f>'England | Specialist Advice'!B27</f>
+    <row r="28" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B28" s="11">
+        <f>'Activity by month'!B27</f>
         <v>44986</v>
       </c>
-      <c r="F28" s="13">
-        <f>'England | Specialist Advice'!C27/$V28</f>
-        <v>0</v>
-      </c>
+      <c r="C28" s="13">
+        <f>'Activity by month'!C27/$S28</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="13">
+        <f>'Activity by month'!D27/$S28</f>
+        <v>0</v>
+      </c>
+      <c r="E28" s="13">
+        <f>'Activity by month'!E27/$S28</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="1"/>
       <c r="G28" s="13">
-        <f>'England | Specialist Advice'!D27/$V28</f>
+        <f>'Activity by month'!G27/$S28</f>
         <v>0</v>
       </c>
       <c r="H28" s="13">
-        <f>'England | Specialist Advice'!E27/$V28</f>
-        <v>0</v>
-      </c>
-      <c r="I28" s="1"/>
-      <c r="J28" s="13">
-        <f>'England | Specialist Advice'!G27/$V28</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!H27/$S28</f>
+        <v>0</v>
+      </c>
+      <c r="I28" s="13">
+        <f>'Activity by month'!I27/$S28</f>
+        <v>0</v>
+      </c>
+      <c r="J28" s="1"/>
       <c r="K28" s="13">
-        <f>'England | Specialist Advice'!H27/$V28</f>
+        <f>'Activity by month'!K27/$S28</f>
         <v>0</v>
       </c>
       <c r="L28" s="13">
-        <f>'England | Specialist Advice'!I27/$V28</f>
-        <v>0</v>
-      </c>
-      <c r="M28" s="1"/>
-      <c r="N28" s="13">
-        <f>'England | Specialist Advice'!K27/$V28</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!L27/$S28</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="13">
+        <f>'Activity by month'!M27/$S28</f>
+        <v>0</v>
+      </c>
+      <c r="N28" s="1"/>
       <c r="O28" s="13">
-        <f>'England | Specialist Advice'!L27/$V28</f>
+        <f>'Activity by month'!O27/$S28</f>
         <v>0</v>
       </c>
       <c r="P28" s="13">
-        <f>'England | Specialist Advice'!M27/$V28</f>
-        <v>0</v>
-      </c>
-      <c r="Q28" s="1"/>
-      <c r="R28" s="13">
-        <f>'England | Specialist Advice'!O27/$V28</f>
-        <v>0</v>
-      </c>
-      <c r="S28" s="13">
-        <f>'England | Specialist Advice'!P27/$V28</f>
-        <v>0</v>
-      </c>
-      <c r="T28" s="13">
-        <f>'England | Specialist Advice'!Q27/$V28</f>
-        <v>0</v>
-      </c>
-      <c r="U28" s="15"/>
-      <c r="V28" s="27">
+        <f>'Activity by month'!P27/$S28</f>
+        <v>0</v>
+      </c>
+      <c r="Q28" s="13">
+        <f>'Activity by month'!Q27/$S28</f>
+        <v>0</v>
+      </c>
+      <c r="R28" s="15"/>
+      <c r="S28" s="27">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E29" s="11">
-        <f>'England | Specialist Advice'!B28</f>
+    <row r="29" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B29" s="11">
+        <f>'Activity by month'!B28</f>
         <v>45017</v>
       </c>
-      <c r="F29" s="13">
-        <f>'England | Specialist Advice'!C28/$V29</f>
-        <v>0</v>
-      </c>
+      <c r="C29" s="13">
+        <f>'Activity by month'!C28/$S29</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="13">
+        <f>'Activity by month'!D28/$S29</f>
+        <v>0</v>
+      </c>
+      <c r="E29" s="13">
+        <f>'Activity by month'!E28/$S29</f>
+        <v>0</v>
+      </c>
+      <c r="F29" s="1"/>
       <c r="G29" s="13">
-        <f>'England | Specialist Advice'!D28/$V29</f>
+        <f>'Activity by month'!G28/$S29</f>
         <v>0</v>
       </c>
       <c r="H29" s="13">
-        <f>'England | Specialist Advice'!E28/$V29</f>
-        <v>0</v>
-      </c>
-      <c r="I29" s="1"/>
-      <c r="J29" s="13">
-        <f>'England | Specialist Advice'!G28/$V29</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!H28/$S29</f>
+        <v>0</v>
+      </c>
+      <c r="I29" s="13">
+        <f>'Activity by month'!I28/$S29</f>
+        <v>0</v>
+      </c>
+      <c r="J29" s="1"/>
       <c r="K29" s="13">
-        <f>'England | Specialist Advice'!H28/$V29</f>
+        <f>'Activity by month'!K28/$S29</f>
         <v>0</v>
       </c>
       <c r="L29" s="13">
-        <f>'England | Specialist Advice'!I28/$V29</f>
-        <v>0</v>
-      </c>
-      <c r="M29" s="1"/>
-      <c r="N29" s="13">
-        <f>'England | Specialist Advice'!K28/$V29</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!L28/$S29</f>
+        <v>0</v>
+      </c>
+      <c r="M29" s="13">
+        <f>'Activity by month'!M28/$S29</f>
+        <v>0</v>
+      </c>
+      <c r="N29" s="1"/>
       <c r="O29" s="13">
-        <f>'England | Specialist Advice'!L28/$V29</f>
+        <f>'Activity by month'!O28/$S29</f>
         <v>0</v>
       </c>
       <c r="P29" s="13">
-        <f>'England | Specialist Advice'!M28/$V29</f>
-        <v>0</v>
-      </c>
-      <c r="Q29" s="1"/>
-      <c r="R29" s="13">
-        <f>'England | Specialist Advice'!O28/$V29</f>
-        <v>0</v>
-      </c>
-      <c r="S29" s="13">
-        <f>'England | Specialist Advice'!P28/$V29</f>
-        <v>0</v>
-      </c>
-      <c r="T29" s="13">
-        <f>'England | Specialist Advice'!Q28/$V29</f>
-        <v>0</v>
-      </c>
-      <c r="U29" s="15"/>
-      <c r="V29" s="27">
+        <f>'Activity by month'!P28/$S29</f>
+        <v>0</v>
+      </c>
+      <c r="Q29" s="13">
+        <f>'Activity by month'!Q28/$S29</f>
+        <v>0</v>
+      </c>
+      <c r="R29" s="15"/>
+      <c r="S29" s="27">
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E30" s="11">
-        <f>'England | Specialist Advice'!B29</f>
+    <row r="30" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B30" s="11">
+        <f>'Activity by month'!B29</f>
         <v>45047</v>
       </c>
-      <c r="F30" s="13">
-        <f>'England | Specialist Advice'!C29/$V30</f>
-        <v>0</v>
-      </c>
+      <c r="C30" s="13">
+        <f>'Activity by month'!C29/$S30</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="13">
+        <f>'Activity by month'!D29/$S30</f>
+        <v>0</v>
+      </c>
+      <c r="E30" s="13">
+        <f>'Activity by month'!E29/$S30</f>
+        <v>0</v>
+      </c>
+      <c r="F30" s="1"/>
       <c r="G30" s="13">
-        <f>'England | Specialist Advice'!D29/$V30</f>
+        <f>'Activity by month'!G29/$S30</f>
         <v>0</v>
       </c>
       <c r="H30" s="13">
-        <f>'England | Specialist Advice'!E29/$V30</f>
-        <v>0</v>
-      </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="13">
-        <f>'England | Specialist Advice'!G29/$V30</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!H29/$S30</f>
+        <v>0</v>
+      </c>
+      <c r="I30" s="13">
+        <f>'Activity by month'!I29/$S30</f>
+        <v>0</v>
+      </c>
+      <c r="J30" s="1"/>
       <c r="K30" s="13">
-        <f>'England | Specialist Advice'!H29/$V30</f>
+        <f>'Activity by month'!K29/$S30</f>
         <v>0</v>
       </c>
       <c r="L30" s="13">
-        <f>'England | Specialist Advice'!I29/$V30</f>
-        <v>0</v>
-      </c>
-      <c r="M30" s="1"/>
-      <c r="N30" s="13">
-        <f>'England | Specialist Advice'!K29/$V30</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!L29/$S30</f>
+        <v>0</v>
+      </c>
+      <c r="M30" s="13">
+        <f>'Activity by month'!M29/$S30</f>
+        <v>0</v>
+      </c>
+      <c r="N30" s="1"/>
       <c r="O30" s="13">
-        <f>'England | Specialist Advice'!L29/$V30</f>
+        <f>'Activity by month'!O29/$S30</f>
         <v>0</v>
       </c>
       <c r="P30" s="13">
-        <f>'England | Specialist Advice'!M29/$V30</f>
-        <v>0</v>
-      </c>
-      <c r="Q30" s="1"/>
-      <c r="R30" s="13">
-        <f>'England | Specialist Advice'!O29/$V30</f>
-        <v>0</v>
-      </c>
-      <c r="S30" s="13">
-        <f>'England | Specialist Advice'!P29/$V30</f>
-        <v>0</v>
-      </c>
-      <c r="T30" s="13">
-        <f>'England | Specialist Advice'!Q29/$V30</f>
-        <v>0</v>
-      </c>
-      <c r="U30" s="15"/>
-      <c r="V30" s="27">
+        <f>'Activity by month'!P29/$S30</f>
+        <v>0</v>
+      </c>
+      <c r="Q30" s="13">
+        <f>'Activity by month'!Q29/$S30</f>
+        <v>0</v>
+      </c>
+      <c r="R30" s="15"/>
+      <c r="S30" s="27">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E31" s="11">
-        <f>'England | Specialist Advice'!B30</f>
+    <row r="31" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B31" s="11">
+        <f>'Activity by month'!B30</f>
         <v>45078</v>
       </c>
-      <c r="F31" s="13">
-        <f>'England | Specialist Advice'!C30/$V31</f>
-        <v>0</v>
-      </c>
+      <c r="C31" s="13">
+        <f>'Activity by month'!C30/$S31</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="13">
+        <f>'Activity by month'!D30/$S31</f>
+        <v>0</v>
+      </c>
+      <c r="E31" s="13">
+        <f>'Activity by month'!E30/$S31</f>
+        <v>0</v>
+      </c>
+      <c r="F31" s="1"/>
       <c r="G31" s="13">
-        <f>'England | Specialist Advice'!D30/$V31</f>
+        <f>'Activity by month'!G30/$S31</f>
         <v>0</v>
       </c>
       <c r="H31" s="13">
-        <f>'England | Specialist Advice'!E30/$V31</f>
-        <v>0</v>
-      </c>
-      <c r="I31" s="1"/>
-      <c r="J31" s="13">
-        <f>'England | Specialist Advice'!G30/$V31</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!H30/$S31</f>
+        <v>0</v>
+      </c>
+      <c r="I31" s="13">
+        <f>'Activity by month'!I30/$S31</f>
+        <v>0</v>
+      </c>
+      <c r="J31" s="1"/>
       <c r="K31" s="13">
-        <f>'England | Specialist Advice'!H30/$V31</f>
+        <f>'Activity by month'!K30/$S31</f>
         <v>0</v>
       </c>
       <c r="L31" s="13">
-        <f>'England | Specialist Advice'!I30/$V31</f>
-        <v>0</v>
-      </c>
-      <c r="M31" s="1"/>
-      <c r="N31" s="13">
-        <f>'England | Specialist Advice'!K30/$V31</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!L30/$S31</f>
+        <v>0</v>
+      </c>
+      <c r="M31" s="13">
+        <f>'Activity by month'!M30/$S31</f>
+        <v>0</v>
+      </c>
+      <c r="N31" s="1"/>
       <c r="O31" s="13">
-        <f>'England | Specialist Advice'!L30/$V31</f>
+        <f>'Activity by month'!O30/$S31</f>
         <v>0</v>
       </c>
       <c r="P31" s="13">
-        <f>'England | Specialist Advice'!M30/$V31</f>
-        <v>0</v>
-      </c>
-      <c r="Q31" s="1"/>
-      <c r="R31" s="13">
-        <f>'England | Specialist Advice'!O30/$V31</f>
-        <v>0</v>
-      </c>
-      <c r="S31" s="13">
-        <f>'England | Specialist Advice'!P30/$V31</f>
-        <v>0</v>
-      </c>
-      <c r="T31" s="13">
-        <f>'England | Specialist Advice'!Q30/$V31</f>
-        <v>0</v>
-      </c>
-      <c r="U31" s="15"/>
-      <c r="V31" s="27">
+        <f>'Activity by month'!P30/$S31</f>
+        <v>0</v>
+      </c>
+      <c r="Q31" s="13">
+        <f>'Activity by month'!Q30/$S31</f>
+        <v>0</v>
+      </c>
+      <c r="R31" s="15"/>
+      <c r="S31" s="27">
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E32" s="11">
-        <f>'England | Specialist Advice'!B31</f>
+    <row r="32" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B32" s="11">
+        <f>'Activity by month'!B31</f>
         <v>45108</v>
       </c>
-      <c r="F32" s="13">
-        <f>'England | Specialist Advice'!C31/$V32</f>
-        <v>0</v>
-      </c>
+      <c r="C32" s="13">
+        <f>'Activity by month'!C31/$S32</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="13">
+        <f>'Activity by month'!D31/$S32</f>
+        <v>0</v>
+      </c>
+      <c r="E32" s="13">
+        <f>'Activity by month'!E31/$S32</f>
+        <v>0</v>
+      </c>
+      <c r="F32" s="1"/>
       <c r="G32" s="13">
-        <f>'England | Specialist Advice'!D31/$V32</f>
+        <f>'Activity by month'!G31/$S32</f>
         <v>0</v>
       </c>
       <c r="H32" s="13">
-        <f>'England | Specialist Advice'!E31/$V32</f>
-        <v>0</v>
-      </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="13">
-        <f>'England | Specialist Advice'!G31/$V32</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!H31/$S32</f>
+        <v>0</v>
+      </c>
+      <c r="I32" s="13">
+        <f>'Activity by month'!I31/$S32</f>
+        <v>0</v>
+      </c>
+      <c r="J32" s="1"/>
       <c r="K32" s="13">
-        <f>'England | Specialist Advice'!H31/$V32</f>
+        <f>'Activity by month'!K31/$S32</f>
         <v>0</v>
       </c>
       <c r="L32" s="13">
-        <f>'England | Specialist Advice'!I31/$V32</f>
-        <v>0</v>
-      </c>
-      <c r="M32" s="1"/>
-      <c r="N32" s="13">
-        <f>'England | Specialist Advice'!K31/$V32</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!L31/$S32</f>
+        <v>0</v>
+      </c>
+      <c r="M32" s="13">
+        <f>'Activity by month'!M31/$S32</f>
+        <v>0</v>
+      </c>
+      <c r="N32" s="1"/>
       <c r="O32" s="13">
-        <f>'England | Specialist Advice'!L31/$V32</f>
+        <f>'Activity by month'!O31/$S32</f>
         <v>0</v>
       </c>
       <c r="P32" s="13">
-        <f>'England | Specialist Advice'!M31/$V32</f>
-        <v>0</v>
-      </c>
-      <c r="Q32" s="1"/>
-      <c r="R32" s="13">
-        <f>'England | Specialist Advice'!O31/$V32</f>
-        <v>0</v>
-      </c>
-      <c r="S32" s="13">
-        <f>'England | Specialist Advice'!P31/$V32</f>
-        <v>0</v>
-      </c>
-      <c r="T32" s="13">
-        <f>'England | Specialist Advice'!Q31/$V32</f>
-        <v>0</v>
-      </c>
-      <c r="U32" s="15"/>
-      <c r="V32" s="27">
+        <f>'Activity by month'!P31/$S32</f>
+        <v>0</v>
+      </c>
+      <c r="Q32" s="13">
+        <f>'Activity by month'!Q31/$S32</f>
+        <v>0</v>
+      </c>
+      <c r="R32" s="15"/>
+      <c r="S32" s="27">
         <v>21</v>
       </c>
     </row>
-    <row r="33" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E33" s="11">
-        <f>'England | Specialist Advice'!B32</f>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B33" s="11">
+        <f>'Activity by month'!B32</f>
         <v>45139</v>
       </c>
-      <c r="F33" s="13">
-        <f>'England | Specialist Advice'!C32/$V33</f>
-        <v>0</v>
-      </c>
+      <c r="C33" s="13">
+        <f>'Activity by month'!C32/$S33</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="13">
+        <f>'Activity by month'!D32/$S33</f>
+        <v>0</v>
+      </c>
+      <c r="E33" s="13">
+        <f>'Activity by month'!E32/$S33</f>
+        <v>0</v>
+      </c>
+      <c r="F33" s="1"/>
       <c r="G33" s="13">
-        <f>'England | Specialist Advice'!D32/$V33</f>
+        <f>'Activity by month'!G32/$S33</f>
         <v>0</v>
       </c>
       <c r="H33" s="13">
-        <f>'England | Specialist Advice'!E32/$V33</f>
-        <v>0</v>
-      </c>
-      <c r="I33" s="1"/>
-      <c r="J33" s="13">
-        <f>'England | Specialist Advice'!G32/$V33</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!H32/$S33</f>
+        <v>0</v>
+      </c>
+      <c r="I33" s="13">
+        <f>'Activity by month'!I32/$S33</f>
+        <v>0</v>
+      </c>
+      <c r="J33" s="1"/>
       <c r="K33" s="13">
-        <f>'England | Specialist Advice'!H32/$V33</f>
+        <f>'Activity by month'!K32/$S33</f>
         <v>0</v>
       </c>
       <c r="L33" s="13">
-        <f>'England | Specialist Advice'!I32/$V33</f>
-        <v>0</v>
-      </c>
-      <c r="M33" s="1"/>
-      <c r="N33" s="13">
-        <f>'England | Specialist Advice'!K32/$V33</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!L32/$S33</f>
+        <v>0</v>
+      </c>
+      <c r="M33" s="13">
+        <f>'Activity by month'!M32/$S33</f>
+        <v>0</v>
+      </c>
+      <c r="N33" s="1"/>
       <c r="O33" s="13">
-        <f>'England | Specialist Advice'!L32/$V33</f>
+        <f>'Activity by month'!O32/$S33</f>
         <v>0</v>
       </c>
       <c r="P33" s="13">
-        <f>'England | Specialist Advice'!M32/$V33</f>
-        <v>0</v>
-      </c>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="13">
-        <f>'England | Specialist Advice'!O32/$V33</f>
-        <v>0</v>
-      </c>
-      <c r="S33" s="13">
-        <f>'England | Specialist Advice'!P32/$V33</f>
-        <v>0</v>
-      </c>
-      <c r="T33" s="13">
-        <f>'England | Specialist Advice'!Q32/$V33</f>
-        <v>0</v>
-      </c>
-      <c r="U33" s="15"/>
-      <c r="V33" s="27">
+        <f>'Activity by month'!P32/$S33</f>
+        <v>0</v>
+      </c>
+      <c r="Q33" s="13">
+        <f>'Activity by month'!Q32/$S33</f>
+        <v>0</v>
+      </c>
+      <c r="R33" s="15"/>
+      <c r="S33" s="27">
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E34" s="11">
-        <f>'England | Specialist Advice'!B33</f>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B34" s="11">
+        <f>'Activity by month'!B33</f>
         <v>45170</v>
       </c>
-      <c r="F34" s="13">
-        <f>'England | Specialist Advice'!C33/$V34</f>
-        <v>0</v>
-      </c>
+      <c r="C34" s="13">
+        <f>'Activity by month'!C33/$S34</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="13">
+        <f>'Activity by month'!D33/$S34</f>
+        <v>0</v>
+      </c>
+      <c r="E34" s="13">
+        <f>'Activity by month'!E33/$S34</f>
+        <v>0</v>
+      </c>
+      <c r="F34" s="1"/>
       <c r="G34" s="13">
-        <f>'England | Specialist Advice'!D33/$V34</f>
+        <f>'Activity by month'!G33/$S34</f>
         <v>0</v>
       </c>
       <c r="H34" s="13">
-        <f>'England | Specialist Advice'!E33/$V34</f>
-        <v>0</v>
-      </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="13">
-        <f>'England | Specialist Advice'!G33/$V34</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!H33/$S34</f>
+        <v>0</v>
+      </c>
+      <c r="I34" s="13">
+        <f>'Activity by month'!I33/$S34</f>
+        <v>0</v>
+      </c>
+      <c r="J34" s="1"/>
       <c r="K34" s="13">
-        <f>'England | Specialist Advice'!H33/$V34</f>
+        <f>'Activity by month'!K33/$S34</f>
         <v>0</v>
       </c>
       <c r="L34" s="13">
-        <f>'England | Specialist Advice'!I33/$V34</f>
-        <v>0</v>
-      </c>
-      <c r="M34" s="1"/>
-      <c r="N34" s="13">
-        <f>'England | Specialist Advice'!K33/$V34</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!L33/$S34</f>
+        <v>0</v>
+      </c>
+      <c r="M34" s="13">
+        <f>'Activity by month'!M33/$S34</f>
+        <v>0</v>
+      </c>
+      <c r="N34" s="1"/>
       <c r="O34" s="13">
-        <f>'England | Specialist Advice'!L33/$V34</f>
+        <f>'Activity by month'!O33/$S34</f>
         <v>0</v>
       </c>
       <c r="P34" s="13">
-        <f>'England | Specialist Advice'!M33/$V34</f>
-        <v>0</v>
-      </c>
-      <c r="Q34" s="1"/>
-      <c r="R34" s="13">
-        <f>'England | Specialist Advice'!O33/$V34</f>
-        <v>0</v>
-      </c>
-      <c r="S34" s="13">
-        <f>'England | Specialist Advice'!P33/$V34</f>
-        <v>0</v>
-      </c>
-      <c r="T34" s="13">
-        <f>'England | Specialist Advice'!Q33/$V34</f>
-        <v>0</v>
-      </c>
-      <c r="U34" s="12"/>
-      <c r="V34" s="27">
+        <f>'Activity by month'!P33/$S34</f>
+        <v>0</v>
+      </c>
+      <c r="Q34" s="13">
+        <f>'Activity by month'!Q33/$S34</f>
+        <v>0</v>
+      </c>
+      <c r="R34" s="12"/>
+      <c r="S34" s="27">
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E35" s="11">
-        <f>'England | Specialist Advice'!B34</f>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B35" s="11">
+        <f>'Activity by month'!B34</f>
         <v>45200</v>
       </c>
-      <c r="F35" s="13">
-        <f>'England | Specialist Advice'!C34/$V35</f>
-        <v>0</v>
-      </c>
+      <c r="C35" s="13">
+        <f>'Activity by month'!C34/$S35</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="13">
+        <f>'Activity by month'!D34/$S35</f>
+        <v>0</v>
+      </c>
+      <c r="E35" s="13">
+        <f>'Activity by month'!E34/$S35</f>
+        <v>0</v>
+      </c>
+      <c r="F35" s="1"/>
       <c r="G35" s="13">
-        <f>'England | Specialist Advice'!D34/$V35</f>
+        <f>'Activity by month'!G34/$S35</f>
         <v>0</v>
       </c>
       <c r="H35" s="13">
-        <f>'England | Specialist Advice'!E34/$V35</f>
-        <v>0</v>
-      </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="13">
-        <f>'England | Specialist Advice'!G34/$V35</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!H34/$S35</f>
+        <v>0</v>
+      </c>
+      <c r="I35" s="13">
+        <f>'Activity by month'!I34/$S35</f>
+        <v>0</v>
+      </c>
+      <c r="J35" s="1"/>
       <c r="K35" s="13">
-        <f>'England | Specialist Advice'!H34/$V35</f>
+        <f>'Activity by month'!K34/$S35</f>
         <v>0</v>
       </c>
       <c r="L35" s="13">
-        <f>'England | Specialist Advice'!I34/$V35</f>
-        <v>0</v>
-      </c>
-      <c r="M35" s="1"/>
-      <c r="N35" s="13">
-        <f>'England | Specialist Advice'!K34/$V35</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!L34/$S35</f>
+        <v>0</v>
+      </c>
+      <c r="M35" s="13">
+        <f>'Activity by month'!M34/$S35</f>
+        <v>0</v>
+      </c>
+      <c r="N35" s="1"/>
       <c r="O35" s="13">
-        <f>'England | Specialist Advice'!L34/$V35</f>
+        <f>'Activity by month'!O34/$S35</f>
         <v>0</v>
       </c>
       <c r="P35" s="13">
-        <f>'England | Specialist Advice'!M34/$V35</f>
-        <v>0</v>
-      </c>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="13">
-        <f>'England | Specialist Advice'!O34/$V35</f>
-        <v>0</v>
-      </c>
-      <c r="S35" s="13">
-        <f>'England | Specialist Advice'!P34/$V35</f>
-        <v>0</v>
-      </c>
-      <c r="T35" s="13">
-        <f>'England | Specialist Advice'!Q34/$V35</f>
-        <v>0</v>
-      </c>
-      <c r="U35" s="12"/>
-      <c r="V35" s="27">
+        <f>'Activity by month'!P34/$S35</f>
+        <v>0</v>
+      </c>
+      <c r="Q35" s="13">
+        <f>'Activity by month'!Q34/$S35</f>
+        <v>0</v>
+      </c>
+      <c r="R35" s="12"/>
+      <c r="S35" s="27">
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E36" s="11">
-        <f>'England | Specialist Advice'!B35</f>
+    <row r="36" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B36" s="11">
+        <f>'Activity by month'!B35</f>
         <v>45231</v>
       </c>
-      <c r="F36" s="13">
-        <f>'England | Specialist Advice'!C35/$V36</f>
-        <v>0</v>
-      </c>
+      <c r="C36" s="13">
+        <f>'Activity by month'!C35/$S36</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="13">
+        <f>'Activity by month'!D35/$S36</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="13">
+        <f>'Activity by month'!E35/$S36</f>
+        <v>0</v>
+      </c>
+      <c r="F36" s="1"/>
       <c r="G36" s="13">
-        <f>'England | Specialist Advice'!D35/$V36</f>
+        <f>'Activity by month'!G35/$S36</f>
         <v>0</v>
       </c>
       <c r="H36" s="13">
-        <f>'England | Specialist Advice'!E35/$V36</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="1"/>
-      <c r="J36" s="13">
-        <f>'England | Specialist Advice'!G35/$V36</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!H35/$S36</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="13">
+        <f>'Activity by month'!I35/$S36</f>
+        <v>0</v>
+      </c>
+      <c r="J36" s="1"/>
       <c r="K36" s="13">
-        <f>'England | Specialist Advice'!H35/$V36</f>
+        <f>'Activity by month'!K35/$S36</f>
         <v>0</v>
       </c>
       <c r="L36" s="13">
-        <f>'England | Specialist Advice'!I35/$V36</f>
-        <v>0</v>
-      </c>
-      <c r="M36" s="1"/>
-      <c r="N36" s="13">
-        <f>'England | Specialist Advice'!K35/$V36</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!L35/$S36</f>
+        <v>0</v>
+      </c>
+      <c r="M36" s="13">
+        <f>'Activity by month'!M35/$S36</f>
+        <v>0</v>
+      </c>
+      <c r="N36" s="1"/>
       <c r="O36" s="13">
-        <f>'England | Specialist Advice'!L35/$V36</f>
+        <f>'Activity by month'!O35/$S36</f>
         <v>0</v>
       </c>
       <c r="P36" s="13">
-        <f>'England | Specialist Advice'!M35/$V36</f>
-        <v>0</v>
-      </c>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="13">
-        <f>'England | Specialist Advice'!O35/$V36</f>
-        <v>0</v>
-      </c>
-      <c r="S36" s="13">
-        <f>'England | Specialist Advice'!P35/$V36</f>
-        <v>0</v>
-      </c>
-      <c r="T36" s="13">
-        <f>'England | Specialist Advice'!Q35/$V36</f>
-        <v>0</v>
-      </c>
-      <c r="U36" s="12"/>
-      <c r="V36" s="27">
+        <f>'Activity by month'!P35/$S36</f>
+        <v>0</v>
+      </c>
+      <c r="Q36" s="13">
+        <f>'Activity by month'!Q35/$S36</f>
+        <v>0</v>
+      </c>
+      <c r="R36" s="12"/>
+      <c r="S36" s="27">
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E37" s="11">
-        <f>'England | Specialist Advice'!B36</f>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B37" s="11">
+        <f>'Activity by month'!B36</f>
         <v>45261</v>
       </c>
-      <c r="F37" s="13">
-        <f>'England | Specialist Advice'!C36/$V37</f>
-        <v>0</v>
-      </c>
+      <c r="C37" s="13">
+        <f>'Activity by month'!C36/$S37</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="13">
+        <f>'Activity by month'!D36/$S37</f>
+        <v>0</v>
+      </c>
+      <c r="E37" s="13">
+        <f>'Activity by month'!E36/$S37</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="1"/>
       <c r="G37" s="13">
-        <f>'England | Specialist Advice'!D36/$V37</f>
+        <f>'Activity by month'!G36/$S37</f>
         <v>0</v>
       </c>
       <c r="H37" s="13">
-        <f>'England | Specialist Advice'!E36/$V37</f>
-        <v>0</v>
-      </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="13">
-        <f>'England | Specialist Advice'!G36/$V37</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!H36/$S37</f>
+        <v>0</v>
+      </c>
+      <c r="I37" s="13">
+        <f>'Activity by month'!I36/$S37</f>
+        <v>0</v>
+      </c>
+      <c r="J37" s="1"/>
       <c r="K37" s="13">
-        <f>'England | Specialist Advice'!H36/$V37</f>
+        <f>'Activity by month'!K36/$S37</f>
         <v>0</v>
       </c>
       <c r="L37" s="13">
-        <f>'England | Specialist Advice'!I36/$V37</f>
-        <v>0</v>
-      </c>
-      <c r="M37" s="1"/>
-      <c r="N37" s="13">
-        <f>'England | Specialist Advice'!K36/$V37</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!L36/$S37</f>
+        <v>0</v>
+      </c>
+      <c r="M37" s="13">
+        <f>'Activity by month'!M36/$S37</f>
+        <v>0</v>
+      </c>
+      <c r="N37" s="1"/>
       <c r="O37" s="13">
-        <f>'England | Specialist Advice'!L36/$V37</f>
+        <f>'Activity by month'!O36/$S37</f>
         <v>0</v>
       </c>
       <c r="P37" s="13">
-        <f>'England | Specialist Advice'!M36/$V37</f>
-        <v>0</v>
-      </c>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="13">
-        <f>'England | Specialist Advice'!O36/$V37</f>
-        <v>0</v>
-      </c>
-      <c r="S37" s="13">
-        <f>'England | Specialist Advice'!P36/$V37</f>
-        <v>0</v>
-      </c>
-      <c r="T37" s="13">
-        <f>'England | Specialist Advice'!Q36/$V37</f>
-        <v>0</v>
-      </c>
-      <c r="U37" s="12"/>
-      <c r="V37" s="27">
+        <f>'Activity by month'!P36/$S37</f>
+        <v>0</v>
+      </c>
+      <c r="Q37" s="13">
+        <f>'Activity by month'!Q36/$S37</f>
+        <v>0</v>
+      </c>
+      <c r="R37" s="12"/>
+      <c r="S37" s="27">
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E38" s="11">
-        <f>'England | Specialist Advice'!B37</f>
+    <row r="38" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B38" s="11">
+        <f>'Activity by month'!B37</f>
         <v>45292</v>
       </c>
-      <c r="F38" s="13">
-        <f>'England | Specialist Advice'!C37/$V38</f>
-        <v>0</v>
-      </c>
+      <c r="C38" s="13">
+        <f>'Activity by month'!C37/$S38</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="13">
+        <f>'Activity by month'!D37/$S38</f>
+        <v>0</v>
+      </c>
+      <c r="E38" s="13">
+        <f>'Activity by month'!E37/$S38</f>
+        <v>0</v>
+      </c>
+      <c r="F38" s="1"/>
       <c r="G38" s="13">
-        <f>'England | Specialist Advice'!D37/$V38</f>
+        <f>'Activity by month'!G37/$S38</f>
         <v>0</v>
       </c>
       <c r="H38" s="13">
-        <f>'England | Specialist Advice'!E37/$V38</f>
-        <v>0</v>
-      </c>
-      <c r="I38" s="1"/>
-      <c r="J38" s="13">
-        <f>'England | Specialist Advice'!G37/$V38</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!H37/$S38</f>
+        <v>0</v>
+      </c>
+      <c r="I38" s="13">
+        <f>'Activity by month'!I37/$S38</f>
+        <v>0</v>
+      </c>
+      <c r="J38" s="1"/>
       <c r="K38" s="13">
-        <f>'England | Specialist Advice'!H37/$V38</f>
+        <f>'Activity by month'!K37/$S38</f>
         <v>0</v>
       </c>
       <c r="L38" s="13">
-        <f>'England | Specialist Advice'!I37/$V38</f>
-        <v>0</v>
-      </c>
-      <c r="M38" s="1"/>
-      <c r="N38" s="13">
-        <f>'England | Specialist Advice'!K37/$V38</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!L37/$S38</f>
+        <v>0</v>
+      </c>
+      <c r="M38" s="13">
+        <f>'Activity by month'!M37/$S38</f>
+        <v>0</v>
+      </c>
+      <c r="N38" s="1"/>
       <c r="O38" s="13">
-        <f>'England | Specialist Advice'!L37/$V38</f>
+        <f>'Activity by month'!O37/$S38</f>
         <v>0</v>
       </c>
       <c r="P38" s="13">
-        <f>'England | Specialist Advice'!M37/$V38</f>
-        <v>0</v>
-      </c>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="13">
-        <f>'England | Specialist Advice'!O37/$V38</f>
-        <v>0</v>
-      </c>
-      <c r="S38" s="13">
-        <f>'England | Specialist Advice'!P37/$V38</f>
-        <v>0</v>
-      </c>
-      <c r="T38" s="13">
-        <f>'England | Specialist Advice'!Q37/$V38</f>
-        <v>0</v>
-      </c>
-      <c r="U38" s="12"/>
-      <c r="V38" s="27">
+        <f>'Activity by month'!P37/$S38</f>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="13">
+        <f>'Activity by month'!Q37/$S38</f>
+        <v>0</v>
+      </c>
+      <c r="R38" s="12"/>
+      <c r="S38" s="27">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E39" s="11">
-        <f>'England | Specialist Advice'!B38</f>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B39" s="11">
+        <f>'Activity by month'!B38</f>
         <v>45323</v>
       </c>
-      <c r="F39" s="13">
-        <f>'England | Specialist Advice'!C38/$V39</f>
-        <v>0</v>
-      </c>
+      <c r="C39" s="13">
+        <f>'Activity by month'!C38/$S39</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="13">
+        <f>'Activity by month'!D38/$S39</f>
+        <v>0</v>
+      </c>
+      <c r="E39" s="13">
+        <f>'Activity by month'!E38/$S39</f>
+        <v>0</v>
+      </c>
+      <c r="F39" s="1"/>
       <c r="G39" s="13">
-        <f>'England | Specialist Advice'!D38/$V39</f>
+        <f>'Activity by month'!G38/$S39</f>
         <v>0</v>
       </c>
       <c r="H39" s="13">
-        <f>'England | Specialist Advice'!E38/$V39</f>
-        <v>0</v>
-      </c>
-      <c r="I39" s="1"/>
-      <c r="J39" s="13">
-        <f>'England | Specialist Advice'!G38/$V39</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!H38/$S39</f>
+        <v>0</v>
+      </c>
+      <c r="I39" s="13">
+        <f>'Activity by month'!I38/$S39</f>
+        <v>0</v>
+      </c>
+      <c r="J39" s="1"/>
       <c r="K39" s="13">
-        <f>'England | Specialist Advice'!H38/$V39</f>
+        <f>'Activity by month'!K38/$S39</f>
         <v>0</v>
       </c>
       <c r="L39" s="13">
-        <f>'England | Specialist Advice'!I38/$V39</f>
-        <v>0</v>
-      </c>
-      <c r="M39" s="1"/>
-      <c r="N39" s="13">
-        <f>'England | Specialist Advice'!K38/$V39</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!L38/$S39</f>
+        <v>0</v>
+      </c>
+      <c r="M39" s="13">
+        <f>'Activity by month'!M38/$S39</f>
+        <v>0</v>
+      </c>
+      <c r="N39" s="1"/>
       <c r="O39" s="13">
-        <f>'England | Specialist Advice'!L38/$V39</f>
+        <f>'Activity by month'!O38/$S39</f>
         <v>0</v>
       </c>
       <c r="P39" s="13">
-        <f>'England | Specialist Advice'!M38/$V39</f>
-        <v>0</v>
-      </c>
-      <c r="Q39" s="1"/>
-      <c r="R39" s="13">
-        <f>'England | Specialist Advice'!O38/$V39</f>
-        <v>0</v>
-      </c>
-      <c r="S39" s="13">
-        <f>'England | Specialist Advice'!P38/$V39</f>
-        <v>0</v>
-      </c>
-      <c r="T39" s="13">
-        <f>'England | Specialist Advice'!Q38/$V39</f>
-        <v>0</v>
-      </c>
-      <c r="U39" s="12"/>
-      <c r="V39" s="27">
+        <f>'Activity by month'!P38/$S39</f>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="13">
+        <f>'Activity by month'!Q38/$S39</f>
+        <v>0</v>
+      </c>
+      <c r="R39" s="12"/>
+      <c r="S39" s="27">
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E40" s="11">
-        <f>'England | Specialist Advice'!B39</f>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B40" s="11">
+        <f>'Activity by month'!B39</f>
         <v>45352</v>
       </c>
-      <c r="F40" s="13">
-        <f>'England | Specialist Advice'!C39/$V40</f>
-        <v>0</v>
-      </c>
+      <c r="C40" s="13">
+        <f>'Activity by month'!C39/$S40</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="13">
+        <f>'Activity by month'!D39/$S40</f>
+        <v>0</v>
+      </c>
+      <c r="E40" s="13">
+        <f>'Activity by month'!E39/$S40</f>
+        <v>0</v>
+      </c>
+      <c r="F40" s="1"/>
       <c r="G40" s="13">
-        <f>'England | Specialist Advice'!D39/$V40</f>
+        <f>'Activity by month'!G39/$S40</f>
         <v>0</v>
       </c>
       <c r="H40" s="13">
-        <f>'England | Specialist Advice'!E39/$V40</f>
-        <v>0</v>
-      </c>
-      <c r="I40" s="1"/>
-      <c r="J40" s="13">
-        <f>'England | Specialist Advice'!G39/$V40</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!H39/$S40</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="13">
+        <f>'Activity by month'!I39/$S40</f>
+        <v>0</v>
+      </c>
+      <c r="J40" s="1"/>
       <c r="K40" s="13">
-        <f>'England | Specialist Advice'!H39/$V40</f>
+        <f>'Activity by month'!K39/$S40</f>
         <v>0</v>
       </c>
       <c r="L40" s="13">
-        <f>'England | Specialist Advice'!I39/$V40</f>
-        <v>0</v>
-      </c>
-      <c r="M40" s="1"/>
-      <c r="N40" s="13">
-        <f>'England | Specialist Advice'!K39/$V40</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!L39/$S40</f>
+        <v>0</v>
+      </c>
+      <c r="M40" s="13">
+        <f>'Activity by month'!M39/$S40</f>
+        <v>0</v>
+      </c>
+      <c r="N40" s="1"/>
       <c r="O40" s="13">
-        <f>'England | Specialist Advice'!L39/$V40</f>
+        <f>'Activity by month'!O39/$S40</f>
         <v>0</v>
       </c>
       <c r="P40" s="13">
-        <f>'England | Specialist Advice'!M39/$V40</f>
-        <v>0</v>
-      </c>
-      <c r="Q40" s="1"/>
-      <c r="R40" s="13">
-        <f>'England | Specialist Advice'!O39/$V40</f>
-        <v>0</v>
-      </c>
-      <c r="S40" s="13">
-        <f>'England | Specialist Advice'!P39/$V40</f>
-        <v>0</v>
-      </c>
-      <c r="T40" s="13">
-        <f>'England | Specialist Advice'!Q39/$V40</f>
-        <v>0</v>
-      </c>
-      <c r="U40" s="12"/>
-      <c r="V40" s="27">
+        <f>'Activity by month'!P39/$S40</f>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="13">
+        <f>'Activity by month'!Q39/$S40</f>
+        <v>0</v>
+      </c>
+      <c r="R40" s="12"/>
+      <c r="S40" s="27">
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E41" s="11">
-        <f>'England | Specialist Advice'!B40</f>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B41" s="11">
+        <f>'Activity by month'!B40</f>
         <v>45383</v>
       </c>
-      <c r="F41" s="13">
-        <f>'England | Specialist Advice'!C40/$V41</f>
-        <v>0</v>
-      </c>
+      <c r="C41" s="13">
+        <f>'Activity by month'!C40/$S41</f>
+        <v>0</v>
+      </c>
+      <c r="D41" s="13">
+        <f>'Activity by month'!D40/$S41</f>
+        <v>0</v>
+      </c>
+      <c r="E41" s="13">
+        <f>'Activity by month'!E40/$S41</f>
+        <v>0</v>
+      </c>
+      <c r="F41" s="1"/>
       <c r="G41" s="13">
-        <f>'England | Specialist Advice'!D40/$V41</f>
+        <f>'Activity by month'!G40/$S41</f>
         <v>0</v>
       </c>
       <c r="H41" s="13">
-        <f>'England | Specialist Advice'!E40/$V41</f>
-        <v>0</v>
-      </c>
-      <c r="I41" s="1"/>
-      <c r="J41" s="13">
-        <f>'England | Specialist Advice'!G40/$V41</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!H40/$S41</f>
+        <v>0</v>
+      </c>
+      <c r="I41" s="13">
+        <f>'Activity by month'!I40/$S41</f>
+        <v>0</v>
+      </c>
+      <c r="J41" s="1"/>
       <c r="K41" s="13">
-        <f>'England | Specialist Advice'!H40/$V41</f>
+        <f>'Activity by month'!K40/$S41</f>
         <v>0</v>
       </c>
       <c r="L41" s="13">
-        <f>'England | Specialist Advice'!I40/$V41</f>
-        <v>0</v>
-      </c>
-      <c r="M41" s="1"/>
-      <c r="N41" s="13">
-        <f>'England | Specialist Advice'!K40/$V41</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!L40/$S41</f>
+        <v>0</v>
+      </c>
+      <c r="M41" s="13">
+        <f>'Activity by month'!M40/$S41</f>
+        <v>0</v>
+      </c>
+      <c r="N41" s="1"/>
       <c r="O41" s="13">
-        <f>'England | Specialist Advice'!L40/$V41</f>
+        <f>'Activity by month'!O40/$S41</f>
         <v>0</v>
       </c>
       <c r="P41" s="13">
-        <f>'England | Specialist Advice'!M40/$V41</f>
-        <v>0</v>
-      </c>
-      <c r="Q41" s="1"/>
-      <c r="R41" s="13">
-        <f>'England | Specialist Advice'!O40/$V41</f>
-        <v>0</v>
-      </c>
-      <c r="S41" s="13">
-        <f>'England | Specialist Advice'!P40/$V41</f>
-        <v>0</v>
-      </c>
-      <c r="T41" s="13">
-        <f>'England | Specialist Advice'!Q40/$V41</f>
-        <v>0</v>
-      </c>
-      <c r="U41" s="12"/>
-      <c r="V41" s="27">
+        <f>'Activity by month'!P40/$S41</f>
+        <v>0</v>
+      </c>
+      <c r="Q41" s="13">
+        <f>'Activity by month'!Q40/$S41</f>
+        <v>0</v>
+      </c>
+      <c r="R41" s="12"/>
+      <c r="S41" s="27">
         <v>21</v>
       </c>
     </row>
-    <row r="42" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E42" s="11">
-        <f>'England | Specialist Advice'!B41</f>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B42" s="11">
+        <f>'Activity by month'!B41</f>
         <v>45413</v>
       </c>
-      <c r="F42" s="13">
-        <f>'England | Specialist Advice'!C41/$V42</f>
-        <v>0</v>
-      </c>
+      <c r="C42" s="13">
+        <f>'Activity by month'!C41/$S42</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="13">
+        <f>'Activity by month'!D41/$S42</f>
+        <v>0</v>
+      </c>
+      <c r="E42" s="13">
+        <f>'Activity by month'!E41/$S42</f>
+        <v>0</v>
+      </c>
+      <c r="F42" s="1"/>
       <c r="G42" s="13">
-        <f>'England | Specialist Advice'!D41/$V42</f>
+        <f>'Activity by month'!G41/$S42</f>
         <v>0</v>
       </c>
       <c r="H42" s="13">
-        <f>'England | Specialist Advice'!E41/$V42</f>
-        <v>0</v>
-      </c>
-      <c r="I42" s="1"/>
-      <c r="J42" s="13">
-        <f>'England | Specialist Advice'!G41/$V42</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!H41/$S42</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="13">
+        <f>'Activity by month'!I41/$S42</f>
+        <v>0</v>
+      </c>
+      <c r="J42" s="1"/>
       <c r="K42" s="13">
-        <f>'England | Specialist Advice'!H41/$V42</f>
+        <f>'Activity by month'!K41/$S42</f>
         <v>0</v>
       </c>
       <c r="L42" s="13">
-        <f>'England | Specialist Advice'!I41/$V42</f>
-        <v>0</v>
-      </c>
-      <c r="M42" s="1"/>
-      <c r="N42" s="13">
-        <f>'England | Specialist Advice'!K41/$V42</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!L41/$S42</f>
+        <v>0</v>
+      </c>
+      <c r="M42" s="13">
+        <f>'Activity by month'!M41/$S42</f>
+        <v>0</v>
+      </c>
+      <c r="N42" s="1"/>
       <c r="O42" s="13">
-        <f>'England | Specialist Advice'!L41/$V42</f>
+        <f>'Activity by month'!O41/$S42</f>
         <v>0</v>
       </c>
       <c r="P42" s="13">
-        <f>'England | Specialist Advice'!M41/$V42</f>
-        <v>0</v>
-      </c>
-      <c r="Q42" s="1"/>
-      <c r="R42" s="13">
-        <f>'England | Specialist Advice'!O41/$V42</f>
-        <v>0</v>
-      </c>
-      <c r="S42" s="13">
-        <f>'England | Specialist Advice'!P41/$V42</f>
-        <v>0</v>
-      </c>
-      <c r="T42" s="13">
-        <f>'England | Specialist Advice'!Q41/$V42</f>
-        <v>0</v>
-      </c>
-      <c r="U42" s="12"/>
-      <c r="V42" s="27">
+        <f>'Activity by month'!P41/$S42</f>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="13">
+        <f>'Activity by month'!Q41/$S42</f>
+        <v>0</v>
+      </c>
+      <c r="R42" s="12"/>
+      <c r="S42" s="27">
         <v>21</v>
       </c>
     </row>
-    <row r="43" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E43" s="11">
-        <f>'England | Specialist Advice'!B42</f>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B43" s="11">
+        <f>'Activity by month'!B42</f>
         <v>45444</v>
       </c>
-      <c r="F43" s="13">
-        <f>'England | Specialist Advice'!C42/$V43</f>
-        <v>0</v>
-      </c>
+      <c r="C43" s="13">
+        <f>'Activity by month'!C42/$S43</f>
+        <v>0</v>
+      </c>
+      <c r="D43" s="13">
+        <f>'Activity by month'!D42/$S43</f>
+        <v>0</v>
+      </c>
+      <c r="E43" s="13">
+        <f>'Activity by month'!E42/$S43</f>
+        <v>0</v>
+      </c>
+      <c r="F43" s="1"/>
       <c r="G43" s="13">
-        <f>'England | Specialist Advice'!D42/$V43</f>
+        <f>'Activity by month'!G42/$S43</f>
         <v>0</v>
       </c>
       <c r="H43" s="13">
-        <f>'England | Specialist Advice'!E42/$V43</f>
-        <v>0</v>
-      </c>
-      <c r="I43" s="1"/>
-      <c r="J43" s="13">
-        <f>'England | Specialist Advice'!G42/$V43</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!H42/$S43</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="13">
+        <f>'Activity by month'!I42/$S43</f>
+        <v>0</v>
+      </c>
+      <c r="J43" s="1"/>
       <c r="K43" s="13">
-        <f>'England | Specialist Advice'!H42/$V43</f>
+        <f>'Activity by month'!K42/$S43</f>
         <v>0</v>
       </c>
       <c r="L43" s="13">
-        <f>'England | Specialist Advice'!I42/$V43</f>
-        <v>0</v>
-      </c>
-      <c r="M43" s="1"/>
-      <c r="N43" s="13">
-        <f>'England | Specialist Advice'!K42/$V43</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!L42/$S43</f>
+        <v>0</v>
+      </c>
+      <c r="M43" s="13">
+        <f>'Activity by month'!M42/$S43</f>
+        <v>0</v>
+      </c>
+      <c r="N43" s="1"/>
       <c r="O43" s="13">
-        <f>'England | Specialist Advice'!L42/$V43</f>
+        <f>'Activity by month'!O42/$S43</f>
         <v>0</v>
       </c>
       <c r="P43" s="13">
-        <f>'England | Specialist Advice'!M42/$V43</f>
-        <v>0</v>
-      </c>
-      <c r="Q43" s="1"/>
-      <c r="R43" s="13">
-        <f>'England | Specialist Advice'!O42/$V43</f>
-        <v>0</v>
-      </c>
-      <c r="S43" s="13">
-        <f>'England | Specialist Advice'!P42/$V43</f>
-        <v>0</v>
-      </c>
-      <c r="T43" s="13">
-        <f>'England | Specialist Advice'!Q42/$V43</f>
-        <v>0</v>
-      </c>
-      <c r="U43" s="12"/>
-      <c r="V43" s="27">
+        <f>'Activity by month'!P42/$S43</f>
+        <v>0</v>
+      </c>
+      <c r="Q43" s="13">
+        <f>'Activity by month'!Q42/$S43</f>
+        <v>0</v>
+      </c>
+      <c r="R43" s="12"/>
+      <c r="S43" s="27">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E44" s="11">
-        <f>'England | Specialist Advice'!B43</f>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B44" s="11">
+        <f>'Activity by month'!B43</f>
         <v>45474</v>
       </c>
-      <c r="F44" s="13">
-        <f>'England | Specialist Advice'!C43/$V44</f>
-        <v>0</v>
-      </c>
+      <c r="C44" s="13">
+        <f>'Activity by month'!C43/$S44</f>
+        <v>0</v>
+      </c>
+      <c r="D44" s="13">
+        <f>'Activity by month'!D43/$S44</f>
+        <v>0</v>
+      </c>
+      <c r="E44" s="13">
+        <f>'Activity by month'!E43/$S44</f>
+        <v>0</v>
+      </c>
+      <c r="F44" s="1"/>
       <c r="G44" s="13">
-        <f>'England | Specialist Advice'!D43/$V44</f>
+        <f>'Activity by month'!G43/$S44</f>
         <v>0</v>
       </c>
       <c r="H44" s="13">
-        <f>'England | Specialist Advice'!E43/$V44</f>
-        <v>0</v>
-      </c>
-      <c r="I44" s="1"/>
-      <c r="J44" s="13">
-        <f>'England | Specialist Advice'!G43/$V44</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!H43/$S44</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="13">
+        <f>'Activity by month'!I43/$S44</f>
+        <v>0</v>
+      </c>
+      <c r="J44" s="1"/>
       <c r="K44" s="13">
-        <f>'England | Specialist Advice'!H43/$V44</f>
+        <f>'Activity by month'!K43/$S44</f>
         <v>0</v>
       </c>
       <c r="L44" s="13">
-        <f>'England | Specialist Advice'!I43/$V44</f>
-        <v>0</v>
-      </c>
-      <c r="M44" s="1"/>
-      <c r="N44" s="13">
-        <f>'England | Specialist Advice'!K43/$V44</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!L43/$S44</f>
+        <v>0</v>
+      </c>
+      <c r="M44" s="13">
+        <f>'Activity by month'!M43/$S44</f>
+        <v>0</v>
+      </c>
+      <c r="N44" s="1"/>
       <c r="O44" s="13">
-        <f>'England | Specialist Advice'!L43/$V44</f>
+        <f>'Activity by month'!O43/$S44</f>
         <v>0</v>
       </c>
       <c r="P44" s="13">
-        <f>'England | Specialist Advice'!M43/$V44</f>
-        <v>0</v>
-      </c>
-      <c r="Q44" s="1"/>
-      <c r="R44" s="13">
-        <f>'England | Specialist Advice'!O43/$V44</f>
-        <v>0</v>
-      </c>
-      <c r="S44" s="13">
-        <f>'England | Specialist Advice'!P43/$V44</f>
-        <v>0</v>
-      </c>
-      <c r="T44" s="13">
-        <f>'England | Specialist Advice'!Q43/$V44</f>
-        <v>0</v>
-      </c>
-      <c r="U44" s="12"/>
-      <c r="V44" s="27">
+        <f>'Activity by month'!P43/$S44</f>
+        <v>0</v>
+      </c>
+      <c r="Q44" s="13">
+        <f>'Activity by month'!Q43/$S44</f>
+        <v>0</v>
+      </c>
+      <c r="R44" s="12"/>
+      <c r="S44" s="27">
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E45" s="11">
-        <f>'England | Specialist Advice'!B44</f>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B45" s="11">
+        <f>'Activity by month'!B44</f>
         <v>45505</v>
       </c>
-      <c r="F45" s="13">
-        <f>'England | Specialist Advice'!C44/$V45</f>
-        <v>0</v>
-      </c>
+      <c r="C45" s="13">
+        <f>'Activity by month'!C44/$S45</f>
+        <v>0</v>
+      </c>
+      <c r="D45" s="13">
+        <f>'Activity by month'!D44/$S45</f>
+        <v>0</v>
+      </c>
+      <c r="E45" s="13">
+        <f>'Activity by month'!E44/$S45</f>
+        <v>0</v>
+      </c>
+      <c r="F45" s="1"/>
       <c r="G45" s="13">
-        <f>'England | Specialist Advice'!D44/$V45</f>
+        <f>'Activity by month'!G44/$S45</f>
         <v>0</v>
       </c>
       <c r="H45" s="13">
-        <f>'England | Specialist Advice'!E44/$V45</f>
-        <v>0</v>
-      </c>
-      <c r="I45" s="1"/>
-      <c r="J45" s="13">
-        <f>'England | Specialist Advice'!G44/$V45</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!H44/$S45</f>
+        <v>0</v>
+      </c>
+      <c r="I45" s="13">
+        <f>'Activity by month'!I44/$S45</f>
+        <v>0</v>
+      </c>
+      <c r="J45" s="1"/>
       <c r="K45" s="13">
-        <f>'England | Specialist Advice'!H44/$V45</f>
+        <f>'Activity by month'!K44/$S45</f>
         <v>0</v>
       </c>
       <c r="L45" s="13">
-        <f>'England | Specialist Advice'!I44/$V45</f>
-        <v>0</v>
-      </c>
-      <c r="M45" s="1"/>
-      <c r="N45" s="13">
-        <f>'England | Specialist Advice'!K44/$V45</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!L44/$S45</f>
+        <v>0</v>
+      </c>
+      <c r="M45" s="13">
+        <f>'Activity by month'!M44/$S45</f>
+        <v>0</v>
+      </c>
+      <c r="N45" s="1"/>
       <c r="O45" s="13">
-        <f>'England | Specialist Advice'!L44/$V45</f>
+        <f>'Activity by month'!O44/$S45</f>
         <v>0</v>
       </c>
       <c r="P45" s="13">
-        <f>'England | Specialist Advice'!M44/$V45</f>
-        <v>0</v>
-      </c>
-      <c r="Q45" s="1"/>
-      <c r="R45" s="13">
-        <f>'England | Specialist Advice'!O44/$V45</f>
-        <v>0</v>
-      </c>
-      <c r="S45" s="13">
-        <f>'England | Specialist Advice'!P44/$V45</f>
-        <v>0</v>
-      </c>
-      <c r="T45" s="13">
-        <f>'England | Specialist Advice'!Q44/$V45</f>
-        <v>0</v>
-      </c>
-      <c r="U45" s="12"/>
-      <c r="V45" s="27">
+        <f>'Activity by month'!P44/$S45</f>
+        <v>0</v>
+      </c>
+      <c r="Q45" s="13">
+        <f>'Activity by month'!Q44/$S45</f>
+        <v>0</v>
+      </c>
+      <c r="R45" s="12"/>
+      <c r="S45" s="27">
         <v>21</v>
       </c>
     </row>
-    <row r="46" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E46" s="11">
-        <f>'England | Specialist Advice'!B45</f>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B46" s="11">
+        <f>'Activity by month'!B45</f>
         <v>45536</v>
       </c>
-      <c r="F46" s="13">
-        <f>'England | Specialist Advice'!C45/$V46</f>
-        <v>0</v>
-      </c>
+      <c r="C46" s="13">
+        <f>'Activity by month'!C45/$S46</f>
+        <v>0</v>
+      </c>
+      <c r="D46" s="13">
+        <f>'Activity by month'!D45/$S46</f>
+        <v>0</v>
+      </c>
+      <c r="E46" s="13">
+        <f>'Activity by month'!E45/$S46</f>
+        <v>0</v>
+      </c>
+      <c r="F46" s="1"/>
       <c r="G46" s="13">
-        <f>'England | Specialist Advice'!D45/$V46</f>
+        <f>'Activity by month'!G45/$S46</f>
         <v>0</v>
       </c>
       <c r="H46" s="13">
-        <f>'England | Specialist Advice'!E45/$V46</f>
-        <v>0</v>
-      </c>
-      <c r="I46" s="1"/>
-      <c r="J46" s="13">
-        <f>'England | Specialist Advice'!G45/$V46</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!H45/$S46</f>
+        <v>0</v>
+      </c>
+      <c r="I46" s="13">
+        <f>'Activity by month'!I45/$S46</f>
+        <v>0</v>
+      </c>
+      <c r="J46" s="1"/>
       <c r="K46" s="13">
-        <f>'England | Specialist Advice'!H45/$V46</f>
+        <f>'Activity by month'!K45/$S46</f>
         <v>0</v>
       </c>
       <c r="L46" s="13">
-        <f>'England | Specialist Advice'!I45/$V46</f>
-        <v>0</v>
-      </c>
-      <c r="M46" s="1"/>
-      <c r="N46" s="13">
-        <f>'England | Specialist Advice'!K45/$V46</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!L45/$S46</f>
+        <v>0</v>
+      </c>
+      <c r="M46" s="13">
+        <f>'Activity by month'!M45/$S46</f>
+        <v>0</v>
+      </c>
+      <c r="N46" s="1"/>
       <c r="O46" s="13">
-        <f>'England | Specialist Advice'!L45/$V46</f>
+        <f>'Activity by month'!O45/$S46</f>
         <v>0</v>
       </c>
       <c r="P46" s="13">
-        <f>'England | Specialist Advice'!M45/$V46</f>
-        <v>0</v>
-      </c>
-      <c r="Q46" s="1"/>
-      <c r="R46" s="13">
-        <f>'England | Specialist Advice'!O45/$V46</f>
-        <v>0</v>
-      </c>
-      <c r="S46" s="13">
-        <f>'England | Specialist Advice'!P45/$V46</f>
-        <v>0</v>
-      </c>
-      <c r="T46" s="13">
-        <f>'England | Specialist Advice'!Q45/$V46</f>
-        <v>0</v>
-      </c>
-      <c r="U46" s="1"/>
-      <c r="V46" s="27">
+        <f>'Activity by month'!P45/$S46</f>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="13">
+        <f>'Activity by month'!Q45/$S46</f>
+        <v>0</v>
+      </c>
+      <c r="R46" s="1"/>
+      <c r="S46" s="27">
         <v>21</v>
       </c>
     </row>
-    <row r="47" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E47" s="11">
-        <f>'England | Specialist Advice'!B46</f>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B47" s="11">
+        <f>'Activity by month'!B46</f>
         <v>45566</v>
       </c>
-      <c r="F47" s="13">
-        <f>'England | Specialist Advice'!C46/$V47</f>
-        <v>0</v>
-      </c>
+      <c r="C47" s="13">
+        <f>'Activity by month'!C46/$S47</f>
+        <v>0</v>
+      </c>
+      <c r="D47" s="13">
+        <f>'Activity by month'!D46/$S47</f>
+        <v>0</v>
+      </c>
+      <c r="E47" s="13">
+        <f>'Activity by month'!E46/$S47</f>
+        <v>0</v>
+      </c>
+      <c r="F47" s="1"/>
       <c r="G47" s="13">
-        <f>'England | Specialist Advice'!D46/$V47</f>
+        <f>'Activity by month'!G46/$S47</f>
         <v>0</v>
       </c>
       <c r="H47" s="13">
-        <f>'England | Specialist Advice'!E46/$V47</f>
-        <v>0</v>
-      </c>
-      <c r="I47" s="1"/>
-      <c r="J47" s="13">
-        <f>'England | Specialist Advice'!G46/$V47</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!H46/$S47</f>
+        <v>0</v>
+      </c>
+      <c r="I47" s="13">
+        <f>'Activity by month'!I46/$S47</f>
+        <v>0</v>
+      </c>
+      <c r="J47" s="1"/>
       <c r="K47" s="13">
-        <f>'England | Specialist Advice'!H46/$V47</f>
+        <f>'Activity by month'!K46/$S47</f>
         <v>0</v>
       </c>
       <c r="L47" s="13">
-        <f>'England | Specialist Advice'!I46/$V47</f>
-        <v>0</v>
-      </c>
-      <c r="M47" s="1"/>
-      <c r="N47" s="13">
-        <f>'England | Specialist Advice'!K46/$V47</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!L46/$S47</f>
+        <v>0</v>
+      </c>
+      <c r="M47" s="13">
+        <f>'Activity by month'!M46/$S47</f>
+        <v>0</v>
+      </c>
+      <c r="N47" s="1"/>
       <c r="O47" s="13">
-        <f>'England | Specialist Advice'!L46/$V47</f>
+        <f>'Activity by month'!O46/$S47</f>
         <v>0</v>
       </c>
       <c r="P47" s="13">
-        <f>'England | Specialist Advice'!M46/$V47</f>
-        <v>0</v>
-      </c>
-      <c r="Q47" s="1"/>
-      <c r="R47" s="13">
-        <f>'England | Specialist Advice'!O46/$V47</f>
-        <v>0</v>
-      </c>
-      <c r="S47" s="13">
-        <f>'England | Specialist Advice'!P46/$V47</f>
-        <v>0</v>
-      </c>
-      <c r="T47" s="13">
-        <f>'England | Specialist Advice'!Q46/$V47</f>
-        <v>0</v>
-      </c>
-      <c r="U47" s="1"/>
-      <c r="V47" s="27">
+        <f>'Activity by month'!P46/$S47</f>
+        <v>0</v>
+      </c>
+      <c r="Q47" s="13">
+        <f>'Activity by month'!Q46/$S47</f>
+        <v>0</v>
+      </c>
+      <c r="R47" s="1"/>
+      <c r="S47" s="27">
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E48" s="11">
-        <f>'England | Specialist Advice'!B47</f>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B48" s="11">
+        <f>'Activity by month'!B47</f>
         <v>45597</v>
       </c>
-      <c r="F48" s="13">
-        <f>'England | Specialist Advice'!C47/$V48</f>
-        <v>0</v>
-      </c>
+      <c r="C48" s="13">
+        <f>'Activity by month'!C47/$S48</f>
+        <v>0</v>
+      </c>
+      <c r="D48" s="13">
+        <f>'Activity by month'!D47/$S48</f>
+        <v>0</v>
+      </c>
+      <c r="E48" s="13">
+        <f>'Activity by month'!E47/$S48</f>
+        <v>0</v>
+      </c>
+      <c r="F48" s="1"/>
       <c r="G48" s="13">
-        <f>'England | Specialist Advice'!D47/$V48</f>
+        <f>'Activity by month'!G47/$S48</f>
         <v>0</v>
       </c>
       <c r="H48" s="13">
-        <f>'England | Specialist Advice'!E47/$V48</f>
-        <v>0</v>
-      </c>
-      <c r="I48" s="1"/>
-      <c r="J48" s="13">
-        <f>'England | Specialist Advice'!G47/$V48</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!H47/$S48</f>
+        <v>0</v>
+      </c>
+      <c r="I48" s="13">
+        <f>'Activity by month'!I47/$S48</f>
+        <v>0</v>
+      </c>
+      <c r="J48" s="1"/>
       <c r="K48" s="13">
-        <f>'England | Specialist Advice'!H47/$V48</f>
+        <f>'Activity by month'!K47/$S48</f>
         <v>0</v>
       </c>
       <c r="L48" s="13">
-        <f>'England | Specialist Advice'!I47/$V48</f>
-        <v>0</v>
-      </c>
-      <c r="M48" s="1"/>
-      <c r="N48" s="13">
-        <f>'England | Specialist Advice'!K47/$V48</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!L47/$S48</f>
+        <v>0</v>
+      </c>
+      <c r="M48" s="13">
+        <f>'Activity by month'!M47/$S48</f>
+        <v>0</v>
+      </c>
+      <c r="N48" s="1"/>
       <c r="O48" s="13">
-        <f>'England | Specialist Advice'!L47/$V48</f>
+        <f>'Activity by month'!O47/$S48</f>
         <v>0</v>
       </c>
       <c r="P48" s="13">
-        <f>'England | Specialist Advice'!M47/$V48</f>
-        <v>0</v>
-      </c>
-      <c r="Q48" s="1"/>
-      <c r="R48" s="13">
-        <f>'England | Specialist Advice'!O47/$V48</f>
-        <v>0</v>
-      </c>
-      <c r="S48" s="13">
-        <f>'England | Specialist Advice'!P47/$V48</f>
-        <v>0</v>
-      </c>
-      <c r="T48" s="13">
-        <f>'England | Specialist Advice'!Q47/$V48</f>
-        <v>0</v>
-      </c>
-      <c r="U48" s="1"/>
-      <c r="V48" s="27">
+        <f>'Activity by month'!P47/$S48</f>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="13">
+        <f>'Activity by month'!Q47/$S48</f>
+        <v>0</v>
+      </c>
+      <c r="R48" s="1"/>
+      <c r="S48" s="27">
         <v>21</v>
       </c>
     </row>
-    <row r="49" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E49" s="11">
-        <f>'England | Specialist Advice'!B48</f>
+    <row r="49" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B49" s="11">
+        <f>'Activity by month'!B48</f>
         <v>45627</v>
       </c>
-      <c r="F49" s="13">
-        <f>'England | Specialist Advice'!C48/$V49</f>
-        <v>0</v>
-      </c>
+      <c r="C49" s="13">
+        <f>'Activity by month'!C48/$S49</f>
+        <v>0</v>
+      </c>
+      <c r="D49" s="13">
+        <f>'Activity by month'!D48/$S49</f>
+        <v>0</v>
+      </c>
+      <c r="E49" s="13">
+        <f>'Activity by month'!E48/$S49</f>
+        <v>0</v>
+      </c>
+      <c r="F49" s="1"/>
       <c r="G49" s="13">
-        <f>'England | Specialist Advice'!D48/$V49</f>
+        <f>'Activity by month'!G48/$S49</f>
         <v>0</v>
       </c>
       <c r="H49" s="13">
-        <f>'England | Specialist Advice'!E48/$V49</f>
-        <v>0</v>
-      </c>
-      <c r="I49" s="1"/>
-      <c r="J49" s="13">
-        <f>'England | Specialist Advice'!G48/$V49</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!H48/$S49</f>
+        <v>0</v>
+      </c>
+      <c r="I49" s="13">
+        <f>'Activity by month'!I48/$S49</f>
+        <v>0</v>
+      </c>
+      <c r="J49" s="1"/>
       <c r="K49" s="13">
-        <f>'England | Specialist Advice'!H48/$V49</f>
+        <f>'Activity by month'!K48/$S49</f>
         <v>0</v>
       </c>
       <c r="L49" s="13">
-        <f>'England | Specialist Advice'!I48/$V49</f>
-        <v>0</v>
-      </c>
-      <c r="M49" s="1"/>
-      <c r="N49" s="13">
-        <f>'England | Specialist Advice'!K48/$V49</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!L48/$S49</f>
+        <v>0</v>
+      </c>
+      <c r="M49" s="13">
+        <f>'Activity by month'!M48/$S49</f>
+        <v>0</v>
+      </c>
+      <c r="N49" s="1"/>
       <c r="O49" s="13">
-        <f>'England | Specialist Advice'!L48/$V49</f>
+        <f>'Activity by month'!O48/$S49</f>
         <v>0</v>
       </c>
       <c r="P49" s="13">
-        <f>'England | Specialist Advice'!M48/$V49</f>
-        <v>0</v>
-      </c>
-      <c r="Q49" s="1"/>
-      <c r="R49" s="13">
-        <f>'England | Specialist Advice'!O48/$V49</f>
-        <v>0</v>
-      </c>
-      <c r="S49" s="13">
-        <f>'England | Specialist Advice'!P48/$V49</f>
-        <v>0</v>
-      </c>
-      <c r="T49" s="13">
-        <f>'England | Specialist Advice'!Q48/$V49</f>
-        <v>0</v>
-      </c>
-      <c r="U49" s="1"/>
-      <c r="V49" s="27">
+        <f>'Activity by month'!P48/$S49</f>
+        <v>0</v>
+      </c>
+      <c r="Q49" s="13">
+        <f>'Activity by month'!Q48/$S49</f>
+        <v>0</v>
+      </c>
+      <c r="R49" s="1"/>
+      <c r="S49" s="27">
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E50" s="11">
-        <f>'England | Specialist Advice'!B49</f>
+    <row r="50" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B50" s="11">
+        <f>'Activity by month'!B49</f>
         <v>45658</v>
       </c>
-      <c r="F50" s="13">
-        <f>'England | Specialist Advice'!C49/$V50</f>
-        <v>0</v>
-      </c>
+      <c r="C50" s="13">
+        <f>'Activity by month'!C49/$S50</f>
+        <v>0</v>
+      </c>
+      <c r="D50" s="13">
+        <f>'Activity by month'!D49/$S50</f>
+        <v>0</v>
+      </c>
+      <c r="E50" s="13">
+        <f>'Activity by month'!E49/$S50</f>
+        <v>0</v>
+      </c>
+      <c r="F50" s="1"/>
       <c r="G50" s="13">
-        <f>'England | Specialist Advice'!D49/$V50</f>
+        <f>'Activity by month'!G49/$S50</f>
         <v>0</v>
       </c>
       <c r="H50" s="13">
-        <f>'England | Specialist Advice'!E49/$V50</f>
-        <v>0</v>
-      </c>
-      <c r="I50" s="1"/>
-      <c r="J50" s="13">
-        <f>'England | Specialist Advice'!G49/$V50</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!H49/$S50</f>
+        <v>0</v>
+      </c>
+      <c r="I50" s="13">
+        <f>'Activity by month'!I49/$S50</f>
+        <v>0</v>
+      </c>
+      <c r="J50" s="1"/>
       <c r="K50" s="13">
-        <f>'England | Specialist Advice'!H49/$V50</f>
+        <f>'Activity by month'!K49/$S50</f>
         <v>0</v>
       </c>
       <c r="L50" s="13">
-        <f>'England | Specialist Advice'!I49/$V50</f>
-        <v>0</v>
-      </c>
-      <c r="M50" s="1"/>
-      <c r="N50" s="13">
-        <f>'England | Specialist Advice'!K49/$V50</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!L49/$S50</f>
+        <v>0</v>
+      </c>
+      <c r="M50" s="13">
+        <f>'Activity by month'!M49/$S50</f>
+        <v>0</v>
+      </c>
+      <c r="N50" s="1"/>
       <c r="O50" s="13">
-        <f>'England | Specialist Advice'!L49/$V50</f>
+        <f>'Activity by month'!O49/$S50</f>
         <v>0</v>
       </c>
       <c r="P50" s="13">
-        <f>'England | Specialist Advice'!M49/$V50</f>
-        <v>0</v>
-      </c>
-      <c r="Q50" s="1"/>
-      <c r="R50" s="13">
-        <f>'England | Specialist Advice'!O49/$V50</f>
-        <v>0</v>
-      </c>
-      <c r="S50" s="13">
-        <f>'England | Specialist Advice'!P49/$V50</f>
-        <v>0</v>
-      </c>
-      <c r="T50" s="13">
-        <f>'England | Specialist Advice'!Q49/$V50</f>
-        <v>0</v>
-      </c>
-      <c r="U50" s="1"/>
-      <c r="V50" s="27">
+        <f>'Activity by month'!P49/$S50</f>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="13">
+        <f>'Activity by month'!Q49/$S50</f>
+        <v>0</v>
+      </c>
+      <c r="R50" s="1"/>
+      <c r="S50" s="27">
         <v>22</v>
       </c>
     </row>
-    <row r="51" spans="5:22" x14ac:dyDescent="0.25">
-      <c r="E51" s="11">
-        <f>'England | Specialist Advice'!B50</f>
+    <row r="51" spans="2:19" x14ac:dyDescent="0.25">
+      <c r="B51" s="11">
+        <f>'Activity by month'!B50</f>
         <v>45689</v>
       </c>
-      <c r="F51" s="13">
-        <f>'England | Specialist Advice'!C50/$V51</f>
-        <v>0</v>
-      </c>
+      <c r="C51" s="13">
+        <f>'Activity by month'!C50/$S51</f>
+        <v>0</v>
+      </c>
+      <c r="D51" s="13">
+        <f>'Activity by month'!D50/$S51</f>
+        <v>0</v>
+      </c>
+      <c r="E51" s="13">
+        <f>'Activity by month'!E50/$S51</f>
+        <v>0</v>
+      </c>
+      <c r="F51" s="1"/>
       <c r="G51" s="13">
-        <f>'England | Specialist Advice'!D50/$V51</f>
+        <f>'Activity by month'!G50/$S51</f>
         <v>0</v>
       </c>
       <c r="H51" s="13">
-        <f>'England | Specialist Advice'!E50/$V51</f>
-        <v>0</v>
-      </c>
-      <c r="I51" s="1"/>
-      <c r="J51" s="13">
-        <f>'England | Specialist Advice'!G50/$V51</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!H50/$S51</f>
+        <v>0</v>
+      </c>
+      <c r="I51" s="13">
+        <f>'Activity by month'!I50/$S51</f>
+        <v>0</v>
+      </c>
+      <c r="J51" s="1"/>
       <c r="K51" s="13">
-        <f>'England | Specialist Advice'!H50/$V51</f>
+        <f>'Activity by month'!K50/$S51</f>
         <v>0</v>
       </c>
       <c r="L51" s="13">
-        <f>'England | Specialist Advice'!I50/$V51</f>
-        <v>0</v>
-      </c>
-      <c r="M51" s="1"/>
-      <c r="N51" s="13">
-        <f>'England | Specialist Advice'!K50/$V51</f>
-        <v>0</v>
-      </c>
+        <f>'Activity by month'!L50/$S51</f>
+        <v>0</v>
+      </c>
+      <c r="M51" s="13">
+        <f>'Activity by month'!M50/$S51</f>
+        <v>0</v>
+      </c>
+      <c r="N51" s="1"/>
       <c r="O51" s="13">
-        <f>'England | Specialist Advice'!L50/$V51</f>
+        <f>'Activity by month'!O50/$S51</f>
         <v>0</v>
       </c>
       <c r="P51" s="13">
-        <f>'England | Specialist Advice'!M50/$V51</f>
-        <v>0</v>
-      </c>
-      <c r="Q51" s="1"/>
-      <c r="R51" s="13">
-        <f>'England | Specialist Advice'!O50/$V51</f>
-        <v>0</v>
-      </c>
-      <c r="S51" s="13">
-        <f>'England | Specialist Advice'!P50/$V51</f>
-        <v>0</v>
-      </c>
-      <c r="T51" s="13">
-        <f>'England | Specialist Advice'!Q50/$V51</f>
-        <v>0</v>
-      </c>
-      <c r="U51" s="1"/>
-      <c r="V51" s="27">
+        <f>'Activity by month'!P50/$S51</f>
+        <v>0</v>
+      </c>
+      <c r="Q51" s="13">
+        <f>'Activity by month'!Q50/$S51</f>
+        <v>0</v>
+      </c>
+      <c r="R51" s="1"/>
+      <c r="S51" s="27">
         <v>20</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="N15:P15"/>
+  <mergeCells count="7">
     <mergeCell ref="R15:T15"/>
     <mergeCell ref="C10:Q10"/>
     <mergeCell ref="C11:Q11"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="K15:M15"/>
+    <mergeCell ref="O15:Q15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="cb757152-6290-4f10-9526-458cf73e4534" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="cb757152-6290-4f10-9526-458cf73e4534" xsi:nil="true"/>
-    <TaxCatchAll xmlns="cb757152-6290-4f10-9526-458cf73e4534" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="30dd1bc9-520c-4869-8c8c-9a8c02d447dc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000611BC576570B445AD683FFF8493BECF" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8f98cbd5f5efdf85b388a7f4f496b5c7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="30dd1bc9-520c-4869-8c8c-9a8c02d447dc" xmlns:ns3="cb757152-6290-4f10-9526-458cf73e4534" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5d01b020bb47f93ef4b15ba88ec310de" ns2:_="" ns3:_="">
     <xsd:import namespace="30dd1bc9-520c-4869-8c8c-9a8c02d447dc"/>
@@ -5877,10 +5987,43 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="cb757152-6290-4f10-9526-458cf73e4534" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="cb757152-6290-4f10-9526-458cf73e4534" xsi:nil="true"/>
+    <TaxCatchAll xmlns="cb757152-6290-4f10-9526-458cf73e4534" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="30dd1bc9-520c-4869-8c8c-9a8c02d447dc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8D6317F-551E-46C1-9E04-F304F9154834}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFF82CB1-100A-4717-9496-CA055E2AD976}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="30dd1bc9-520c-4869-8c8c-9a8c02d447dc"/>
+    <ds:schemaRef ds:uri="cb757152-6290-4f10-9526-458cf73e4534"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5903,20 +6046,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFF82CB1-100A-4717-9496-CA055E2AD976}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8D6317F-551E-46C1-9E04-F304F9154834}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="30dd1bc9-520c-4869-8c8c-9a8c02d447dc"/>
-    <ds:schemaRef ds:uri="cb757152-6290-4f10-9526-458cf73e4534"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/UK template.xlsx
+++ b/UK template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nhs.sharepoint.com/sites/ElectiveRecoveryAnalysis/Shared Documents/09 Outpatients Transformation/09_Model_Health_System/12_Routine processing/SA Templates for data bricks/Template archive/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nhs.sharepoint.com/sites/ElectiveRecoveryAnalysis/Shared Documents/09 Outpatients Transformation/09_Model_Health_System/12_Routine processing/Data Bricks Templates and Outputs/Template archive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="208" documentId="8_{752AFE92-8F10-46C1-ADD2-FF649F8D3B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C55AED3-8CE6-4FA0-93D2-57A40D5EC220}"/>
+  <xr:revisionPtr revIDLastSave="220" documentId="8_{752AFE92-8F10-46C1-ADD2-FF649F8D3B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FC4A2DF-8302-4C11-8CAB-897857E912E9}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="876" activeTab="1" xr2:uid="{FF7DBD49-CC0C-437A-836D-915DF7AECF87}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="54">
   <si>
     <t>Source Data &amp; Defintions</t>
   </si>
@@ -190,9 +190,6 @@
     <t xml:space="preserve">No. of working days </t>
   </si>
   <si>
-    <t>10th April 2025</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Specialist Advice Activity by measure, </t>
     </r>
@@ -232,6 +229,9 @@
   </si>
   <si>
     <t>This file includes an England aggregate position. Published management information grouping activity by specialities that are in, and out of, scope of the elective recovery fund (ERF) is also available at ICB and Provider level, please refer to the published csv files.</t>
+  </si>
+  <si>
+    <t>TBC</t>
   </si>
 </sst>
 </file>
@@ -544,7 +544,7 @@
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -641,14 +641,36 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -668,6 +690,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="4"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -683,37 +708,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -725,21 +720,23 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -747,11 +744,31 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="1">
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color theme="0"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1082,10 +1099,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
       <c r="F1" s="36"/>
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
@@ -1093,12 +1110,12 @@
       <c r="J1" s="36"/>
     </row>
     <row r="2" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="80" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
+      <c r="B2" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
       <c r="H2" s="36"/>
@@ -1106,8 +1123,8 @@
       <c r="J2" s="36"/>
     </row>
     <row r="3" spans="2:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="79" t="s">
-        <v>49</v>
+      <c r="B3" s="54" t="s">
+        <v>48</v>
       </c>
       <c r="C3" s="47"/>
       <c r="D3" s="47"/>
@@ -1119,12 +1136,12 @@
       <c r="J3" s="36"/>
     </row>
     <row r="4" spans="2:10" ht="165" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="78" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
+      <c r="B4" s="58" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
       <c r="H4" s="36"/>
@@ -1132,12 +1149,12 @@
       <c r="J4" s="5"/>
     </row>
     <row r="5" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="79" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
+      <c r="B5" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
       <c r="F5" s="36"/>
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
@@ -1145,12 +1162,12 @@
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="2:10" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="C6" s="78"/>
-      <c r="D6" s="78"/>
-      <c r="E6" s="78"/>
+      <c r="B6" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="58"/>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
       <c r="F6" s="36"/>
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
@@ -1158,12 +1175,12 @@
       <c r="J6" s="5"/>
     </row>
     <row r="7" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="79" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
+      <c r="B7" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
       <c r="F7" s="36"/>
       <c r="G7" s="36"/>
       <c r="H7" s="36"/>
@@ -1171,12 +1188,12 @@
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="2:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="78" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
+      <c r="B8" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
       <c r="F8" s="36"/>
       <c r="G8" s="36"/>
       <c r="H8" s="36"/>
@@ -1184,12 +1201,12 @@
       <c r="J8" s="36"/>
     </row>
     <row r="9" spans="2:10" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="59" t="s">
         <v>1</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
       <c r="F9" s="36"/>
       <c r="G9" s="36"/>
       <c r="H9" s="36"/>
@@ -1197,12 +1214,12 @@
       <c r="J9" s="36"/>
     </row>
     <row r="10" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="52" t="s">
+      <c r="B10" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="52"/>
-      <c r="E10" s="52"/>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="60"/>
       <c r="F10" s="36"/>
       <c r="G10" s="36"/>
       <c r="H10" s="36"/>
@@ -1210,12 +1227,12 @@
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="48" t="s">
+      <c r="B11" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
       <c r="F11" s="36"/>
       <c r="G11" s="36"/>
       <c r="H11" s="36"/>
@@ -1223,12 +1240,12 @@
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="3" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="53" t="s">
+      <c r="B12" s="61" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="53"/>
-      <c r="D12" s="53"/>
-      <c r="E12" s="53"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
       <c r="H12" s="38"/>
@@ -1236,12 +1253,12 @@
       <c r="J12" s="38"/>
     </row>
     <row r="13" spans="2:10" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="53" t="s">
+      <c r="B13" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="53"/>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
       <c r="H13" s="38"/>
@@ -1249,12 +1266,12 @@
       <c r="J13" s="38"/>
     </row>
     <row r="14" spans="2:10" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="53" t="s">
+      <c r="B14" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="53"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
       <c r="H14" s="38"/>
@@ -1262,12 +1279,12 @@
       <c r="J14" s="38"/>
     </row>
     <row r="15" spans="2:10" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="54" t="s">
+      <c r="B15" s="62" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="54"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="54"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="62"/>
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
       <c r="H15" s="38"/>
@@ -1286,12 +1303,12 @@
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
-      <c r="E17" s="48"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
       <c r="F17" s="36"/>
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
@@ -1299,12 +1316,12 @@
       <c r="J17" s="36"/>
     </row>
     <row r="18" spans="2:10" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="61"/>
+      <c r="E18" s="61"/>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
       <c r="H18" s="38"/>
@@ -1312,12 +1329,12 @@
       <c r="J18" s="38"/>
     </row>
     <row r="19" spans="2:10" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="61" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
+      <c r="C19" s="61"/>
+      <c r="D19" s="61"/>
+      <c r="E19" s="61"/>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
       <c r="H19" s="38"/>
@@ -1325,12 +1342,12 @@
       <c r="J19" s="38"/>
     </row>
     <row r="20" spans="2:10" s="3" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="53"/>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="61"/>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="38"/>
@@ -1338,28 +1355,28 @@
       <c r="J20" s="38"/>
     </row>
     <row r="21" spans="2:10" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="54" t="s">
+      <c r="B21" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
     </row>
     <row r="22" spans="2:10" s="4" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="56"/>
-      <c r="E22" s="56"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="64"/>
     </row>
     <row r="23" spans="2:10" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="61" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="53"/>
-      <c r="D23" s="53"/>
-      <c r="E23" s="53"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="41"/>
@@ -1368,28 +1385,28 @@
       <c r="E24" s="37"/>
     </row>
     <row r="25" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B25" s="51" t="s">
+      <c r="B25" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
     </row>
     <row r="26" spans="2:10" s="3" customFormat="1" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="50" t="s">
+      <c r="B26" s="65" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="50"/>
-      <c r="E26" s="50"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
     </row>
     <row r="27" spans="2:10" s="3" customFormat="1" ht="81.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="57" t="s">
+      <c r="B27" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="57"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="57"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="41"/>
@@ -1398,20 +1415,20 @@
       <c r="E28" s="41"/>
     </row>
     <row r="29" spans="2:10" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B29" s="51" t="s">
+      <c r="B29" s="59" t="s">
         <v>18</v>
       </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
     </row>
     <row r="30" spans="2:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="50" t="s">
+      <c r="B30" s="65" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="42"/>
@@ -1426,10 +1443,10 @@
       <c r="E32" s="36"/>
     </row>
     <row r="33" spans="2:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B33" s="55"/>
-      <c r="C33" s="55"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="25">
@@ -1560,7 +1577,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
@@ -1643,45 +1660,45 @@
       <c r="B10" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="58"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="67"/>
     </row>
     <row r="11" spans="1:19" ht="75.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="58"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
     </row>
     <row r="12" spans="1:19" s="42" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="45" t="s">
@@ -1690,29 +1707,29 @@
     </row>
     <row r="14" spans="1:19" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
-      <c r="C14" s="61" t="s">
+      <c r="C14" s="70" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
       <c r="F14" s="21"/>
-      <c r="G14" s="60" t="s">
+      <c r="G14" s="69" t="s">
         <v>35</v>
       </c>
-      <c r="H14" s="60"/>
-      <c r="I14" s="60"/>
+      <c r="H14" s="69"/>
+      <c r="I14" s="69"/>
       <c r="J14" s="21"/>
-      <c r="K14" s="59" t="s">
+      <c r="K14" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="L14" s="59"/>
-      <c r="M14" s="59"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
       <c r="N14" s="21"/>
-      <c r="O14" s="59" t="s">
+      <c r="O14" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="P14" s="59"/>
-      <c r="Q14" s="59"/>
+      <c r="P14" s="68"/>
+      <c r="Q14" s="68"/>
     </row>
     <row r="15" spans="1:19" s="8" customFormat="1" ht="60.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
@@ -3290,8 +3307,13 @@
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="C11:Q11"/>
   </mergeCells>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+      <formula>"TBC"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C16:Q50">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3304,8 +3326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E193334-6EF9-4B5B-889C-37F0C8CE3CB6}">
   <dimension ref="B3:V51"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="V16" sqref="V16"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T11" sqref="T11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3313,13 +3335,14 @@
     <col min="1" max="1" width="2.85546875" customWidth="1"/>
     <col min="2" max="2" width="18.5703125" customWidth="1"/>
     <col min="3" max="5" width="13.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
+    <col min="6" max="6" width="3.42578125" customWidth="1"/>
     <col min="7" max="9" width="16" customWidth="1"/>
-    <col min="10" max="10" width="15.5703125" customWidth="1"/>
+    <col min="10" max="10" width="3.42578125" customWidth="1"/>
     <col min="11" max="13" width="16.42578125" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" customWidth="1"/>
+    <col min="14" max="14" width="3.42578125" customWidth="1"/>
     <col min="15" max="17" width="16" customWidth="1"/>
-    <col min="18" max="20" width="15.5703125" customWidth="1"/>
+    <col min="18" max="18" width="3.42578125" customWidth="1"/>
+    <col min="19" max="20" width="15.5703125" customWidth="1"/>
     <col min="21" max="21" width="4" customWidth="1"/>
     <col min="22" max="22" width="12" customWidth="1"/>
   </cols>
@@ -3379,8 +3402,9 @@
       <c r="B6" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="19" t="s">
-        <v>46</v>
+      <c r="C6" s="19" t="str">
+        <f>'Activity by month'!C6</f>
+        <v>TBC</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
@@ -3463,49 +3487,49 @@
       <c r="B10" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="67" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="58"/>
-      <c r="E10" s="58"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="58"/>
-      <c r="J10" s="58"/>
-      <c r="K10" s="58"/>
-      <c r="L10" s="58"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="58"/>
-      <c r="O10" s="58"/>
-      <c r="P10" s="58"/>
-      <c r="Q10" s="58"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="67"/>
+      <c r="J10" s="67"/>
+      <c r="K10" s="67"/>
+      <c r="L10" s="67"/>
+      <c r="M10" s="67"/>
+      <c r="N10" s="67"/>
+      <c r="O10" s="67"/>
+      <c r="P10" s="67"/>
+      <c r="Q10" s="67"/>
     </row>
     <row r="11" spans="2:22" s="1" customFormat="1" ht="75.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="58"/>
-      <c r="E11" s="58"/>
-      <c r="F11" s="58"/>
-      <c r="G11" s="58"/>
-      <c r="H11" s="58"/>
-      <c r="I11" s="58"/>
-      <c r="J11" s="58"/>
-      <c r="K11" s="58"/>
-      <c r="L11" s="58"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="58"/>
-      <c r="O11" s="58"/>
-      <c r="P11" s="58"/>
-      <c r="Q11" s="58"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="67"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
+      <c r="H11" s="67"/>
+      <c r="I11" s="67"/>
+      <c r="J11" s="67"/>
+      <c r="K11" s="67"/>
+      <c r="L11" s="67"/>
+      <c r="M11" s="67"/>
+      <c r="N11" s="67"/>
+      <c r="O11" s="67"/>
+      <c r="P11" s="67"/>
+      <c r="Q11" s="67"/>
     </row>
     <row r="13" spans="2:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
@@ -3546,34 +3570,34 @@
       <c r="V14" s="1"/>
     </row>
     <row r="15" spans="2:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C15" s="73" t="s">
+      <c r="C15" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="D15" s="74"/>
-      <c r="E15" s="75"/>
-      <c r="F15" s="69" t="s">
+      <c r="D15" s="73"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="49" t="s">
         <v>34</v>
       </c>
-      <c r="G15" s="65" t="s">
+      <c r="G15" s="75" t="s">
         <v>35</v>
       </c>
-      <c r="H15" s="66"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="70"/>
-      <c r="K15" s="62" t="s">
+      <c r="H15" s="76"/>
+      <c r="I15" s="77"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="78" t="s">
         <v>36</v>
       </c>
-      <c r="L15" s="63"/>
-      <c r="M15" s="64"/>
-      <c r="N15" s="71"/>
-      <c r="O15" s="62" t="s">
+      <c r="L15" s="79"/>
+      <c r="M15" s="80"/>
+      <c r="N15" s="50"/>
+      <c r="O15" s="78" t="s">
         <v>37</v>
       </c>
-      <c r="P15" s="63"/>
-      <c r="Q15" s="64"/>
-      <c r="R15" s="72"/>
-      <c r="S15" s="72"/>
-      <c r="T15" s="72"/>
+      <c r="P15" s="79"/>
+      <c r="Q15" s="80"/>
+      <c r="R15" s="71"/>
+      <c r="S15" s="71"/>
+      <c r="T15" s="71"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
     </row>
@@ -3591,10 +3615,10 @@
         <v>44</v>
       </c>
       <c r="F16" s="22"/>
-      <c r="G16" s="68" t="s">
+      <c r="G16" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="68" t="s">
+      <c r="H16" s="48" t="s">
         <v>43</v>
       </c>
       <c r="I16" s="10" t="s">
@@ -3611,17 +3635,17 @@
         <v>44</v>
       </c>
       <c r="N16" s="22"/>
-      <c r="O16" s="68" t="s">
+      <c r="O16" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="P16" s="68" t="s">
+      <c r="P16" s="48" t="s">
         <v>43</v>
       </c>
       <c r="Q16" s="10" t="s">
         <v>44</v>
       </c>
       <c r="R16" s="1"/>
-      <c r="S16" s="77" t="s">
+      <c r="S16" s="52" t="s">
         <v>45</v>
       </c>
     </row>
@@ -3682,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R17" s="12"/>
-      <c r="S17" s="76">
+      <c r="S17" s="51">
         <v>19</v>
       </c>
     </row>
@@ -5770,11 +5794,25 @@
     <mergeCell ref="K15:M15"/>
     <mergeCell ref="O15:Q15"/>
   </mergeCells>
+  <conditionalFormatting sqref="C6">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>"TBC"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101000611BC576570B445AD683FFF8493BECF" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="8f98cbd5f5efdf85b388a7f4f496b5c7">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="30dd1bc9-520c-4869-8c8c-9a8c02d447dc" xmlns:ns3="cb757152-6290-4f10-9526-458cf73e4534" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="5d01b020bb47f93ef4b15ba88ec310de" ns2:_="" ns3:_="">
     <xsd:import namespace="30dd1bc9-520c-4869-8c8c-9a8c02d447dc"/>
@@ -5987,7 +6025,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="cb757152-6290-4f10-9526-458cf73e4534" xsi:nil="true"/>
@@ -6000,16 +6038,15 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8D6317F-551E-46C1-9E04-F304F9154834}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AFF82CB1-100A-4717-9496-CA055E2AD976}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6028,7 +6065,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8CF2099-042E-4FB8-8771-E34D4B54F195}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="30dd1bc9-520c-4869-8c8c-9a8c02d447dc"/>
@@ -6045,14 +6082,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8D6317F-551E-46C1-9E04-F304F9154834}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{37c354b2-85b0-47f5-b222-07b48d774ee3}" enabled="0" method="" siteId="{37c354b2-85b0-47f5-b222-07b48d774ee3}" removed="1"/>

--- a/UK template.xlsx
+++ b/UK template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://nhs.sharepoint.com/sites/ElectiveRecoveryAnalysis/Shared Documents/09 Outpatients Transformation/09_Model_Health_System/12_Routine processing/Data Bricks Templates and Outputs/Template archive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="220" documentId="8_{752AFE92-8F10-46C1-ADD2-FF649F8D3B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6FC4A2DF-8302-4C11-8CAB-897857E912E9}"/>
+  <xr:revisionPtr revIDLastSave="222" documentId="8_{752AFE92-8F10-46C1-ADD2-FF649F8D3B4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{69E88CFD-F666-475B-B958-20D332029B83}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="876" activeTab="1" xr2:uid="{FF7DBD49-CC0C-437A-836D-915DF7AECF87}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="876" xr2:uid="{FF7DBD49-CC0C-437A-836D-915DF7AECF87}"/>
   </bookViews>
   <sheets>
     <sheet name="Source Data and Definitions" sheetId="10" r:id="rId1"/>
@@ -122,9 +122,6 @@
     <t>Contact:</t>
   </si>
   <si>
-    <t>england.outpatient-transformation@nhs.net</t>
-  </si>
-  <si>
     <t xml:space="preserve">Coverage: </t>
   </si>
   <si>
@@ -233,6 +230,9 @@
   <si>
     <t>TBC</t>
   </si>
+  <si>
+    <t>england.electivepmo@nhs.net</t>
+  </si>
 </sst>
 </file>
 
@@ -245,7 +245,7 @@
     <numFmt numFmtId="166" formatCode="0.0%"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0.000000_-;\-* #,##0.000000_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -386,6 +386,21 @@
       <u/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -539,12 +554,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -661,6 +677,27 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="4"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -672,29 +709,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="6"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="4"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -738,9 +754,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Per cent" xfId="2" builtinId="5"/>
   </cellStyles>
@@ -1085,9 +1105,7 @@
   </sheetPr>
   <dimension ref="B1:J33"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:E12"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1099,10 +1117,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:10" ht="26.25" x14ac:dyDescent="0.2">
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
       <c r="F1" s="36"/>
       <c r="G1" s="36"/>
       <c r="H1" s="36"/>
@@ -1110,12 +1128,12 @@
       <c r="J1" s="36"/>
     </row>
     <row r="2" spans="2:10" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="57" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
+      <c r="B2" s="64" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
       <c r="F2" s="36"/>
       <c r="G2" s="36"/>
       <c r="H2" s="36"/>
@@ -1124,7 +1142,7 @@
     </row>
     <row r="3" spans="2:10" ht="29.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B3" s="54" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C3" s="47"/>
       <c r="D3" s="47"/>
@@ -1136,12 +1154,12 @@
       <c r="J3" s="36"/>
     </row>
     <row r="4" spans="2:10" ht="165" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="58" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="58"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="58"/>
+      <c r="B4" s="65" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
       <c r="F4" s="36"/>
       <c r="G4" s="36"/>
       <c r="H4" s="36"/>
@@ -1150,7 +1168,7 @@
     </row>
     <row r="5" spans="2:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="54" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C5" s="53"/>
       <c r="D5" s="53"/>
@@ -1162,12 +1180,12 @@
       <c r="J5" s="5"/>
     </row>
     <row r="6" spans="2:10" ht="124.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="58" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="58"/>
+      <c r="B6" s="65" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
       <c r="F6" s="36"/>
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
@@ -1176,7 +1194,7 @@
     </row>
     <row r="7" spans="2:10" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="54" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="53"/>
       <c r="D7" s="53"/>
@@ -1188,12 +1206,12 @@
       <c r="J7" s="5"/>
     </row>
     <row r="8" spans="2:10" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="58" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="58"/>
-      <c r="D8" s="58"/>
-      <c r="E8" s="58"/>
+      <c r="B8" s="65" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
       <c r="F8" s="36"/>
       <c r="G8" s="36"/>
       <c r="H8" s="36"/>
@@ -1214,12 +1232,12 @@
       <c r="J9" s="36"/>
     </row>
     <row r="10" spans="2:10" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="66" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="60"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="66"/>
       <c r="F10" s="36"/>
       <c r="G10" s="36"/>
       <c r="H10" s="36"/>
@@ -1227,12 +1245,12 @@
       <c r="J10" s="36"/>
     </row>
     <row r="11" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="55" t="s">
+      <c r="B11" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
       <c r="F11" s="36"/>
       <c r="G11" s="36"/>
       <c r="H11" s="36"/>
@@ -1240,12 +1258,12 @@
       <c r="J11" s="36"/>
     </row>
     <row r="12" spans="2:10" s="3" customFormat="1" ht="70.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="61"/>
+      <c r="C12" s="56"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
       <c r="F12" s="38"/>
       <c r="G12" s="38"/>
       <c r="H12" s="38"/>
@@ -1253,12 +1271,12 @@
       <c r="J12" s="38"/>
     </row>
     <row r="13" spans="2:10" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
+      <c r="C13" s="56"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
       <c r="F13" s="38"/>
       <c r="G13" s="38"/>
       <c r="H13" s="38"/>
@@ -1266,12 +1284,12 @@
       <c r="J13" s="38"/>
     </row>
     <row r="14" spans="2:10" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="61"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
       <c r="F14" s="38"/>
       <c r="G14" s="38"/>
       <c r="H14" s="38"/>
@@ -1279,12 +1297,12 @@
       <c r="J14" s="38"/>
     </row>
     <row r="15" spans="2:10" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="62" t="s">
+      <c r="B15" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="62"/>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
       <c r="F15" s="38"/>
       <c r="G15" s="38"/>
       <c r="H15" s="38"/>
@@ -1303,12 +1321,12 @@
       <c r="J16" s="36"/>
     </row>
     <row r="17" spans="2:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="55" t="s">
+      <c r="B17" s="62" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="55"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="62"/>
+      <c r="E17" s="62"/>
       <c r="F17" s="36"/>
       <c r="G17" s="36"/>
       <c r="H17" s="36"/>
@@ -1316,12 +1334,12 @@
       <c r="J17" s="36"/>
     </row>
     <row r="18" spans="2:10" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="61"/>
-      <c r="D18" s="61"/>
-      <c r="E18" s="61"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
       <c r="F18" s="38"/>
       <c r="G18" s="38"/>
       <c r="H18" s="38"/>
@@ -1329,12 +1347,12 @@
       <c r="J18" s="38"/>
     </row>
     <row r="19" spans="2:10" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="61"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
       <c r="F19" s="38"/>
       <c r="G19" s="38"/>
       <c r="H19" s="38"/>
@@ -1342,12 +1360,12 @@
       <c r="J19" s="38"/>
     </row>
     <row r="20" spans="2:10" s="3" customFormat="1" ht="59.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="56" t="s">
         <v>11</v>
       </c>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
-      <c r="E20" s="61"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
+      <c r="E20" s="56"/>
       <c r="F20" s="38"/>
       <c r="G20" s="38"/>
       <c r="H20" s="38"/>
@@ -1355,28 +1373,28 @@
       <c r="J20" s="38"/>
     </row>
     <row r="21" spans="2:10" s="3" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="62" t="s">
+      <c r="B21" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
+      <c r="C21" s="57"/>
+      <c r="D21" s="57"/>
+      <c r="E21" s="57"/>
     </row>
     <row r="22" spans="2:10" s="4" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="64" t="s">
+      <c r="B22" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="64"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="64"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
     </row>
     <row r="23" spans="2:10" s="3" customFormat="1" ht="50.1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
     </row>
     <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="41"/>
@@ -1393,20 +1411,20 @@
       <c r="E25" s="59"/>
     </row>
     <row r="26" spans="2:10" s="3" customFormat="1" ht="44.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="65" t="s">
+      <c r="B26" s="60" t="s">
         <v>16</v>
       </c>
-      <c r="C26" s="65"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="60"/>
     </row>
     <row r="27" spans="2:10" s="3" customFormat="1" ht="81.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="66" t="s">
+      <c r="B27" s="61" t="s">
         <v>17</v>
       </c>
-      <c r="C27" s="66"/>
-      <c r="D27" s="66"/>
-      <c r="E27" s="66"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
     </row>
     <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="41"/>
@@ -1423,12 +1441,12 @@
       <c r="E29" s="59"/>
     </row>
     <row r="30" spans="2:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="65" t="s">
+      <c r="B30" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="C30" s="65"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="65"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="42"/>
@@ -1443,25 +1461,13 @@
       <c r="E32" s="36"/>
     </row>
     <row r="33" spans="2:5" ht="15.75" x14ac:dyDescent="0.2">
-      <c r="B33" s="63"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
+      <c r="B33" s="55"/>
+      <c r="C33" s="55"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="B33:E33"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="B25:E25"/>
-    <mergeCell ref="B26:E26"/>
-    <mergeCell ref="B27:E27"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="B30:E30"/>
     <mergeCell ref="B17:E17"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="B2:E2"/>
@@ -1475,6 +1481,18 @@
     <mergeCell ref="B14:E14"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B6:E6"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="B20:E20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="B25:E25"/>
+    <mergeCell ref="B26:E26"/>
+    <mergeCell ref="B27:E27"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="B30:E30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -1488,7 +1506,7 @@
   </sheetPr>
   <dimension ref="A2:AF122"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1577,7 +1595,7 @@
         <v>24</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D6" s="20"/>
       <c r="E6" s="20"/>
@@ -1620,8 +1638,8 @@
       <c r="B8" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>28</v>
+      <c r="C8" s="81" t="s">
+        <v>53</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
@@ -1658,10 +1676,10 @@
     </row>
     <row r="10" spans="1:19" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="67" t="s">
         <v>29</v>
-      </c>
-      <c r="C10" s="67" t="s">
-        <v>30</v>
       </c>
       <c r="D10" s="67"/>
       <c r="E10" s="67"/>
@@ -1680,10 +1698,10 @@
     </row>
     <row r="11" spans="1:19" ht="75.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="67" t="s">
         <v>31</v>
-      </c>
-      <c r="C11" s="67" t="s">
-        <v>32</v>
       </c>
       <c r="D11" s="67"/>
       <c r="E11" s="67"/>
@@ -1702,77 +1720,77 @@
     </row>
     <row r="12" spans="1:19" s="42" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:19" s="6" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="70"/>
       <c r="E14" s="70"/>
       <c r="F14" s="21"/>
       <c r="G14" s="69" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H14" s="69"/>
       <c r="I14" s="69"/>
       <c r="J14" s="21"/>
       <c r="K14" s="68" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L14" s="68"/>
       <c r="M14" s="68"/>
       <c r="N14" s="21"/>
       <c r="O14" s="68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P14" s="68"/>
       <c r="Q14" s="68"/>
     </row>
     <row r="15" spans="1:19" s="8" customFormat="1" ht="60.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="D15" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="E15" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>41</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="I15" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="I15" s="10" t="s">
-        <v>41</v>
       </c>
       <c r="J15" s="22"/>
       <c r="K15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="M15" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="M15" s="10" t="s">
-        <v>41</v>
       </c>
       <c r="N15" s="22"/>
       <c r="O15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="P15" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="P15" s="10" t="s">
+      <c r="Q15" s="10" t="s">
         <v>40</v>
-      </c>
-      <c r="Q15" s="10" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:19" ht="15" x14ac:dyDescent="0.25">
@@ -3317,8 +3335,11 @@
       <formula>1</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C8" r:id="rId1" xr:uid="{4D0691FA-6B6B-4A0F-B893-C8FD7B4E1326}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3326,9 +3347,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E193334-6EF9-4B5B-889C-37F0C8CE3CB6}">
   <dimension ref="B3:V51"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
-    </sheetView>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3447,8 +3466,8 @@
       <c r="B8" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="19" t="s">
-        <v>28</v>
+      <c r="C8" s="81" t="s">
+        <v>53</v>
       </c>
       <c r="D8" s="20"/>
       <c r="E8" s="20"/>
@@ -3485,10 +3504,10 @@
     </row>
     <row r="10" spans="2:22" s="1" customFormat="1" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="32" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="67" t="s">
         <v>29</v>
-      </c>
-      <c r="C10" s="67" t="s">
-        <v>30</v>
       </c>
       <c r="D10" s="67"/>
       <c r="E10" s="67"/>
@@ -3507,10 +3526,10 @@
     </row>
     <row r="11" spans="2:22" s="1" customFormat="1" ht="75.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="32" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="67" t="s">
         <v>31</v>
-      </c>
-      <c r="C11" s="67" t="s">
-        <v>32</v>
       </c>
       <c r="D11" s="67"/>
       <c r="E11" s="67"/>
@@ -3529,7 +3548,7 @@
     </row>
     <row r="13" spans="2:22" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F13" s="42"/>
       <c r="G13" s="42"/>
@@ -3571,27 +3590,27 @@
     </row>
     <row r="15" spans="2:22" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="73"/>
       <c r="E15" s="74"/>
       <c r="F15" s="49" t="s">
+        <v>33</v>
+      </c>
+      <c r="G15" s="75" t="s">
         <v>34</v>
-      </c>
-      <c r="G15" s="75" t="s">
-        <v>35</v>
       </c>
       <c r="H15" s="76"/>
       <c r="I15" s="77"/>
       <c r="J15" s="21"/>
       <c r="K15" s="78" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L15" s="79"/>
       <c r="M15" s="80"/>
       <c r="N15" s="50"/>
       <c r="O15" s="78" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="P15" s="79"/>
       <c r="Q15" s="80"/>
@@ -3603,50 +3622,50 @@
     </row>
     <row r="16" spans="2:22" ht="60" x14ac:dyDescent="0.25">
       <c r="B16" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="E16" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="H16" s="48" t="s">
+      <c r="I16" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="I16" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="J16" s="22"/>
       <c r="K16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="L16" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="L16" s="10" t="s">
+      <c r="M16" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="M16" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="N16" s="22"/>
       <c r="O16" s="48" t="s">
+        <v>41</v>
+      </c>
+      <c r="P16" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="P16" s="48" t="s">
+      <c r="Q16" s="10" t="s">
         <v>43</v>
-      </c>
-      <c r="Q16" s="10" t="s">
-        <v>44</v>
       </c>
       <c r="R16" s="1"/>
       <c r="S16" s="52" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="2:19" x14ac:dyDescent="0.25">
@@ -5799,17 +5818,24 @@
       <formula>"TBC"</formula>
     </cfRule>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="C8" r:id="rId1" xr:uid="{D2A2D2EA-A5F3-4B3C-AC3E-815AF1DB5015}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="cb757152-6290-4f10-9526-458cf73e4534" xsi:nil="true"/>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="cb757152-6290-4f10-9526-458cf73e4534" xsi:nil="true"/>
+    <TaxCatchAll xmlns="cb757152-6290-4f10-9526-458cf73e4534" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="30dd1bc9-520c-4869-8c8c-9a8c02d447dc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6026,22 +6052,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="cb757152-6290-4f10-9526-458cf73e4534" xsi:nil="true"/>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="cb757152-6290-4f10-9526-458cf73e4534" xsi:nil="true"/>
-    <TaxCatchAll xmlns="cb757152-6290-4f10-9526-458cf73e4534" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="30dd1bc9-520c-4869-8c8c-9a8c02d447dc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8D6317F-551E-46C1-9E04-F304F9154834}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8CF2099-042E-4FB8-8771-E34D4B54F195}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="30dd1bc9-520c-4869-8c8c-9a8c02d447dc"/>
+    <ds:schemaRef ds:uri="cb757152-6290-4f10-9526-458cf73e4534"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6066,18 +6097,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8CF2099-042E-4FB8-8771-E34D4B54F195}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B8D6317F-551E-46C1-9E04-F304F9154834}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="30dd1bc9-520c-4869-8c8c-9a8c02d447dc"/>
-    <ds:schemaRef ds:uri="cb757152-6290-4f10-9526-458cf73e4534"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
